--- a/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Approximate hover descent time = </t>
     </r>
     <r>
@@ -191,6 +198,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The tables below are for </t>
     </r>
     <r>
@@ -1426,13 +1441,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>544830</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
@@ -1452,7 +1467,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35318065" y="14454505"/>
+          <a:off x="34700845" y="14454505"/>
           <a:ext cx="7341235" cy="4901565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,13 +1483,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>410210</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
@@ -1494,7 +1509,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35315525" y="9215755"/>
+          <a:off x="34698305" y="9215755"/>
           <a:ext cx="7418705" cy="4925695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1510,13 +1525,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>566420</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>8890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>114935</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
@@ -1536,7 +1551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35471735" y="3976370"/>
+          <a:off x="34854515" y="3976370"/>
           <a:ext cx="7374890" cy="4910455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1678,13 +1693,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>611505</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>163195</xdr:rowOff>
@@ -1704,7 +1719,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43343195" y="4046855"/>
+          <a:off x="42725975" y="4046855"/>
           <a:ext cx="7325995" cy="4869180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1720,13 +1735,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>585470</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>29210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
@@ -1746,7 +1761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43317160" y="9147810"/>
+          <a:off x="42699940" y="9147810"/>
           <a:ext cx="7378065" cy="4899660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1762,13 +1777,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>8890</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>77470</xdr:rowOff>
@@ -1788,7 +1803,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43357800" y="14395450"/>
+          <a:off x="42740580" y="14395450"/>
           <a:ext cx="7441565" cy="4919980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2189,10 +2204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BG86"/>
+  <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="BO6" sqref="BO6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2209,13 +2224,15 @@
     <col min="30" max="31" width="9.66666666666667" style="1"/>
     <col min="32" max="34" width="9" style="1"/>
     <col min="35" max="35" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="36" max="47" width="9" style="1"/>
+    <col min="36" max="45" width="9" style="1"/>
+    <col min="47" max="47" width="9" style="1"/>
     <col min="48" max="48" width="18.1759259259259" style="1" customWidth="1"/>
     <col min="49" max="49" width="14.9444444444444" style="1" customWidth="1"/>
-    <col min="50" max="57" width="9" style="1"/>
-    <col min="58" max="58" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="59" max="59" width="14.9444444444444" style="1" customWidth="1"/>
-    <col min="60" max="16384" width="9" style="1"/>
+    <col min="50" max="55" width="9" style="1"/>
+    <col min="59" max="59" width="9" style="1"/>
+    <col min="60" max="60" width="18.1759259259259" style="1" customWidth="1"/>
+    <col min="61" max="61" width="14.9444444444444" style="1" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2349,7 +2366,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" customHeight="1" spans="2:59">
+    <row r="11" customHeight="1" spans="2:61">
       <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
@@ -2372,14 +2389,14 @@
       <c r="AW11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="20" t="s">
+      <c r="BH11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BG11" s="71" t="s">
+      <c r="BI11" s="71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:59">
+    <row r="12" customHeight="1" spans="2:61">
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
@@ -2402,14 +2419,14 @@
       <c r="AW12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="BF12" s="20" t="s">
+      <c r="BH12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="BG12" s="20" t="s">
+      <c r="BI12" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="24:59">
+    <row r="13" customHeight="1" spans="24:61">
       <c r="X13" s="64" t="s">
         <v>33</v>
       </c>
@@ -2428,7 +2445,7 @@
       <c r="AJ13" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="AQ13" s="72"/>
+      <c r="AP13" s="72"/>
       <c r="AU13" s="64" t="s">
         <v>37</v>
       </c>
@@ -2438,44 +2455,43 @@
       <c r="AW13" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="BE13" s="64" t="s">
+      <c r="BG13" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="BF13" s="20" t="s">
+      <c r="BH13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="BG13" s="71" t="s">
+      <c r="BI13" s="71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:56">
+    <row r="14" spans="2:55">
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AI14" s="20"/>
       <c r="AJ14" s="71"/>
-      <c r="AQ14" s="72"/>
-      <c r="BD14" s="73"/>
-    </row>
-    <row r="15" spans="35:59">
+      <c r="AP14" s="72"/>
+      <c r="BC14" s="73"/>
+    </row>
+    <row r="15" spans="35:61">
       <c r="AI15" s="20"/>
       <c r="AJ15" s="71"/>
-      <c r="AQ15" s="72"/>
+      <c r="AP15" s="72"/>
       <c r="AV15" s="20"/>
       <c r="AW15" s="71"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="20"/>
-      <c r="BG15" s="71"/>
-    </row>
-    <row r="16" spans="1:43">
+      <c r="BC15" s="73"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="71"/>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="AQ16" s="72"/>
-    </row>
-    <row r="17" ht="60" customHeight="1" spans="1:43">
+      <c r="AP16" s="72"/>
+    </row>
+    <row r="17" ht="60" customHeight="1" spans="1:42">
       <c r="A17" s="26" t="s">
         <v>40</v>
       </c>
@@ -2530,9 +2546,9 @@
       <c r="R17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AQ17" s="72"/>
-    </row>
-    <row r="18" spans="1:43">
+      <c r="AP17" s="72"/>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="29" t="s">
         <v>33</v>
       </c>
@@ -2587,9 +2603,9 @@
       <c r="R18" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AQ18" s="72"/>
-    </row>
-    <row r="19" spans="1:43">
+      <c r="AP18" s="72"/>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="29"/>
       <c r="B19" s="30">
         <v>10</v>
@@ -2642,9 +2658,9 @@
       <c r="R19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ19" s="72"/>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AP19" s="72"/>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="29"/>
       <c r="B20" s="30">
         <v>15</v>
@@ -2697,9 +2713,9 @@
       <c r="R20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ20" s="72"/>
-    </row>
-    <row r="21" spans="1:43">
+      <c r="AP20" s="72"/>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="29"/>
       <c r="B21" s="30">
         <v>20</v>
@@ -2752,9 +2768,9 @@
       <c r="R21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ21" s="72"/>
-    </row>
-    <row r="22" spans="1:43">
+      <c r="AP21" s="72"/>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="29"/>
       <c r="B22" s="30">
         <v>25</v>
@@ -2807,9 +2823,9 @@
       <c r="R22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ22" s="72"/>
-    </row>
-    <row r="23" spans="1:43">
+      <c r="AP22" s="72"/>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="29"/>
       <c r="B23" s="30">
         <v>30</v>
@@ -2862,9 +2878,9 @@
       <c r="R23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ23" s="72"/>
-    </row>
-    <row r="24" spans="1:43">
+      <c r="AP23" s="72"/>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="29"/>
       <c r="B24" s="30">
         <v>35</v>
@@ -2917,9 +2933,9 @@
       <c r="R24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ24" s="72"/>
-    </row>
-    <row r="25" spans="1:43">
+      <c r="AP24" s="72"/>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="29"/>
       <c r="B25" s="30">
         <v>40</v>
@@ -2972,9 +2988,9 @@
       <c r="R25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ25" s="72"/>
-    </row>
-    <row r="26" spans="1:43">
+      <c r="AP25" s="72"/>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="29"/>
       <c r="B26" s="30">
         <v>45</v>
@@ -3027,9 +3043,9 @@
       <c r="R26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ26" s="72"/>
-    </row>
-    <row r="27" spans="1:43">
+      <c r="AP26" s="72"/>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="36"/>
       <c r="B27" s="37">
         <v>50</v>
@@ -3082,9 +3098,9 @@
       <c r="R27" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AQ27" s="72"/>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="AP27" s="72"/>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="40" t="s">
         <v>37</v>
       </c>
@@ -3139,9 +3155,9 @@
       <c r="R28" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AQ28" s="72"/>
-    </row>
-    <row r="29" spans="1:43">
+      <c r="AP28" s="72"/>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="42"/>
       <c r="B29" s="43">
         <v>10</v>
@@ -3194,9 +3210,9 @@
       <c r="R29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ29" s="72"/>
-    </row>
-    <row r="30" spans="1:43">
+      <c r="AP29" s="72"/>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="42"/>
       <c r="B30" s="43">
         <v>15</v>
@@ -3249,9 +3265,9 @@
       <c r="R30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ30" s="72"/>
-    </row>
-    <row r="31" spans="1:43">
+      <c r="AP30" s="72"/>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="42"/>
       <c r="B31" s="43">
         <v>20</v>
@@ -3304,9 +3320,9 @@
       <c r="R31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ31" s="72"/>
-    </row>
-    <row r="32" spans="1:43">
+      <c r="AP31" s="72"/>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="42"/>
       <c r="B32" s="43">
         <v>25</v>
@@ -3359,9 +3375,9 @@
       <c r="R32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ32" s="72"/>
-    </row>
-    <row r="33" spans="1:43">
+      <c r="AP32" s="72"/>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="42"/>
       <c r="B33" s="43">
         <v>30</v>
@@ -3414,9 +3430,9 @@
       <c r="R33" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ33" s="72"/>
-    </row>
-    <row r="34" spans="1:43">
+      <c r="AP33" s="72"/>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="42"/>
       <c r="B34" s="43">
         <v>35</v>
@@ -3469,9 +3485,9 @@
       <c r="R34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ34" s="72"/>
-    </row>
-    <row r="35" spans="1:43">
+      <c r="AP34" s="72"/>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" s="42"/>
       <c r="B35" s="43">
         <v>40</v>
@@ -3524,9 +3540,9 @@
       <c r="R35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ35" s="72"/>
-    </row>
-    <row r="36" spans="1:43">
+      <c r="AP35" s="72"/>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" s="42"/>
       <c r="B36" s="43">
         <v>45</v>
@@ -3579,9 +3595,9 @@
       <c r="R36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ36" s="72"/>
-    </row>
-    <row r="37" spans="1:43">
+      <c r="AP36" s="72"/>
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" s="44"/>
       <c r="B37" s="45">
         <v>50</v>
@@ -3634,9 +3650,9 @@
       <c r="R37" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AQ37" s="72"/>
-    </row>
-    <row r="38" spans="3:43">
+      <c r="AP37" s="72"/>
+    </row>
+    <row r="38" spans="3:42">
       <c r="C38" s="46"/>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -3653,9 +3669,9 @@
       <c r="P38" s="47"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="AQ38" s="72"/>
-    </row>
-    <row r="39" spans="3:43">
+      <c r="AP38" s="72"/>
+    </row>
+    <row r="39" spans="3:42">
       <c r="C39" s="46"/>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
@@ -3672,9 +3688,9 @@
       <c r="P39" s="47"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="AQ39" s="72"/>
-    </row>
-    <row r="40" spans="1:43">
+      <c r="AP39" s="72"/>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" s="25" t="s">
         <v>56</v>
       </c>
@@ -3695,9 +3711,9 @@
       <c r="P40" s="47"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="AQ40" s="72"/>
-    </row>
-    <row r="41" ht="60" customHeight="1" spans="1:43">
+      <c r="AP40" s="72"/>
+    </row>
+    <row r="41" ht="60" customHeight="1" spans="1:42">
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
@@ -3752,9 +3768,9 @@
       <c r="R41" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AQ41" s="72"/>
-    </row>
-    <row r="42" spans="1:43">
+      <c r="AP41" s="72"/>
+    </row>
+    <row r="42" spans="1:42">
       <c r="A42" s="29" t="s">
         <v>33</v>
       </c>
@@ -3809,9 +3825,9 @@
       <c r="R42" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AQ42" s="72"/>
-    </row>
-    <row r="43" spans="1:43">
+      <c r="AP42" s="72"/>
+    </row>
+    <row r="43" spans="1:42">
       <c r="A43" s="29"/>
       <c r="B43" s="30">
         <v>10</v>
@@ -3864,9 +3880,9 @@
       <c r="R43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ43" s="72"/>
-    </row>
-    <row r="44" spans="1:43">
+      <c r="AP43" s="72"/>
+    </row>
+    <row r="44" spans="1:42">
       <c r="A44" s="29"/>
       <c r="B44" s="30">
         <v>15</v>
@@ -3919,9 +3935,9 @@
       <c r="R44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ44" s="72"/>
-    </row>
-    <row r="45" spans="1:43">
+      <c r="AP44" s="72"/>
+    </row>
+    <row r="45" spans="1:42">
       <c r="A45" s="29"/>
       <c r="B45" s="30">
         <v>20</v>
@@ -3974,9 +3990,9 @@
       <c r="R45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ45" s="72"/>
-    </row>
-    <row r="46" spans="1:43">
+      <c r="AP45" s="72"/>
+    </row>
+    <row r="46" spans="1:42">
       <c r="A46" s="29"/>
       <c r="B46" s="30">
         <v>25</v>
@@ -4029,9 +4045,9 @@
       <c r="R46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ46" s="72"/>
-    </row>
-    <row r="47" spans="1:43">
+      <c r="AP46" s="72"/>
+    </row>
+    <row r="47" spans="1:42">
       <c r="A47" s="29"/>
       <c r="B47" s="30">
         <v>30</v>
@@ -4084,9 +4100,9 @@
       <c r="R47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ47" s="72"/>
-    </row>
-    <row r="48" spans="1:43">
+      <c r="AP47" s="72"/>
+    </row>
+    <row r="48" spans="1:42">
       <c r="A48" s="29"/>
       <c r="B48" s="30">
         <v>35</v>
@@ -4139,9 +4155,9 @@
       <c r="R48" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ48" s="72"/>
-    </row>
-    <row r="49" spans="1:43">
+      <c r="AP48" s="72"/>
+    </row>
+    <row r="49" spans="1:42">
       <c r="A49" s="29"/>
       <c r="B49" s="30">
         <v>40</v>
@@ -4194,9 +4210,9 @@
       <c r="R49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ49" s="72"/>
-    </row>
-    <row r="50" spans="1:43">
+      <c r="AP49" s="72"/>
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" s="29"/>
       <c r="B50" s="30">
         <v>45</v>
@@ -4249,9 +4265,9 @@
       <c r="R50" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ50" s="72"/>
-    </row>
-    <row r="51" spans="1:43">
+      <c r="AP50" s="72"/>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" s="36"/>
       <c r="B51" s="37">
         <v>50</v>
@@ -4304,9 +4320,9 @@
       <c r="R51" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AQ51" s="72"/>
-    </row>
-    <row r="52" spans="1:43">
+      <c r="AP51" s="72"/>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" s="40" t="s">
         <v>37</v>
       </c>
@@ -4361,9 +4377,9 @@
       <c r="R52" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="AQ52" s="72"/>
-    </row>
-    <row r="53" spans="1:43">
+      <c r="AP52" s="72"/>
+    </row>
+    <row r="53" spans="1:42">
       <c r="A53" s="42"/>
       <c r="B53" s="43">
         <v>10</v>
@@ -4416,9 +4432,9 @@
       <c r="R53" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ53" s="72"/>
-    </row>
-    <row r="54" spans="1:43">
+      <c r="AP53" s="72"/>
+    </row>
+    <row r="54" spans="1:42">
       <c r="A54" s="42"/>
       <c r="B54" s="43">
         <v>15</v>
@@ -4471,9 +4487,9 @@
       <c r="R54" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ54" s="72"/>
-    </row>
-    <row r="55" spans="1:43">
+      <c r="AP54" s="72"/>
+    </row>
+    <row r="55" spans="1:42">
       <c r="A55" s="42"/>
       <c r="B55" s="43">
         <v>20</v>
@@ -4526,9 +4542,9 @@
       <c r="R55" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ55" s="72"/>
-    </row>
-    <row r="56" spans="1:43">
+      <c r="AP55" s="72"/>
+    </row>
+    <row r="56" spans="1:42">
       <c r="A56" s="42"/>
       <c r="B56" s="43">
         <v>25</v>
@@ -4581,9 +4597,9 @@
       <c r="R56" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ56" s="72"/>
-    </row>
-    <row r="57" spans="1:43">
+      <c r="AP56" s="72"/>
+    </row>
+    <row r="57" spans="1:42">
       <c r="A57" s="42"/>
       <c r="B57" s="43">
         <v>30</v>
@@ -4636,9 +4652,9 @@
       <c r="R57" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ57" s="72"/>
-    </row>
-    <row r="58" spans="1:43">
+      <c r="AP57" s="72"/>
+    </row>
+    <row r="58" spans="1:42">
       <c r="A58" s="42"/>
       <c r="B58" s="43">
         <v>35</v>
@@ -4691,9 +4707,9 @@
       <c r="R58" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AQ58" s="72"/>
-    </row>
-    <row r="59" spans="1:43">
+      <c r="AP58" s="72"/>
+    </row>
+    <row r="59" spans="1:42">
       <c r="A59" s="42"/>
       <c r="B59" s="43">
         <v>40</v>
@@ -4746,9 +4762,9 @@
       <c r="R59" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AQ59" s="72"/>
-    </row>
-    <row r="60" spans="1:43">
+      <c r="AP59" s="72"/>
+    </row>
+    <row r="60" spans="1:42">
       <c r="A60" s="42"/>
       <c r="B60" s="43">
         <v>45</v>
@@ -4801,9 +4817,9 @@
       <c r="R60" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AQ60" s="72"/>
-    </row>
-    <row r="61" spans="1:43">
+      <c r="AP60" s="72"/>
+    </row>
+    <row r="61" spans="1:42">
       <c r="A61" s="44"/>
       <c r="B61" s="45">
         <v>50</v>
@@ -4856,9 +4872,9 @@
       <c r="R61" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AQ61" s="72"/>
-    </row>
-    <row r="62" spans="3:43">
+      <c r="AP61" s="72"/>
+    </row>
+    <row r="62" spans="3:42">
       <c r="C62" s="46"/>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
@@ -4875,9 +4891,9 @@
       <c r="P62" s="47"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="AQ62" s="72"/>
-    </row>
-    <row r="63" spans="3:43">
+      <c r="AP62" s="72"/>
+    </row>
+    <row r="63" spans="3:42">
       <c r="C63" s="46"/>
       <c r="D63" s="47"/>
       <c r="E63" s="47"/>
@@ -4894,9 +4910,9 @@
       <c r="P63" s="47"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="AQ63" s="72"/>
-    </row>
-    <row r="64" spans="1:43">
+      <c r="AP63" s="72"/>
+    </row>
+    <row r="64" spans="1:42">
       <c r="A64" s="25" t="s">
         <v>57</v>
       </c>
@@ -4917,9 +4933,9 @@
       <c r="P64" s="47"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="AQ64" s="72"/>
-    </row>
-    <row r="65" ht="60" customHeight="1" spans="1:43">
+      <c r="AP64" s="72"/>
+    </row>
+    <row r="65" ht="60" customHeight="1" spans="1:42">
       <c r="A65" s="26" t="s">
         <v>40</v>
       </c>
@@ -4974,9 +4990,9 @@
       <c r="R65" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AQ65" s="72"/>
-    </row>
-    <row r="66" spans="1:43">
+      <c r="AP65" s="72"/>
+    </row>
+    <row r="66" spans="1:42">
       <c r="A66" s="29" t="s">
         <v>33</v>
       </c>
@@ -5031,9 +5047,9 @@
       <c r="R66" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AQ66" s="72"/>
-    </row>
-    <row r="67" spans="1:43">
+      <c r="AP66" s="72"/>
+    </row>
+    <row r="67" spans="1:42">
       <c r="A67" s="29"/>
       <c r="B67" s="30">
         <v>10</v>
@@ -5086,9 +5102,9 @@
       <c r="R67" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ67" s="72"/>
-    </row>
-    <row r="68" spans="1:43">
+      <c r="AP67" s="72"/>
+    </row>
+    <row r="68" spans="1:42">
       <c r="A68" s="29"/>
       <c r="B68" s="30">
         <v>15</v>
@@ -5141,9 +5157,9 @@
       <c r="R68" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ68" s="72"/>
-    </row>
-    <row r="69" spans="1:43">
+      <c r="AP68" s="72"/>
+    </row>
+    <row r="69" spans="1:42">
       <c r="A69" s="29"/>
       <c r="B69" s="30">
         <v>20</v>
@@ -5196,9 +5212,9 @@
       <c r="R69" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ69" s="72"/>
-    </row>
-    <row r="70" spans="1:43">
+      <c r="AP69" s="72"/>
+    </row>
+    <row r="70" spans="1:42">
       <c r="A70" s="29"/>
       <c r="B70" s="30">
         <v>25</v>
@@ -5251,9 +5267,9 @@
       <c r="R70" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ70" s="72"/>
-    </row>
-    <row r="71" spans="1:43">
+      <c r="AP70" s="72"/>
+    </row>
+    <row r="71" spans="1:42">
       <c r="A71" s="29"/>
       <c r="B71" s="30">
         <v>30</v>
@@ -5306,9 +5322,9 @@
       <c r="R71" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ71" s="72"/>
-    </row>
-    <row r="72" spans="1:43">
+      <c r="AP71" s="72"/>
+    </row>
+    <row r="72" spans="1:42">
       <c r="A72" s="29"/>
       <c r="B72" s="30">
         <v>35</v>
@@ -5361,9 +5377,9 @@
       <c r="R72" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AQ72" s="72"/>
-    </row>
-    <row r="73" spans="1:43">
+      <c r="AP72" s="72"/>
+    </row>
+    <row r="73" spans="1:42">
       <c r="A73" s="29"/>
       <c r="B73" s="30">
         <v>40</v>
@@ -5416,9 +5432,9 @@
       <c r="R73" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ73" s="72"/>
-    </row>
-    <row r="74" spans="1:43">
+      <c r="AP73" s="72"/>
+    </row>
+    <row r="74" spans="1:42">
       <c r="A74" s="29"/>
       <c r="B74" s="30">
         <v>45</v>
@@ -5471,9 +5487,9 @@
       <c r="R74" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ74" s="72"/>
-    </row>
-    <row r="75" spans="1:43">
+      <c r="AP74" s="72"/>
+    </row>
+    <row r="75" spans="1:42">
       <c r="A75" s="36"/>
       <c r="B75" s="37">
         <v>50</v>
@@ -5526,9 +5542,9 @@
       <c r="R75" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AQ75" s="72"/>
-    </row>
-    <row r="76" spans="1:43">
+      <c r="AP75" s="72"/>
+    </row>
+    <row r="76" spans="1:42">
       <c r="A76" s="40" t="s">
         <v>37</v>
       </c>
@@ -5583,9 +5599,9 @@
       <c r="R76" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="AQ76" s="72"/>
-    </row>
-    <row r="77" spans="1:43">
+      <c r="AP76" s="72"/>
+    </row>
+    <row r="77" spans="1:42">
       <c r="A77" s="42"/>
       <c r="B77" s="43">
         <v>10</v>
@@ -5638,9 +5654,9 @@
       <c r="R77" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ77" s="72"/>
-    </row>
-    <row r="78" spans="1:43">
+      <c r="AP77" s="72"/>
+    </row>
+    <row r="78" spans="1:42">
       <c r="A78" s="42"/>
       <c r="B78" s="43">
         <v>15</v>
@@ -5693,9 +5709,9 @@
       <c r="R78" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ78" s="72"/>
-    </row>
-    <row r="79" spans="1:43">
+      <c r="AP78" s="72"/>
+    </row>
+    <row r="79" spans="1:42">
       <c r="A79" s="42"/>
       <c r="B79" s="43">
         <v>20</v>
@@ -5748,9 +5764,9 @@
       <c r="R79" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ79" s="72"/>
-    </row>
-    <row r="80" spans="1:43">
+      <c r="AP79" s="72"/>
+    </row>
+    <row r="80" spans="1:42">
       <c r="A80" s="42"/>
       <c r="B80" s="43">
         <v>25</v>
@@ -5803,9 +5819,9 @@
       <c r="R80" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ80" s="72"/>
-    </row>
-    <row r="81" spans="1:43">
+      <c r="AP80" s="72"/>
+    </row>
+    <row r="81" spans="1:42">
       <c r="A81" s="42"/>
       <c r="B81" s="43">
         <v>30</v>
@@ -5858,9 +5874,9 @@
       <c r="R81" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ81" s="72"/>
-    </row>
-    <row r="82" spans="1:43">
+      <c r="AP81" s="72"/>
+    </row>
+    <row r="82" spans="1:42">
       <c r="A82" s="42"/>
       <c r="B82" s="43">
         <v>35</v>
@@ -5913,9 +5929,9 @@
       <c r="R82" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AQ82" s="72"/>
-    </row>
-    <row r="83" spans="1:43">
+      <c r="AP82" s="72"/>
+    </row>
+    <row r="83" spans="1:42">
       <c r="A83" s="42"/>
       <c r="B83" s="43">
         <v>40</v>
@@ -5968,9 +5984,9 @@
       <c r="R83" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AQ83" s="72"/>
-    </row>
-    <row r="84" spans="1:43">
+      <c r="AP83" s="72"/>
+    </row>
+    <row r="84" spans="1:42">
       <c r="A84" s="42"/>
       <c r="B84" s="43">
         <v>45</v>
@@ -6023,9 +6039,9 @@
       <c r="R84" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AQ84" s="72"/>
-    </row>
-    <row r="85" spans="1:43">
+      <c r="AP84" s="72"/>
+    </row>
+    <row r="85" spans="1:42">
       <c r="A85" s="44"/>
       <c r="B85" s="45">
         <v>50</v>
@@ -6078,10 +6094,10 @@
       <c r="R85" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AQ85" s="72"/>
-    </row>
-    <row r="86" spans="43:43">
-      <c r="AQ86" s="72"/>
+      <c r="AP85" s="72"/>
+    </row>
+    <row r="86" spans="42:42">
+      <c r="AP86" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1442,19 +1442,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>451485</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>544830</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1467,8 +1467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34700845" y="14454505"/>
-          <a:ext cx="7341235" cy="4901565"/>
+          <a:off x="34739580" y="14314170"/>
+          <a:ext cx="7471410" cy="4946650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,20 +1483,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>410210</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:colOff>161290</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1509,8 +1509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34698305" y="9215755"/>
-          <a:ext cx="7418705" cy="4925695"/>
+          <a:off x="34905315" y="8935085"/>
+          <a:ext cx="7370445" cy="4930140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,20 +1525,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>566420</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>114935</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1551,8 +1551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34854515" y="3976370"/>
-          <a:ext cx="7374890" cy="4910455"/>
+          <a:off x="34940240" y="3966845"/>
+          <a:ext cx="7115810" cy="4699635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,20 +1567,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>383540</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>203835</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1593,8 +1593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17599025" y="3981450"/>
-          <a:ext cx="7223125" cy="4826635"/>
+          <a:off x="18392775" y="3996055"/>
+          <a:ext cx="7546975" cy="4989195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,20 +1609,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>626745</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>48895</xdr:rowOff>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1635,8 +1635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17569815" y="9088120"/>
-          <a:ext cx="7299960" cy="4864735"/>
+          <a:off x="18404205" y="9073515"/>
+          <a:ext cx="7458075" cy="4939665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,20 +1651,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>123190</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>659130</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1677,8 +1677,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17535525" y="14406880"/>
-          <a:ext cx="7205980" cy="4788535"/>
+          <a:off x="18373725" y="14366240"/>
+          <a:ext cx="7520940" cy="4989830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133985</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>507365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26032460" y="3957955"/>
+          <a:ext cx="7528560" cy="5005070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>421005</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26008965" y="9147810"/>
+          <a:ext cx="7465695" cy="4934585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>471805</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26038175" y="14361160"/>
+          <a:ext cx="7487285" cy="5010150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1694,33 +1820,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>611505</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>163195</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42725975" y="4046855"/>
-          <a:ext cx="7325995" cy="4869180"/>
+          <a:off x="42617390" y="3966845"/>
+          <a:ext cx="7155180" cy="4770755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,33 +1862,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>585470</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>143510</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="16" name="Picture 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42699940" y="9147810"/>
-          <a:ext cx="7378065" cy="4899660"/>
+          <a:off x="42430700" y="8966835"/>
+          <a:ext cx="7525385" cy="4994275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,146 +1903,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>417830</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>135890</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="42740580" y="14395450"/>
-          <a:ext cx="7441565" cy="4919980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>420370</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25479375" y="3971925"/>
-          <a:ext cx="7377430" cy="4912360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>237490</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>374015</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25473025" y="9021445"/>
-          <a:ext cx="7337425" cy="4886960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>357505</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>413385</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>99695</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="17" name="Picture 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1929,8 +1929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25593040" y="14325600"/>
-          <a:ext cx="7256780" cy="4829175"/>
+          <a:off x="42532300" y="14336395"/>
+          <a:ext cx="7544435" cy="5018405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2565,7 +2565,7 @@
         <v>921.258639</v>
       </c>
       <c r="F18" s="32">
-        <v>272.410633</v>
+        <v>269.837987</v>
       </c>
       <c r="G18" s="32">
         <v>143.905216</v>
@@ -2574,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="32">
-        <v>10.889253</v>
+        <v>10.786415</v>
       </c>
       <c r="J18" s="32">
         <v>60</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <v>-31.563592</v>
+        <v>-31.460754</v>
       </c>
       <c r="R18" s="66" t="s">
         <v>55</v>
@@ -2620,7 +2620,7 @@
         <v>937.423442</v>
       </c>
       <c r="F19" s="34">
-        <v>274.807158</v>
+        <v>272.196948</v>
       </c>
       <c r="G19" s="35">
         <v>143.905216</v>
@@ -2629,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="34">
-        <v>10.985051</v>
+        <v>10.880711</v>
       </c>
       <c r="J19" s="34">
         <v>60</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="54">
-        <v>-27.004695</v>
+        <v>-26.900355</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>55</v>
@@ -2675,7 +2675,7 @@
         <v>953.681701</v>
       </c>
       <c r="F20" s="34">
-        <v>277.22507</v>
+        <v>274.577122</v>
       </c>
       <c r="G20" s="35">
         <v>143.905216</v>
@@ -2684,7 +2684,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="34">
-        <v>11.081704</v>
+        <v>10.975856</v>
       </c>
       <c r="J20" s="34">
         <v>60</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="54">
-        <v>-22.448649</v>
+        <v>-22.342801</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>55</v>
@@ -2730,7 +2730,7 @@
         <v>970.032879</v>
       </c>
       <c r="F21" s="34">
-        <v>279.664369</v>
+        <v>276.978509</v>
       </c>
       <c r="G21" s="35">
         <v>143.905216</v>
@@ -2739,7 +2739,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="34">
-        <v>11.179212</v>
+        <v>11.071848</v>
       </c>
       <c r="J21" s="34">
         <v>60</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="54">
-        <v>-17.895445</v>
+        <v>-17.788081</v>
       </c>
       <c r="R21" s="11" t="s">
         <v>55</v>
@@ -2785,7 +2785,7 @@
         <v>986.476452</v>
       </c>
       <c r="F22" s="34">
-        <v>282.125057</v>
+        <v>279.40111</v>
       </c>
       <c r="G22" s="35">
         <v>143.905216</v>
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="34">
-        <v>11.277574</v>
+        <v>11.168688</v>
       </c>
       <c r="J22" s="34">
         <v>60</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="54">
-        <v>-13.34507</v>
+        <v>-13.236184</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>55</v>
@@ -2840,7 +2840,7 @@
         <v>1003.011905</v>
       </c>
       <c r="F23" s="34">
-        <v>284.607131</v>
+        <v>281.844923</v>
       </c>
       <c r="G23" s="35">
         <v>143.905216</v>
@@ -2849,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="34">
-        <v>11.376792</v>
+        <v>11.266376</v>
       </c>
       <c r="J23" s="34">
         <v>60</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="54">
-        <v>-8.797514</v>
+        <v>-8.687099</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>55</v>
@@ -2895,7 +2895,7 @@
         <v>1019.638728</v>
       </c>
       <c r="F24" s="34">
-        <v>287.110593</v>
+        <v>284.309951</v>
       </c>
       <c r="G24" s="35">
         <v>143.905216</v>
@@ -2904,7 +2904,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="34">
-        <v>11.476864</v>
+        <v>11.364912</v>
       </c>
       <c r="J24" s="34">
         <v>60</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="54">
-        <v>-4.252766</v>
+        <v>-4.140814</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>55</v>
@@ -2950,7 +2950,7 @@
         <v>1036.356423</v>
       </c>
       <c r="F25" s="34">
-        <v>289.635443</v>
+        <v>286.796191</v>
       </c>
       <c r="G25" s="35">
         <v>143.905216</v>
@@ -2959,7 +2959,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="34">
-        <v>11.577792</v>
+        <v>11.464297</v>
       </c>
       <c r="J25" s="34">
         <v>60</v>
@@ -2977,13 +2977,13 @@
         <v>6</v>
       </c>
       <c r="O25" s="35">
-        <v>1.004546</v>
+        <v>1.398796</v>
       </c>
       <c r="P25" s="35">
         <v>1</v>
       </c>
       <c r="Q25" s="54">
-        <v>0.289185</v>
+        <v>0.402681</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>52</v>
@@ -3005,7 +3005,7 @@
         <v>1053.164499</v>
       </c>
       <c r="F26" s="34">
-        <v>292.18168</v>
+        <v>289.303645</v>
       </c>
       <c r="G26" s="35">
         <v>143.905216</v>
@@ -3014,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="34">
-        <v>11.679574</v>
+        <v>11.564529</v>
       </c>
       <c r="J26" s="34">
         <v>60</v>
@@ -3032,13 +3032,13 @@
         <v>6</v>
       </c>
       <c r="O26" s="35">
-        <v>16.504602</v>
+        <v>16.897859</v>
       </c>
       <c r="P26" s="35">
         <v>1</v>
       </c>
       <c r="Q26" s="54">
-        <v>4.82835</v>
+        <v>4.943396</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>52</v>
@@ -3060,7 +3060,7 @@
         <v>1070.062472</v>
       </c>
       <c r="F27" s="39">
-        <v>294.749305</v>
+        <v>291.832312</v>
       </c>
       <c r="G27" s="39">
         <v>143.905216</v>
@@ -3069,7 +3069,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="39">
-        <v>11.782212</v>
+        <v>11.665609</v>
       </c>
       <c r="J27" s="39">
         <v>60</v>
@@ -3087,13 +3087,13 @@
         <v>6</v>
       </c>
       <c r="O27" s="39">
-        <v>31.505692</v>
+        <v>31.897978</v>
       </c>
       <c r="P27" s="39">
         <v>1</v>
       </c>
       <c r="Q27" s="14">
-        <v>9.364739</v>
+        <v>9.481341</v>
       </c>
       <c r="R27" s="67" t="s">
         <v>52</v>
@@ -3111,13 +3111,13 @@
         <v>67.062948</v>
       </c>
       <c r="D28" s="32">
-        <v>91.88951</v>
+        <v>92.065717</v>
       </c>
       <c r="E28" s="32">
-        <v>921.258639</v>
+        <v>921.333175</v>
       </c>
       <c r="F28" s="32">
-        <v>272.410633</v>
+        <v>264.125707</v>
       </c>
       <c r="G28" s="32">
         <v>143.905216</v>
@@ -3126,19 +3126,19 @@
         <v>6</v>
       </c>
       <c r="I28" s="32">
-        <v>10.889253</v>
+        <v>10.558074</v>
       </c>
       <c r="J28" s="32">
         <v>60</v>
       </c>
       <c r="K28" s="32">
-        <v>15.354311</v>
+        <v>15.355553</v>
       </c>
       <c r="L28" s="58">
         <v>40</v>
       </c>
       <c r="M28" s="32">
-        <v>8.655363</v>
+        <v>8.656064</v>
       </c>
       <c r="N28" s="32">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <v>-35.898927</v>
+        <v>-35.569691</v>
       </c>
       <c r="R28" s="66" t="s">
         <v>55</v>
@@ -3166,13 +3166,13 @@
         <v>97.546106</v>
       </c>
       <c r="D29" s="34">
-        <v>129.993458</v>
+        <v>130.169665</v>
       </c>
       <c r="E29" s="34">
-        <v>937.423442</v>
+        <v>937.498412</v>
       </c>
       <c r="F29" s="34">
-        <v>274.807158</v>
+        <v>266.533231</v>
       </c>
       <c r="G29" s="35">
         <v>143.905216</v>
@@ -3181,19 +3181,19 @@
         <v>6</v>
       </c>
       <c r="I29" s="34">
-        <v>10.985051</v>
+        <v>10.654312</v>
       </c>
       <c r="J29" s="34">
         <v>60</v>
       </c>
       <c r="K29" s="34">
-        <v>15.623724</v>
+        <v>15.624974</v>
       </c>
       <c r="L29" s="59">
         <v>40</v>
       </c>
       <c r="M29" s="34">
-        <v>8.807324</v>
+        <v>8.808029</v>
       </c>
       <c r="N29" s="34">
         <v>6</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="54">
-        <v>-31.416099</v>
+        <v>-31.087314</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>55</v>
@@ -3221,13 +3221,13 @@
         <v>128.029264</v>
       </c>
       <c r="D30" s="34">
-        <v>168.097405</v>
+        <v>168.273612</v>
       </c>
       <c r="E30" s="34">
-        <v>953.681701</v>
+        <v>953.757101</v>
       </c>
       <c r="F30" s="34">
-        <v>277.22507</v>
+        <v>268.962817</v>
       </c>
       <c r="G30" s="35">
         <v>143.905216</v>
@@ -3236,19 +3236,19 @@
         <v>6</v>
       </c>
       <c r="I30" s="34">
-        <v>11.081704</v>
+        <v>10.751431</v>
       </c>
       <c r="J30" s="34">
         <v>60</v>
       </c>
       <c r="K30" s="34">
-        <v>15.894695</v>
+        <v>15.895952</v>
       </c>
       <c r="L30" s="59">
         <v>40</v>
       </c>
       <c r="M30" s="34">
-        <v>8.960164</v>
+        <v>8.960873</v>
       </c>
       <c r="N30" s="34">
         <v>6</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="54">
-        <v>-26.936563</v>
+        <v>-26.608256</v>
       </c>
       <c r="R30" s="11" t="s">
         <v>55</v>
@@ -3276,13 +3276,13 @@
         <v>158.512422</v>
       </c>
       <c r="D31" s="34">
-        <v>206.201353</v>
+        <v>206.37756</v>
       </c>
       <c r="E31" s="34">
-        <v>970.032879</v>
+        <v>970.108708</v>
       </c>
       <c r="F31" s="34">
-        <v>279.664369</v>
+        <v>271.414467</v>
       </c>
       <c r="G31" s="35">
         <v>143.905216</v>
@@ -3291,19 +3291,19 @@
         <v>6</v>
       </c>
       <c r="I31" s="34">
-        <v>11.179212</v>
+        <v>10.849433</v>
       </c>
       <c r="J31" s="34">
         <v>60</v>
       </c>
       <c r="K31" s="34">
-        <v>16.167215</v>
+        <v>16.168478</v>
       </c>
       <c r="L31" s="59">
         <v>40</v>
       </c>
       <c r="M31" s="34">
-        <v>9.113879</v>
+        <v>9.114592</v>
       </c>
       <c r="N31" s="34">
         <v>6</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="54">
-        <v>-22.460306</v>
+        <v>-22.132503</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>55</v>
@@ -3331,13 +3331,13 @@
         <v>188.99558</v>
       </c>
       <c r="D32" s="34">
-        <v>244.305301</v>
+        <v>244.481508</v>
       </c>
       <c r="E32" s="34">
-        <v>986.476452</v>
+        <v>986.552708</v>
       </c>
       <c r="F32" s="34">
-        <v>282.125057</v>
+        <v>273.888179</v>
       </c>
       <c r="G32" s="35">
         <v>143.905216</v>
@@ -3346,19 +3346,19 @@
         <v>6</v>
       </c>
       <c r="I32" s="34">
-        <v>11.277574</v>
+        <v>10.948316</v>
       </c>
       <c r="J32" s="34">
         <v>60</v>
       </c>
       <c r="K32" s="34">
-        <v>16.441274</v>
+        <v>16.442545</v>
       </c>
       <c r="L32" s="59">
         <v>40</v>
       </c>
       <c r="M32" s="34">
-        <v>9.268464</v>
+        <v>9.269181</v>
       </c>
       <c r="N32" s="34">
         <v>6</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="54">
-        <v>-17.987312</v>
+        <v>-17.660042</v>
       </c>
       <c r="R32" s="11" t="s">
         <v>55</v>
@@ -3386,13 +3386,13 @@
         <v>219.478738</v>
       </c>
       <c r="D33" s="34">
-        <v>282.409248</v>
+        <v>282.585455</v>
       </c>
       <c r="E33" s="34">
-        <v>1003.011905</v>
+        <v>1003.088584</v>
       </c>
       <c r="F33" s="34">
-        <v>284.607131</v>
+        <v>276.383954</v>
       </c>
       <c r="G33" s="35">
         <v>143.905216</v>
@@ -3401,19 +3401,19 @@
         <v>6</v>
       </c>
       <c r="I33" s="34">
-        <v>11.376792</v>
+        <v>11.048081</v>
       </c>
       <c r="J33" s="34">
         <v>60</v>
       </c>
       <c r="K33" s="34">
-        <v>16.716865</v>
+        <v>16.718143</v>
       </c>
       <c r="L33" s="59">
         <v>40</v>
       </c>
       <c r="M33" s="34">
-        <v>9.423913</v>
+        <v>9.424634</v>
       </c>
       <c r="N33" s="34">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="54">
-        <v>-13.51757</v>
+        <v>-13.190858</v>
       </c>
       <c r="R33" s="11" t="s">
         <v>55</v>
@@ -3441,13 +3441,13 @@
         <v>249.961896</v>
       </c>
       <c r="D34" s="34">
-        <v>320.513196</v>
+        <v>320.689403</v>
       </c>
       <c r="E34" s="34">
-        <v>1019.638728</v>
+        <v>1019.715828</v>
       </c>
       <c r="F34" s="34">
-        <v>287.110593</v>
+        <v>278.901791</v>
       </c>
       <c r="G34" s="35">
         <v>143.905216</v>
@@ -3456,19 +3456,19 @@
         <v>6</v>
       </c>
       <c r="I34" s="34">
-        <v>11.476864</v>
+        <v>11.148728</v>
       </c>
       <c r="J34" s="34">
         <v>60</v>
       </c>
       <c r="K34" s="34">
-        <v>16.993979</v>
+        <v>16.995264</v>
       </c>
       <c r="L34" s="59">
         <v>40</v>
       </c>
       <c r="M34" s="34">
-        <v>9.580222</v>
+        <v>9.580947</v>
       </c>
       <c r="N34" s="34">
         <v>6</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="54">
-        <v>-9.051066</v>
+        <v>-8.72494</v>
       </c>
       <c r="R34" s="11" t="s">
         <v>55</v>
@@ -3496,13 +3496,13 @@
         <v>280.445054</v>
       </c>
       <c r="D35" s="34">
-        <v>358.617143</v>
+        <v>358.79335</v>
       </c>
       <c r="E35" s="34">
-        <v>1036.356423</v>
+        <v>1036.433943</v>
       </c>
       <c r="F35" s="34">
-        <v>289.635443</v>
+        <v>281.441692</v>
       </c>
       <c r="G35" s="35">
         <v>143.905216</v>
@@ -3511,19 +3511,19 @@
         <v>6</v>
       </c>
       <c r="I35" s="34">
-        <v>11.577792</v>
+        <v>11.250258</v>
       </c>
       <c r="J35" s="34">
         <v>60</v>
       </c>
       <c r="K35" s="34">
-        <v>17.272607</v>
+        <v>17.273899</v>
       </c>
       <c r="L35" s="59">
         <v>40</v>
       </c>
       <c r="M35" s="34">
-        <v>9.737387</v>
+        <v>9.738116</v>
       </c>
       <c r="N35" s="34">
         <v>6</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="54">
-        <v>-4.587786</v>
+        <v>-4.262272</v>
       </c>
       <c r="R35" s="11" t="s">
         <v>55</v>
@@ -3551,13 +3551,13 @@
         <v>310.928212</v>
       </c>
       <c r="D36" s="34">
-        <v>396.721091</v>
+        <v>396.897298</v>
       </c>
       <c r="E36" s="34">
-        <v>1053.164499</v>
+        <v>1053.242435</v>
       </c>
       <c r="F36" s="34">
-        <v>292.18168</v>
+        <v>284.003655</v>
       </c>
       <c r="G36" s="35">
         <v>143.905216</v>
@@ -3566,34 +3566,34 @@
         <v>6</v>
       </c>
       <c r="I36" s="34">
-        <v>11.679574</v>
+        <v>11.352669</v>
       </c>
       <c r="J36" s="34">
         <v>60</v>
       </c>
       <c r="K36" s="34">
-        <v>17.552742</v>
+        <v>17.554041</v>
       </c>
       <c r="L36" s="59">
         <v>40</v>
       </c>
       <c r="M36" s="34">
-        <v>9.895402</v>
+        <v>9.896135</v>
       </c>
       <c r="N36" s="34">
         <v>6</v>
       </c>
       <c r="O36" s="35">
-        <v>0</v>
+        <v>0.673882</v>
       </c>
       <c r="P36" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="54">
-        <v>-0.127718</v>
+        <v>0.197156</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AP36" s="72"/>
     </row>
@@ -3606,13 +3606,13 @@
         <v>341.41137</v>
       </c>
       <c r="D37" s="39">
-        <v>434.825038</v>
+        <v>435.001245</v>
       </c>
       <c r="E37" s="39">
-        <v>1070.062472</v>
+        <v>1070.140822</v>
       </c>
       <c r="F37" s="39">
-        <v>294.749305</v>
+        <v>286.58768</v>
       </c>
       <c r="G37" s="39">
         <v>143.905216</v>
@@ -3621,31 +3621,31 @@
         <v>6</v>
       </c>
       <c r="I37" s="39">
-        <v>11.782212</v>
+        <v>11.455962</v>
       </c>
       <c r="J37" s="39">
         <v>60</v>
       </c>
       <c r="K37" s="39">
-        <v>17.834375</v>
+        <v>17.83568</v>
       </c>
       <c r="L37" s="18">
         <v>40</v>
       </c>
       <c r="M37" s="39">
-        <v>10.054263</v>
+        <v>10.055</v>
       </c>
       <c r="N37" s="39">
         <v>6</v>
       </c>
       <c r="O37" s="39">
-        <v>14.564516</v>
+        <v>15.654098</v>
       </c>
       <c r="P37" s="39">
         <v>1</v>
       </c>
       <c r="Q37" s="14">
-        <v>4.32915</v>
+        <v>4.653358</v>
       </c>
       <c r="R37" s="67" t="s">
         <v>52</v>
@@ -3787,7 +3787,7 @@
         <v>584.512304</v>
       </c>
       <c r="F42" s="32">
-        <v>175.955526</v>
+        <v>174.229275</v>
       </c>
       <c r="G42" s="32">
         <v>143.905216</v>
@@ -3796,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="I42" s="32">
-        <v>7.033588</v>
+        <v>6.964584</v>
       </c>
       <c r="J42" s="32">
         <v>60</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <v>-20.514352</v>
+        <v>-20.445347</v>
       </c>
       <c r="R42" s="66" t="s">
         <v>55</v>
@@ -3842,7 +3842,7 @@
         <v>597.879387</v>
       </c>
       <c r="F43" s="34">
-        <v>178.962056</v>
+        <v>177.202673</v>
       </c>
       <c r="G43" s="35">
         <v>143.905216</v>
@@ -3851,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="34">
-        <v>7.15377</v>
+        <v>7.083441</v>
       </c>
       <c r="J43" s="34">
         <v>60</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="54">
-        <v>-15.920044</v>
+        <v>-15.849715</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>55</v>
@@ -3897,7 +3897,7 @@
         <v>611.346842</v>
       </c>
       <c r="F44" s="34">
-        <v>182.006738</v>
+        <v>180.214016</v>
       </c>
       <c r="G44" s="35">
         <v>143.905216</v>
@@ -3906,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="I44" s="34">
-        <v>7.275478</v>
+        <v>7.203816</v>
       </c>
       <c r="J44" s="34">
         <v>60</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="54">
-        <v>-11.329407</v>
+        <v>-11.257745</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>55</v>
@@ -3952,7 +3952,7 @@
         <v>624.913925</v>
       </c>
       <c r="F45" s="34">
-        <v>185.089572</v>
+        <v>183.263304</v>
       </c>
       <c r="G45" s="35">
         <v>143.905216</v>
@@ -3961,7 +3961,7 @@
         <v>6</v>
       </c>
       <c r="I45" s="34">
-        <v>7.39871</v>
+        <v>7.325707</v>
       </c>
       <c r="J45" s="34">
         <v>60</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="54">
-        <v>-6.742423</v>
+        <v>-6.669421</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>55</v>
@@ -4007,7 +4007,7 @@
         <v>638.57991</v>
       </c>
       <c r="F46" s="34">
-        <v>188.210559</v>
+        <v>186.350537</v>
       </c>
       <c r="G46" s="35">
         <v>143.905216</v>
@@ -4016,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="I46" s="34">
-        <v>7.523467</v>
+        <v>7.449115</v>
       </c>
       <c r="J46" s="34">
         <v>60</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="54">
-        <v>-2.159079</v>
+        <v>-2.084727</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>55</v>
@@ -4062,7 +4062,7 @@
         <v>652.344086</v>
       </c>
       <c r="F47" s="34">
-        <v>191.369697</v>
+        <v>189.475716</v>
       </c>
       <c r="G47" s="35">
         <v>143.905216</v>
@@ -4071,7 +4071,7 @@
         <v>6</v>
       </c>
       <c r="I47" s="34">
-        <v>7.649749</v>
+        <v>7.57404</v>
       </c>
       <c r="J47" s="34">
         <v>60</v>
@@ -4089,13 +4089,13 @@
         <v>6</v>
       </c>
       <c r="O47" s="35">
-        <v>13.358456</v>
+        <v>13.776262</v>
       </c>
       <c r="P47" s="35">
         <v>1</v>
       </c>
       <c r="Q47" s="54">
-        <v>2.420642</v>
+        <v>2.496351</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>52</v>
@@ -4117,7 +4117,7 @@
         <v>666.205758</v>
       </c>
       <c r="F48" s="34">
-        <v>194.566988</v>
+        <v>192.63884</v>
       </c>
       <c r="G48" s="35">
         <v>143.905216</v>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="I48" s="34">
-        <v>7.777557</v>
+        <v>7.700482</v>
       </c>
       <c r="J48" s="34">
         <v>60</v>
@@ -4144,13 +4144,13 @@
         <v>6</v>
       </c>
       <c r="O48" s="35">
-        <v>37.808608</v>
+        <v>38.225101</v>
       </c>
       <c r="P48" s="35">
         <v>1</v>
       </c>
       <c r="Q48" s="54">
-        <v>6.996753</v>
+        <v>7.073829</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>52</v>
@@ -4172,7 +4172,7 @@
         <v>680.164245</v>
       </c>
       <c r="F49" s="34">
-        <v>197.80243</v>
+        <v>195.839909</v>
       </c>
       <c r="G49" s="35">
         <v>143.905216</v>
@@ -4181,7 +4181,7 @@
         <v>6</v>
       </c>
       <c r="I49" s="34">
-        <v>7.906889</v>
+        <v>7.82844</v>
       </c>
       <c r="J49" s="34">
         <v>60</v>
@@ -4199,13 +4199,13 @@
         <v>6</v>
       </c>
       <c r="O49" s="35">
-        <v>61.234291</v>
+        <v>61.64951</v>
       </c>
       <c r="P49" s="35">
         <v>1</v>
       </c>
       <c r="Q49" s="54">
-        <v>11.569271</v>
+        <v>11.64772</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>52</v>
@@ -4227,7 +4227,7 @@
         <v>694.21888</v>
       </c>
       <c r="F50" s="34">
-        <v>201.076025</v>
+        <v>199.078923</v>
       </c>
       <c r="G50" s="35">
         <v>143.905216</v>
@@ -4236,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="34">
-        <v>8.037747</v>
+        <v>7.957915</v>
       </c>
       <c r="J50" s="34">
         <v>60</v>
@@ -4254,13 +4254,13 @@
         <v>6</v>
       </c>
       <c r="O50" s="35">
-        <v>83.687656</v>
+        <v>84.101636</v>
       </c>
       <c r="P50" s="35">
         <v>1</v>
       </c>
       <c r="Q50" s="54">
-        <v>16.138208</v>
+        <v>16.21804</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>52</v>
@@ -4282,7 +4282,7 @@
         <v>708.36901</v>
       </c>
       <c r="F51" s="39">
-        <v>204.387771</v>
+        <v>202.355883</v>
       </c>
       <c r="G51" s="39">
         <v>143.905216</v>
@@ -4291,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="I51" s="39">
-        <v>8.17013</v>
+        <v>8.088908</v>
       </c>
       <c r="J51" s="39">
         <v>60</v>
@@ -4309,13 +4309,13 @@
         <v>6</v>
       </c>
       <c r="O51" s="39">
-        <v>105.217601</v>
+        <v>105.63038</v>
       </c>
       <c r="P51" s="39">
         <v>1</v>
       </c>
       <c r="Q51" s="14">
-        <v>20.70358</v>
+        <v>20.784802</v>
       </c>
       <c r="R51" s="67" t="s">
         <v>52</v>
@@ -4339,7 +4339,7 @@
         <v>584.672601</v>
       </c>
       <c r="F52" s="49">
-        <v>177.299185</v>
+        <v>173.649614</v>
       </c>
       <c r="G52" s="49">
         <v>143.905216</v>
@@ -4348,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="I52" s="49">
-        <v>7.087299</v>
+        <v>6.941413</v>
       </c>
       <c r="J52" s="49">
         <v>60</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="49">
-        <v>-23.322887</v>
+        <v>-23.177</v>
       </c>
       <c r="R52" s="68" t="s">
         <v>55</v>
@@ -4394,7 +4394,7 @@
         <v>598.040897</v>
       </c>
       <c r="F53" s="51">
-        <v>180.430488</v>
+        <v>176.710611</v>
       </c>
       <c r="G53" s="51">
         <v>143.905216</v>
@@ -4403,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="I53" s="51">
-        <v>7.212469</v>
+        <v>7.063772</v>
       </c>
       <c r="J53" s="51">
         <v>60</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="62">
-        <v>-18.796503</v>
+        <v>-18.647805</v>
       </c>
       <c r="R53" s="69" t="s">
         <v>55</v>
@@ -4449,7 +4449,7 @@
         <v>611.509556</v>
       </c>
       <c r="F54" s="51">
-        <v>183.601816</v>
+        <v>179.811188</v>
       </c>
       <c r="G54" s="51">
         <v>143.905216</v>
@@ -4458,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="I54" s="51">
-        <v>7.339239</v>
+        <v>7.187713</v>
       </c>
       <c r="J54" s="51">
         <v>60</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="62">
-        <v>-14.274335</v>
+        <v>-14.12281</v>
       </c>
       <c r="R54" s="69" t="s">
         <v>55</v>
@@ -4504,7 +4504,7 @@
         <v>625.077833</v>
       </c>
       <c r="F55" s="51">
-        <v>186.81317</v>
+        <v>182.951346</v>
       </c>
       <c r="G55" s="51">
         <v>143.905216</v>
@@ -4513,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="51">
-        <v>7.467608</v>
+        <v>7.313237</v>
       </c>
       <c r="J55" s="51">
         <v>60</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="62">
-        <v>-9.756366</v>
+        <v>-9.601994</v>
       </c>
       <c r="R55" s="69" t="s">
         <v>55</v>
@@ -4559,7 +4559,7 @@
         <v>638.745004</v>
       </c>
       <c r="F56" s="51">
-        <v>190.064549</v>
+        <v>186.131084</v>
       </c>
       <c r="G56" s="51">
         <v>143.905216</v>
@@ -4568,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="I56" s="51">
-        <v>7.597578</v>
+        <v>7.440343</v>
       </c>
       <c r="J56" s="51">
         <v>60</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="62">
-        <v>-5.242575</v>
+        <v>-5.08534</v>
       </c>
       <c r="R56" s="69" t="s">
         <v>55</v>
@@ -4614,7 +4614,7 @@
         <v>652.510358</v>
       </c>
       <c r="F57" s="51">
-        <v>193.355954</v>
+        <v>189.350403</v>
       </c>
       <c r="G57" s="51">
         <v>143.905216</v>
@@ -4623,7 +4623,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="51">
-        <v>7.729147</v>
+        <v>7.569031</v>
       </c>
       <c r="J57" s="51">
         <v>60</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="62">
-        <v>-0.732945</v>
+        <v>-0.572828</v>
       </c>
       <c r="R57" s="69" t="s">
         <v>55</v>
@@ -4669,7 +4669,7 @@
         <v>666.3732</v>
       </c>
       <c r="F58" s="51">
-        <v>196.687385</v>
+        <v>192.609301</v>
       </c>
       <c r="G58" s="51">
         <v>143.905216</v>
@@ -4678,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="I58" s="51">
-        <v>7.862317</v>
+        <v>7.699301</v>
       </c>
       <c r="J58" s="51">
         <v>60</v>
@@ -4696,13 +4696,13 @@
         <v>6</v>
       </c>
       <c r="O58" s="62">
-        <v>20.380703</v>
+        <v>21.261377</v>
       </c>
       <c r="P58" s="62">
         <v>1</v>
       </c>
       <c r="Q58" s="62">
-        <v>3.772543</v>
+        <v>3.935559</v>
       </c>
       <c r="R58" s="69" t="s">
         <v>52</v>
@@ -4724,7 +4724,7 @@
         <v>680.332848</v>
       </c>
       <c r="F59" s="51">
-        <v>200.058841</v>
+        <v>195.90778</v>
       </c>
       <c r="G59" s="51">
         <v>143.905216</v>
@@ -4733,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="I59" s="51">
-        <v>7.997086</v>
+        <v>7.831153</v>
       </c>
       <c r="J59" s="51">
         <v>60</v>
@@ -4751,13 +4751,13 @@
         <v>6</v>
       </c>
       <c r="O59" s="62">
-        <v>43.781603</v>
+        <v>44.659642</v>
       </c>
       <c r="P59" s="62">
         <v>1</v>
       </c>
       <c r="Q59" s="62">
-        <v>8.273906</v>
+        <v>8.439839</v>
       </c>
       <c r="R59" s="69" t="s">
         <v>52</v>
@@ -4779,7 +4779,7 @@
         <v>694.388636</v>
       </c>
       <c r="F60" s="51">
-        <v>203.470323</v>
+        <v>199.24584</v>
       </c>
       <c r="G60" s="51">
         <v>143.905216</v>
@@ -4788,7 +4788,7 @@
         <v>6</v>
       </c>
       <c r="I60" s="51">
-        <v>8.133456</v>
+        <v>7.964588</v>
       </c>
       <c r="J60" s="51">
         <v>60</v>
@@ -4806,13 +4806,13 @@
         <v>6</v>
       </c>
       <c r="O60" s="62">
-        <v>66.211027</v>
+        <v>67.086509</v>
       </c>
       <c r="P60" s="62">
         <v>1</v>
       </c>
       <c r="Q60" s="62">
-        <v>12.771162</v>
+        <v>12.940031</v>
       </c>
       <c r="R60" s="69" t="s">
         <v>52</v>
@@ -4834,7 +4834,7 @@
         <v>708.539911</v>
       </c>
       <c r="F61" s="53">
-        <v>206.92183</v>
+        <v>202.623479</v>
       </c>
       <c r="G61" s="53">
         <v>143.905216</v>
@@ -4843,7 +4843,7 @@
         <v>6</v>
       </c>
       <c r="I61" s="53">
-        <v>8.271425</v>
+        <v>8.099604</v>
       </c>
       <c r="J61" s="53">
         <v>60</v>
@@ -4861,13 +4861,13 @@
         <v>6</v>
       </c>
       <c r="O61" s="53">
-        <v>87.717829</v>
+        <v>88.590828</v>
       </c>
       <c r="P61" s="53">
         <v>1</v>
       </c>
       <c r="Q61" s="53">
-        <v>17.264328</v>
+        <v>17.436149</v>
       </c>
       <c r="R61" s="70" t="s">
         <v>52</v>
@@ -5009,7 +5009,7 @@
         <v>682.028749</v>
       </c>
       <c r="F66" s="32">
-        <v>307.1579</v>
+        <v>303.088317</v>
       </c>
       <c r="G66" s="32">
         <v>143.905216</v>
@@ -5018,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="I66" s="32">
-        <v>12.278229</v>
+        <v>12.115553</v>
       </c>
       <c r="J66" s="32">
         <v>60</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <v>-27.83873</v>
+        <v>-27.676054</v>
       </c>
       <c r="R66" s="66" t="s">
         <v>55</v>
@@ -5064,7 +5064,7 @@
         <v>693.339481</v>
       </c>
       <c r="F67" s="34">
-        <v>310.070213</v>
+        <v>305.948376</v>
       </c>
       <c r="G67" s="35">
         <v>143.905216</v>
@@ -5073,7 +5073,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="34">
-        <v>12.394645</v>
+        <v>12.22988</v>
       </c>
       <c r="J67" s="34">
         <v>60</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="54">
-        <v>-23.196706</v>
+        <v>-23.031941</v>
       </c>
       <c r="R67" s="11" t="s">
         <v>55</v>
@@ -5119,7 +5119,7 @@
         <v>704.712058</v>
       </c>
       <c r="F68" s="34">
-        <v>313.004368</v>
+        <v>308.830116</v>
       </c>
       <c r="G68" s="35">
         <v>143.905216</v>
@@ -5128,7 +5128,7 @@
         <v>6</v>
       </c>
       <c r="I68" s="34">
-        <v>12.511934</v>
+        <v>12.345074</v>
       </c>
       <c r="J68" s="34">
         <v>60</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="54">
-        <v>-18.556878</v>
+        <v>-18.390017</v>
       </c>
       <c r="R68" s="11" t="s">
         <v>55</v>
@@ -5174,7 +5174,7 @@
         <v>716.146142</v>
       </c>
       <c r="F69" s="34">
-        <v>315.960364</v>
+        <v>311.733537</v>
       </c>
       <c r="G69" s="35">
         <v>143.905216</v>
@@ -5183,7 +5183,7 @@
         <v>6</v>
       </c>
       <c r="I69" s="34">
-        <v>12.630096</v>
+        <v>12.461134</v>
       </c>
       <c r="J69" s="34">
         <v>60</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="54">
-        <v>-13.919237</v>
+        <v>-13.750275</v>
       </c>
       <c r="R69" s="11" t="s">
         <v>55</v>
@@ -5229,7 +5229,7 @@
         <v>727.641407</v>
       </c>
       <c r="F70" s="34">
-        <v>318.938203</v>
+        <v>314.658639</v>
       </c>
       <c r="G70" s="35">
         <v>143.905216</v>
@@ -5238,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="I70" s="34">
-        <v>12.749131</v>
+        <v>12.578061</v>
       </c>
       <c r="J70" s="34">
         <v>60</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="54">
-        <v>-9.283776</v>
+        <v>-9.112707</v>
       </c>
       <c r="R70" s="11" t="s">
         <v>55</v>
@@ -5284,7 +5284,7 @@
         <v>739.197528</v>
       </c>
       <c r="F71" s="34">
-        <v>321.937884</v>
+        <v>317.605422</v>
       </c>
       <c r="G71" s="35">
         <v>143.905216</v>
@@ -5293,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="I71" s="34">
-        <v>12.869039</v>
+        <v>12.695855</v>
       </c>
       <c r="J71" s="34">
         <v>60</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="54">
-        <v>-4.65049</v>
+        <v>-4.477305</v>
       </c>
       <c r="R71" s="11" t="s">
         <v>55</v>
@@ -5339,7 +5339,7 @@
         <v>750.814185</v>
       </c>
       <c r="F72" s="34">
-        <v>324.959406</v>
+        <v>320.573886</v>
       </c>
       <c r="G72" s="35">
         <v>143.905216</v>
@@ -5348,7 +5348,7 @@
         <v>6</v>
       </c>
       <c r="I72" s="34">
-        <v>12.98982</v>
+        <v>12.814515</v>
       </c>
       <c r="J72" s="34">
         <v>60</v>
@@ -5366,16 +5366,16 @@
         <v>6</v>
       </c>
       <c r="O72" s="35">
-        <v>0</v>
+        <v>0.747677</v>
       </c>
       <c r="P72" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="54">
-        <v>-0.01937</v>
+        <v>0.155935</v>
       </c>
       <c r="R72" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AP72" s="72"/>
     </row>
@@ -5394,7 +5394,7 @@
         <v>762.491066</v>
       </c>
       <c r="F73" s="34">
-        <v>328.002771</v>
+        <v>323.56403</v>
       </c>
       <c r="G73" s="35">
         <v>143.905216</v>
@@ -5403,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="I73" s="34">
-        <v>13.111475</v>
+        <v>12.934042</v>
       </c>
       <c r="J73" s="34">
         <v>60</v>
@@ -5421,13 +5421,13 @@
         <v>6</v>
       </c>
       <c r="O73" s="35">
-        <v>21.763561</v>
+        <v>22.601286</v>
       </c>
       <c r="P73" s="35">
         <v>1</v>
       </c>
       <c r="Q73" s="54">
-        <v>4.609589</v>
+        <v>4.787022</v>
       </c>
       <c r="R73" s="11" t="s">
         <v>52</v>
@@ -5449,7 +5449,7 @@
         <v>774.227861</v>
       </c>
       <c r="F74" s="34">
-        <v>331.067977</v>
+        <v>326.575856</v>
       </c>
       <c r="G74" s="35">
         <v>143.905216</v>
@@ -5458,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="I74" s="34">
-        <v>13.234002</v>
+        <v>13.054436</v>
       </c>
       <c r="J74" s="34">
         <v>60</v>
@@ -5476,13 +5476,13 @@
         <v>6</v>
       </c>
       <c r="O74" s="35">
-        <v>42.947333</v>
+        <v>43.78228</v>
       </c>
       <c r="P74" s="35">
         <v>1</v>
       </c>
       <c r="Q74" s="54">
-        <v>9.236395</v>
+        <v>9.415961</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>52</v>
@@ -5504,7 +5504,7 @@
         <v>786.024266</v>
       </c>
       <c r="F75" s="39">
-        <v>334.155025</v>
+        <v>329.609362</v>
       </c>
       <c r="G75" s="39">
         <v>143.905216</v>
@@ -5513,7 +5513,7 @@
         <v>6</v>
       </c>
       <c r="I75" s="39">
-        <v>13.357403</v>
+        <v>13.175696</v>
       </c>
       <c r="J75" s="39">
         <v>60</v>
@@ -5531,13 +5531,13 @@
         <v>6</v>
       </c>
       <c r="O75" s="39">
-        <v>63.483781</v>
+        <v>64.316001</v>
       </c>
       <c r="P75" s="39">
         <v>1</v>
       </c>
       <c r="Q75" s="14">
-        <v>13.861053</v>
+        <v>14.04276</v>
       </c>
       <c r="R75" s="67" t="s">
         <v>52</v>
@@ -5561,7 +5561,7 @@
         <v>682.172301</v>
       </c>
       <c r="F76" s="49">
-        <v>305.567678</v>
+        <v>296.985283</v>
       </c>
       <c r="G76" s="49">
         <v>143.905216</v>
@@ -5570,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="I76" s="49">
-        <v>12.214662</v>
+        <v>11.871592</v>
       </c>
       <c r="J76" s="49">
         <v>60</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="49">
-        <v>-30.988451</v>
+        <v>-30.645381</v>
       </c>
       <c r="R76" s="68" t="s">
         <v>55</v>
@@ -5616,7 +5616,7 @@
         <v>693.483822</v>
       </c>
       <c r="F77" s="51">
-        <v>308.578101</v>
+        <v>299.885196</v>
       </c>
       <c r="G77" s="51">
         <v>143.905216</v>
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="I77" s="51">
-        <v>12.335</v>
+        <v>11.987512</v>
       </c>
       <c r="J77" s="51">
         <v>60</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="62">
-        <v>-26.403597</v>
+        <v>-26.05611</v>
       </c>
       <c r="R77" s="69" t="s">
         <v>55</v>
@@ -5671,7 +5671,7 @@
         <v>704.857183</v>
       </c>
       <c r="F78" s="51">
-        <v>311.611438</v>
+        <v>302.807676</v>
       </c>
       <c r="G78" s="51">
         <v>143.905216</v>
@@ -5680,7 +5680,7 @@
         <v>6</v>
       </c>
       <c r="I78" s="51">
-        <v>12.456253</v>
+        <v>12.104334</v>
       </c>
       <c r="J78" s="51">
         <v>60</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="62">
-        <v>-21.821272</v>
+        <v>-21.469353</v>
       </c>
       <c r="R78" s="69" t="s">
         <v>55</v>
@@ -5726,7 +5726,7 @@
         <v>716.292049</v>
       </c>
       <c r="F79" s="51">
-        <v>314.66769</v>
+        <v>305.752725</v>
       </c>
       <c r="G79" s="51">
         <v>143.905216</v>
@@ -5735,7 +5735,7 @@
         <v>6</v>
       </c>
       <c r="I79" s="51">
-        <v>12.578423</v>
+        <v>12.222059</v>
       </c>
       <c r="J79" s="51">
         <v>60</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="62">
-        <v>-17.241466</v>
+        <v>-16.885102</v>
       </c>
       <c r="R79" s="69" t="s">
         <v>55</v>
@@ -5781,7 +5781,7 @@
         <v>727.78809</v>
       </c>
       <c r="F80" s="51">
-        <v>317.746856</v>
+        <v>308.720341</v>
       </c>
       <c r="G80" s="51">
         <v>143.905216</v>
@@ -5790,7 +5790,7 @@
         <v>6</v>
       </c>
       <c r="I80" s="51">
-        <v>12.701508</v>
+        <v>12.340685</v>
       </c>
       <c r="J80" s="51">
         <v>60</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="62">
-        <v>-12.664172</v>
+        <v>-12.303349</v>
       </c>
       <c r="R80" s="69" t="s">
         <v>55</v>
@@ -5836,7 +5836,7 @@
         <v>739.344983</v>
       </c>
       <c r="F81" s="51">
-        <v>320.848937</v>
+        <v>311.710525</v>
       </c>
       <c r="G81" s="51">
         <v>143.905216</v>
@@ -5845,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="I81" s="51">
-        <v>12.82551</v>
+        <v>12.460214</v>
       </c>
       <c r="J81" s="51">
         <v>60</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="62">
-        <v>-8.08938</v>
+        <v>-7.724085</v>
       </c>
       <c r="R81" s="69" t="s">
         <v>55</v>
@@ -5891,7 +5891,7 @@
         <v>750.962409</v>
       </c>
       <c r="F82" s="51">
-        <v>323.973932</v>
+        <v>314.723277</v>
       </c>
       <c r="G82" s="51">
         <v>143.905216</v>
@@ -5900,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="I82" s="51">
-        <v>12.950427</v>
+        <v>12.580645</v>
       </c>
       <c r="J82" s="51">
         <v>60</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="62">
-        <v>-3.517084</v>
+        <v>-3.147301</v>
       </c>
       <c r="R82" s="69" t="s">
         <v>55</v>
@@ -5946,7 +5946,7 @@
         <v>762.640054</v>
       </c>
       <c r="F83" s="51">
-        <v>327.121842</v>
+        <v>317.758597</v>
       </c>
       <c r="G83" s="51">
         <v>143.905216</v>
@@ -5955,7 +5955,7 @@
         <v>6</v>
       </c>
       <c r="I83" s="51">
-        <v>13.076261</v>
+        <v>12.701978</v>
       </c>
       <c r="J83" s="51">
         <v>60</v>
@@ -5973,13 +5973,13 @@
         <v>6</v>
       </c>
       <c r="O83" s="62">
-        <v>4.969338</v>
+        <v>6.736121</v>
       </c>
       <c r="P83" s="62">
         <v>1</v>
       </c>
       <c r="Q83" s="62">
-        <v>1.052727</v>
+        <v>1.42701</v>
       </c>
       <c r="R83" s="69" t="s">
         <v>52</v>
@@ -6001,7 +6001,7 @@
         <v>774.37761</v>
       </c>
       <c r="F84" s="51">
-        <v>330.292667</v>
+        <v>320.816484</v>
       </c>
       <c r="G84" s="51">
         <v>143.905216</v>
@@ -6010,7 +6010,7 @@
         <v>6</v>
       </c>
       <c r="I84" s="51">
-        <v>13.20301</v>
+        <v>12.824213</v>
       </c>
       <c r="J84" s="51">
         <v>60</v>
@@ -6028,13 +6028,13 @@
         <v>6</v>
       </c>
       <c r="O84" s="62">
-        <v>26.127061</v>
+        <v>27.888052</v>
       </c>
       <c r="P84" s="62">
         <v>1</v>
       </c>
       <c r="Q84" s="62">
-        <v>5.620059</v>
+        <v>5.998856</v>
       </c>
       <c r="R84" s="69" t="s">
         <v>52</v>
@@ -6056,7 +6056,7 @@
         <v>786.174771</v>
       </c>
       <c r="F85" s="53">
-        <v>333.486406</v>
+        <v>323.89694</v>
       </c>
       <c r="G85" s="53">
         <v>143.905216</v>
@@ -6065,7 +6065,7 @@
         <v>6</v>
       </c>
       <c r="I85" s="53">
-        <v>13.330676</v>
+        <v>12.94735</v>
       </c>
       <c r="J85" s="53">
         <v>60</v>
@@ -6083,13 +6083,13 @@
         <v>6</v>
       </c>
       <c r="O85" s="53">
-        <v>46.638119</v>
+        <v>48.393422</v>
       </c>
       <c r="P85" s="53">
         <v>1</v>
       </c>
       <c r="Q85" s="53">
-        <v>10.18492</v>
+        <v>10.568246</v>
       </c>
       <c r="R85" s="70" t="s">
         <v>52</v>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -2206,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1441,20 +1441,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>451485</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>96520</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>194945</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1467,8 +1467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34739580" y="14314170"/>
-          <a:ext cx="7471410" cy="4946650"/>
+          <a:off x="17917160" y="3957955"/>
+          <a:ext cx="7513320" cy="4996180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,20 +1483,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610870</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="12" name="Picture 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1509,8 +1509,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34905315" y="8935085"/>
-          <a:ext cx="7370445" cy="4930140"/>
+          <a:off x="17826355" y="9241155"/>
+          <a:ext cx="7414895" cy="4904105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17748885" y="14410690"/>
+          <a:ext cx="7609840" cy="5047615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1527,32 +1569,32 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>404495</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="14" name="Picture 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34940240" y="3966845"/>
-          <a:ext cx="7115810" cy="4699635"/>
+          <a:off x="34940240" y="9129395"/>
+          <a:ext cx="7578725" cy="5059680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,34 +1609,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>347345</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="18" name="Picture 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18392775" y="3996055"/>
-          <a:ext cx="7546975" cy="4989195"/>
+          <a:off x="34929445" y="3923665"/>
+          <a:ext cx="7532370" cy="5010785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,34 +1651,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>626745</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="19" name="Picture 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18404205" y="9073515"/>
-          <a:ext cx="7458075" cy="4939665"/>
+          <a:off x="34869120" y="14326235"/>
+          <a:ext cx="7731125" cy="5141595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,34 +1693,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>548005</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="20" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18373725" y="14366240"/>
-          <a:ext cx="7520940" cy="4989830"/>
+          <a:off x="42908220" y="3911600"/>
+          <a:ext cx="7580630" cy="5008880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,34 +1735,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>133985</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>507365</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="21" name="Picture 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26032460" y="3957955"/>
-          <a:ext cx="7528560" cy="5005070"/>
+          <a:off x="42865040" y="9148445"/>
+          <a:ext cx="7620000" cy="5037455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,34 +1777,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>421005</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>178435</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="22" name="Picture 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26008965" y="9147810"/>
-          <a:ext cx="7465695" cy="4934585"/>
+          <a:off x="42832020" y="14352905"/>
+          <a:ext cx="7795895" cy="5166360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,34 +1819,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>471805</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="23" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26038175" y="14361160"/>
-          <a:ext cx="7487285" cy="5010150"/>
+          <a:off x="25497155" y="3937000"/>
+          <a:ext cx="7585075" cy="5070475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,34 +1861,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>448945</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>481330</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42617390" y="3966845"/>
-          <a:ext cx="7155180" cy="4770755"/>
+          <a:off x="25375235" y="9260840"/>
+          <a:ext cx="7542530" cy="5029835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,62 +1903,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>294640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>551815</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="42430700" y="8966835"/>
-          <a:ext cx="7525385" cy="4994275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>417830</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>135890</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="25" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1929,8 +1929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42532300" y="14336395"/>
-          <a:ext cx="7544435" cy="5018405"/>
+          <a:off x="25486995" y="14564360"/>
+          <a:ext cx="7501255" cy="4998720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="V46" workbookViewId="0">
+      <selection activeCell="AW97" sqref="AW97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2586,7 +2586,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="32">
-        <v>4.320029</v>
+        <v>4.168054</v>
       </c>
       <c r="N18" s="32">
         <v>6</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <v>-31.460754</v>
+        <v>-31.30878</v>
       </c>
       <c r="R18" s="66" t="s">
         <v>55</v>
@@ -2641,7 +2641,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="34">
-        <v>4.39592</v>
+        <v>4.241189</v>
       </c>
       <c r="N19" s="34">
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="54">
-        <v>-26.900355</v>
+        <v>-26.745624</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>55</v>
@@ -2696,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="M20" s="34">
-        <v>4.472251</v>
+        <v>4.314746</v>
       </c>
       <c r="N20" s="34">
         <v>6</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="54">
-        <v>-22.342801</v>
+        <v>-22.185296</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>55</v>
@@ -2751,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="M21" s="34">
-        <v>4.549019</v>
+        <v>4.388724</v>
       </c>
       <c r="N21" s="34">
         <v>6</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="54">
-        <v>-17.788081</v>
+        <v>-17.627786</v>
       </c>
       <c r="R21" s="11" t="s">
         <v>55</v>
@@ -2806,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="34">
-        <v>4.626222</v>
+        <v>4.463119</v>
       </c>
       <c r="N22" s="34">
         <v>6</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="54">
-        <v>-13.236184</v>
+        <v>-13.073082</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>55</v>
@@ -2861,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="M23" s="34">
-        <v>4.703857</v>
+        <v>4.537931</v>
       </c>
       <c r="N23" s="34">
         <v>6</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="54">
-        <v>-8.687099</v>
+        <v>-8.521172</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>55</v>
@@ -2916,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="34">
-        <v>4.781923</v>
+        <v>4.613155</v>
       </c>
       <c r="N24" s="34">
         <v>6</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="54">
-        <v>-4.140814</v>
+        <v>-3.972047</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>55</v>
@@ -2971,19 +2971,19 @@
         <v>20</v>
       </c>
       <c r="M25" s="34">
-        <v>4.860415</v>
+        <v>4.688791</v>
       </c>
       <c r="N25" s="34">
         <v>6</v>
       </c>
       <c r="O25" s="35">
-        <v>1.398796</v>
+        <v>1.994968</v>
       </c>
       <c r="P25" s="35">
         <v>1</v>
       </c>
       <c r="Q25" s="54">
-        <v>0.402681</v>
+        <v>0.574305</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>52</v>
@@ -3026,19 +3026,19 @@
         <v>20</v>
       </c>
       <c r="M26" s="34">
-        <v>4.939334</v>
+        <v>4.764836</v>
       </c>
       <c r="N26" s="34">
         <v>6</v>
       </c>
       <c r="O26" s="35">
-        <v>16.897859</v>
+        <v>17.494338</v>
       </c>
       <c r="P26" s="35">
         <v>1</v>
       </c>
       <c r="Q26" s="54">
-        <v>4.943396</v>
+        <v>5.117893</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>52</v>
@@ -3081,19 +3081,19 @@
         <v>20</v>
       </c>
       <c r="M27" s="39">
-        <v>5.018675</v>
+        <v>4.841288</v>
       </c>
       <c r="N27" s="39">
         <v>6</v>
       </c>
       <c r="O27" s="39">
-        <v>31.897978</v>
+        <v>32.494761</v>
       </c>
       <c r="P27" s="39">
         <v>1</v>
       </c>
       <c r="Q27" s="14">
-        <v>9.481341</v>
+        <v>9.658729</v>
       </c>
       <c r="R27" s="67" t="s">
         <v>52</v>
@@ -3138,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="M28" s="32">
-        <v>8.656064</v>
+        <v>8.503528</v>
       </c>
       <c r="N28" s="32">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <v>-35.569691</v>
+        <v>-35.417155</v>
       </c>
       <c r="R28" s="66" t="s">
         <v>55</v>
@@ -3193,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="M29" s="34">
-        <v>8.808029</v>
+        <v>8.652727</v>
       </c>
       <c r="N29" s="34">
         <v>6</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="54">
-        <v>-31.087314</v>
+        <v>-30.932012</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>55</v>
@@ -3248,7 +3248,7 @@
         <v>40</v>
       </c>
       <c r="M30" s="34">
-        <v>8.960873</v>
+        <v>8.802788</v>
       </c>
       <c r="N30" s="34">
         <v>6</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="54">
-        <v>-26.608256</v>
+        <v>-26.450171</v>
       </c>
       <c r="R30" s="11" t="s">
         <v>55</v>
@@ -3303,7 +3303,7 @@
         <v>40</v>
       </c>
       <c r="M31" s="34">
-        <v>9.114592</v>
+        <v>8.953706</v>
       </c>
       <c r="N31" s="34">
         <v>6</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="54">
-        <v>-22.132503</v>
+        <v>-21.971618</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>55</v>
@@ -3358,7 +3358,7 @@
         <v>40</v>
       </c>
       <c r="M32" s="34">
-        <v>9.269181</v>
+        <v>9.105478</v>
       </c>
       <c r="N32" s="34">
         <v>6</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="54">
-        <v>-17.660042</v>
+        <v>-17.496339</v>
       </c>
       <c r="R32" s="11" t="s">
         <v>55</v>
@@ -3413,7 +3413,7 @@
         <v>40</v>
       </c>
       <c r="M33" s="34">
-        <v>9.424634</v>
+        <v>9.258097</v>
       </c>
       <c r="N33" s="34">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="54">
-        <v>-13.190858</v>
+        <v>-13.024322</v>
       </c>
       <c r="R33" s="11" t="s">
         <v>55</v>
@@ -3468,7 +3468,7 @@
         <v>40</v>
       </c>
       <c r="M34" s="34">
-        <v>9.580947</v>
+        <v>9.41156</v>
       </c>
       <c r="N34" s="34">
         <v>6</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="54">
-        <v>-8.72494</v>
+        <v>-8.555552</v>
       </c>
       <c r="R34" s="11" t="s">
         <v>55</v>
@@ -3523,7 +3523,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="34">
-        <v>9.738116</v>
+        <v>9.565861</v>
       </c>
       <c r="N35" s="34">
         <v>6</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="54">
-        <v>-4.262272</v>
+        <v>-4.090018</v>
       </c>
       <c r="R35" s="11" t="s">
         <v>55</v>
@@ -3578,19 +3578,19 @@
         <v>40</v>
       </c>
       <c r="M36" s="34">
-        <v>9.896135</v>
+        <v>9.720997</v>
       </c>
       <c r="N36" s="34">
         <v>6</v>
       </c>
       <c r="O36" s="35">
-        <v>0.673882</v>
+        <v>1.272507</v>
       </c>
       <c r="P36" s="35">
         <v>1</v>
       </c>
       <c r="Q36" s="54">
-        <v>0.197156</v>
+        <v>0.372294</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>52</v>
@@ -3633,19 +3633,19 @@
         <v>40</v>
       </c>
       <c r="M37" s="39">
-        <v>10.055</v>
+        <v>9.876962</v>
       </c>
       <c r="N37" s="39">
         <v>6</v>
       </c>
       <c r="O37" s="39">
-        <v>15.654098</v>
+        <v>16.253025</v>
       </c>
       <c r="P37" s="39">
         <v>1</v>
       </c>
       <c r="Q37" s="14">
-        <v>4.653358</v>
+        <v>4.831396</v>
       </c>
       <c r="R37" s="67" t="s">
         <v>52</v>
@@ -3808,7 +3808,7 @@
         <v>20</v>
       </c>
       <c r="M42" s="32">
-        <v>2.738892</v>
+        <v>2.644511</v>
       </c>
       <c r="N42" s="32">
         <v>6</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <v>-20.445347</v>
+        <v>-20.350967</v>
       </c>
       <c r="R42" s="66" t="s">
         <v>55</v>
@@ -3863,7 +3863,7 @@
         <v>20</v>
       </c>
       <c r="M43" s="34">
-        <v>2.801617</v>
+        <v>2.704988</v>
       </c>
       <c r="N43" s="34">
         <v>6</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="54">
-        <v>-15.849715</v>
+        <v>-15.753086</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>55</v>
@@ -3918,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="M44" s="34">
-        <v>2.864815</v>
+        <v>2.765919</v>
       </c>
       <c r="N44" s="34">
         <v>6</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="54">
-        <v>-11.257745</v>
+        <v>-11.158849</v>
       </c>
       <c r="R44" s="11" t="s">
         <v>55</v>
@@ -3973,7 +3973,7 @@
         <v>20</v>
       </c>
       <c r="M45" s="34">
-        <v>2.928482</v>
+        <v>2.8273</v>
       </c>
       <c r="N45" s="34">
         <v>6</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="54">
-        <v>-6.669421</v>
+        <v>-6.56824</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>55</v>
@@ -4028,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="M46" s="34">
-        <v>2.992614</v>
+        <v>2.88913</v>
       </c>
       <c r="N46" s="34">
         <v>6</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="54">
-        <v>-2.084727</v>
+        <v>-1.981243</v>
       </c>
       <c r="R46" s="11" t="s">
         <v>55</v>
@@ -4083,19 +4083,19 @@
         <v>20</v>
       </c>
       <c r="M47" s="34">
-        <v>3.057208</v>
+        <v>2.951403</v>
       </c>
       <c r="N47" s="34">
         <v>6</v>
       </c>
       <c r="O47" s="35">
-        <v>13.776262</v>
+        <v>14.360153</v>
       </c>
       <c r="P47" s="35">
         <v>1</v>
       </c>
       <c r="Q47" s="54">
-        <v>2.496351</v>
+        <v>2.602156</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>52</v>
@@ -4138,19 +4138,19 @@
         <v>20</v>
       </c>
       <c r="M48" s="34">
-        <v>3.122261</v>
+        <v>3.014117</v>
       </c>
       <c r="N48" s="34">
         <v>6</v>
       </c>
       <c r="O48" s="35">
-        <v>38.225101</v>
+        <v>38.809479</v>
       </c>
       <c r="P48" s="35">
         <v>1</v>
       </c>
       <c r="Q48" s="54">
-        <v>7.073829</v>
+        <v>7.181972</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>52</v>
@@ -4193,19 +4193,19 @@
         <v>20</v>
       </c>
       <c r="M49" s="34">
-        <v>3.187769</v>
+        <v>3.07727</v>
       </c>
       <c r="N49" s="34">
         <v>6</v>
       </c>
       <c r="O49" s="35">
-        <v>61.64951</v>
+        <v>62.234365</v>
       </c>
       <c r="P49" s="35">
         <v>1</v>
       </c>
       <c r="Q49" s="54">
-        <v>11.64772</v>
+        <v>11.758219</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>52</v>
@@ -4248,19 +4248,19 @@
         <v>20</v>
       </c>
       <c r="M50" s="34">
-        <v>3.25373</v>
+        <v>3.140857</v>
       </c>
       <c r="N50" s="34">
         <v>6</v>
       </c>
       <c r="O50" s="35">
-        <v>84.101636</v>
+        <v>84.686959</v>
       </c>
       <c r="P50" s="35">
         <v>1</v>
       </c>
       <c r="Q50" s="54">
-        <v>16.21804</v>
+        <v>16.330913</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>52</v>
@@ -4303,19 +4303,19 @@
         <v>20</v>
       </c>
       <c r="M51" s="39">
-        <v>3.32014</v>
+        <v>3.204877</v>
       </c>
       <c r="N51" s="39">
         <v>6</v>
       </c>
       <c r="O51" s="39">
-        <v>105.63038</v>
+        <v>106.21616</v>
       </c>
       <c r="P51" s="39">
         <v>1</v>
       </c>
       <c r="Q51" s="14">
-        <v>20.784802</v>
+        <v>20.900066</v>
       </c>
       <c r="R51" s="67" t="s">
         <v>52</v>
@@ -4360,7 +4360,7 @@
         <v>40</v>
       </c>
       <c r="M52" s="49">
-        <v>5.491045</v>
+        <v>5.396289</v>
       </c>
       <c r="N52" s="49">
         <v>6</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="49">
-        <v>-23.177</v>
+        <v>-23.082245</v>
       </c>
       <c r="R52" s="68" t="s">
         <v>55</v>
@@ -4415,7 +4415,7 @@
         <v>40</v>
       </c>
       <c r="M53" s="51">
-        <v>5.616685</v>
+        <v>5.519673</v>
       </c>
       <c r="N53" s="51">
         <v>6</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="62">
-        <v>-18.647805</v>
+        <v>-18.550793</v>
       </c>
       <c r="R53" s="69" t="s">
         <v>55</v>
@@ -4470,7 +4470,7 @@
         <v>40</v>
       </c>
       <c r="M54" s="51">
-        <v>5.743271</v>
+        <v>5.643983</v>
       </c>
       <c r="N54" s="51">
         <v>6</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="62">
-        <v>-14.12281</v>
+        <v>-14.023522</v>
       </c>
       <c r="R54" s="69" t="s">
         <v>55</v>
@@ -4525,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="M55" s="51">
-        <v>5.870794</v>
+        <v>5.769213</v>
       </c>
       <c r="N55" s="51">
         <v>6</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="62">
-        <v>-9.601994</v>
+        <v>-9.500413</v>
       </c>
       <c r="R55" s="69" t="s">
         <v>55</v>
@@ -4580,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="M56" s="51">
-        <v>5.999247</v>
+        <v>5.895355</v>
       </c>
       <c r="N56" s="51">
         <v>6</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="62">
-        <v>-5.08534</v>
+        <v>-4.981448</v>
       </c>
       <c r="R56" s="69" t="s">
         <v>55</v>
@@ -4635,7 +4635,7 @@
         <v>40</v>
       </c>
       <c r="M57" s="51">
-        <v>6.128625</v>
+        <v>6.022404</v>
       </c>
       <c r="N57" s="51">
         <v>6</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="62">
-        <v>-0.572828</v>
+        <v>-0.466607</v>
       </c>
       <c r="R57" s="69" t="s">
         <v>55</v>
@@ -4690,19 +4690,19 @@
         <v>40</v>
       </c>
       <c r="M58" s="51">
-        <v>6.25892</v>
+        <v>6.150352</v>
       </c>
       <c r="N58" s="51">
         <v>6</v>
       </c>
       <c r="O58" s="62">
-        <v>21.261377</v>
+        <v>21.847904</v>
       </c>
       <c r="P58" s="62">
         <v>1</v>
       </c>
       <c r="Q58" s="62">
-        <v>3.935559</v>
+        <v>4.044127</v>
       </c>
       <c r="R58" s="69" t="s">
         <v>52</v>
@@ -4745,19 +4745,19 @@
         <v>40</v>
       </c>
       <c r="M59" s="51">
-        <v>6.390127</v>
+        <v>6.279194</v>
       </c>
       <c r="N59" s="51">
         <v>6</v>
       </c>
       <c r="O59" s="62">
-        <v>44.659642</v>
+        <v>45.246647</v>
       </c>
       <c r="P59" s="62">
         <v>1</v>
       </c>
       <c r="Q59" s="62">
-        <v>8.439839</v>
+        <v>8.550772</v>
       </c>
       <c r="R59" s="69" t="s">
         <v>52</v>
@@ -4800,19 +4800,19 @@
         <v>40</v>
       </c>
       <c r="M60" s="51">
-        <v>6.522238</v>
+        <v>6.408923</v>
       </c>
       <c r="N60" s="51">
         <v>6</v>
       </c>
       <c r="O60" s="62">
-        <v>67.086509</v>
+        <v>67.673981</v>
       </c>
       <c r="P60" s="62">
         <v>1</v>
       </c>
       <c r="Q60" s="62">
-        <v>12.940031</v>
+        <v>13.053345</v>
       </c>
       <c r="R60" s="69" t="s">
         <v>52</v>
@@ -4855,19 +4855,19 @@
         <v>40</v>
       </c>
       <c r="M61" s="53">
-        <v>6.655248</v>
+        <v>6.539533</v>
       </c>
       <c r="N61" s="53">
         <v>6</v>
       </c>
       <c r="O61" s="53">
-        <v>88.590828</v>
+        <v>89.178758</v>
       </c>
       <c r="P61" s="53">
         <v>1</v>
       </c>
       <c r="Q61" s="53">
-        <v>17.436149</v>
+        <v>17.551864</v>
       </c>
       <c r="R61" s="70" t="s">
         <v>52</v>
@@ -5030,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="M66" s="32">
-        <v>3.193355</v>
+        <v>3.085705</v>
       </c>
       <c r="N66" s="32">
         <v>6</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <v>-27.676054</v>
+        <v>-27.568404</v>
       </c>
       <c r="R66" s="66" t="s">
         <v>55</v>
@@ -5085,7 +5085,7 @@
         <v>20</v>
       </c>
       <c r="M67" s="34">
-        <v>3.246404</v>
+        <v>3.136878</v>
       </c>
       <c r="N67" s="34">
         <v>6</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="54">
-        <v>-23.031941</v>
+        <v>-22.922416</v>
       </c>
       <c r="R67" s="11" t="s">
         <v>55</v>
@@ -5140,7 +5140,7 @@
         <v>20</v>
       </c>
       <c r="M68" s="34">
-        <v>3.299743</v>
+        <v>3.188331</v>
       </c>
       <c r="N68" s="34">
         <v>6</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="54">
-        <v>-18.390017</v>
+        <v>-18.278606</v>
       </c>
       <c r="R68" s="11" t="s">
         <v>55</v>
@@ -5195,7 +5195,7 @@
         <v>20</v>
       </c>
       <c r="M69" s="34">
-        <v>3.353372</v>
+        <v>3.240063</v>
       </c>
       <c r="N69" s="34">
         <v>6</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="54">
-        <v>-13.750275</v>
+        <v>-13.636966</v>
       </c>
       <c r="R69" s="11" t="s">
         <v>55</v>
@@ -5250,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="M70" s="34">
-        <v>3.407289</v>
+        <v>3.292071</v>
       </c>
       <c r="N70" s="34">
         <v>6</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="54">
-        <v>-9.112707</v>
+        <v>-8.997489</v>
       </c>
       <c r="R70" s="11" t="s">
         <v>55</v>
@@ -5305,7 +5305,7 @@
         <v>20</v>
       </c>
       <c r="M71" s="34">
-        <v>3.461492</v>
+        <v>3.344354</v>
       </c>
       <c r="N71" s="34">
         <v>6</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="54">
-        <v>-4.477305</v>
+        <v>-4.360168</v>
       </c>
       <c r="R71" s="11" t="s">
         <v>55</v>
@@ -5360,19 +5360,19 @@
         <v>20</v>
       </c>
       <c r="M72" s="34">
-        <v>3.51598</v>
+        <v>3.396912</v>
       </c>
       <c r="N72" s="34">
         <v>6</v>
       </c>
       <c r="O72" s="35">
-        <v>0.747677</v>
+        <v>1.318586</v>
       </c>
       <c r="P72" s="35">
         <v>1</v>
       </c>
       <c r="Q72" s="54">
-        <v>0.155935</v>
+        <v>0.275004</v>
       </c>
       <c r="R72" s="11" t="s">
         <v>52</v>
@@ -5415,19 +5415,19 @@
         <v>20</v>
       </c>
       <c r="M73" s="34">
-        <v>3.570752</v>
+        <v>3.449741</v>
       </c>
       <c r="N73" s="34">
         <v>6</v>
       </c>
       <c r="O73" s="35">
-        <v>22.601286</v>
+        <v>23.17262</v>
       </c>
       <c r="P73" s="35">
         <v>1</v>
       </c>
       <c r="Q73" s="54">
-        <v>4.787022</v>
+        <v>4.908032</v>
       </c>
       <c r="R73" s="11" t="s">
         <v>52</v>
@@ -5470,19 +5470,19 @@
         <v>20</v>
       </c>
       <c r="M74" s="34">
-        <v>3.625805</v>
+        <v>3.502842</v>
       </c>
       <c r="N74" s="34">
         <v>6</v>
       </c>
       <c r="O74" s="35">
-        <v>43.78228</v>
+        <v>44.354032</v>
       </c>
       <c r="P74" s="35">
         <v>1</v>
       </c>
       <c r="Q74" s="54">
-        <v>9.415961</v>
+        <v>9.538924</v>
       </c>
       <c r="R74" s="11" t="s">
         <v>52</v>
@@ -5525,19 +5525,19 @@
         <v>20</v>
       </c>
       <c r="M75" s="39">
-        <v>3.681139</v>
+        <v>3.556213</v>
       </c>
       <c r="N75" s="39">
         <v>6</v>
       </c>
       <c r="O75" s="39">
-        <v>64.316001</v>
+        <v>64.888165</v>
       </c>
       <c r="P75" s="39">
         <v>1</v>
       </c>
       <c r="Q75" s="14">
-        <v>14.04276</v>
+        <v>14.167687</v>
       </c>
       <c r="R75" s="67" t="s">
         <v>52</v>
@@ -5582,7 +5582,7 @@
         <v>40</v>
       </c>
       <c r="M76" s="49">
-        <v>6.404251</v>
+        <v>6.296171</v>
       </c>
       <c r="N76" s="49">
         <v>6</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="49">
-        <v>-30.645381</v>
+        <v>-30.537302</v>
       </c>
       <c r="R76" s="68" t="s">
         <v>55</v>
@@ -5637,7 +5637,7 @@
         <v>40</v>
       </c>
       <c r="M77" s="51">
-        <v>6.510534</v>
+        <v>6.400572</v>
       </c>
       <c r="N77" s="51">
         <v>6</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="62">
-        <v>-26.05611</v>
+        <v>-25.946148</v>
       </c>
       <c r="R77" s="69" t="s">
         <v>55</v>
@@ -5692,7 +5692,7 @@
         <v>40</v>
       </c>
       <c r="M78" s="51">
-        <v>6.617399</v>
+        <v>6.505543</v>
       </c>
       <c r="N78" s="51">
         <v>6</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="62">
-        <v>-21.469353</v>
+        <v>-21.357498</v>
       </c>
       <c r="R78" s="69" t="s">
         <v>55</v>
@@ -5747,7 +5747,7 @@
         <v>40</v>
       </c>
       <c r="M79" s="51">
-        <v>6.724842</v>
+        <v>6.611083</v>
       </c>
       <c r="N79" s="51">
         <v>6</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="62">
-        <v>-16.885102</v>
+        <v>-16.771342</v>
       </c>
       <c r="R79" s="69" t="s">
         <v>55</v>
@@ -5802,7 +5802,7 @@
         <v>40</v>
       </c>
       <c r="M80" s="51">
-        <v>6.832862</v>
+        <v>6.717186</v>
       </c>
       <c r="N80" s="51">
         <v>6</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="62">
-        <v>-12.303349</v>
+        <v>-12.187673</v>
       </c>
       <c r="R80" s="69" t="s">
         <v>55</v>
@@ -5857,7 +5857,7 @@
         <v>40</v>
       </c>
       <c r="M81" s="51">
-        <v>6.941454</v>
+        <v>6.823852</v>
       </c>
       <c r="N81" s="51">
         <v>6</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="62">
-        <v>-7.724085</v>
+        <v>-7.606482</v>
       </c>
       <c r="R81" s="69" t="s">
         <v>55</v>
@@ -5912,7 +5912,7 @@
         <v>40</v>
       </c>
       <c r="M82" s="51">
-        <v>7.050616</v>
+        <v>6.931076</v>
       </c>
       <c r="N82" s="51">
         <v>6</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="62">
-        <v>-3.147301</v>
+        <v>-3.027761</v>
       </c>
       <c r="R82" s="69" t="s">
         <v>55</v>
@@ -5967,19 +5967,19 @@
         <v>40</v>
       </c>
       <c r="M83" s="51">
-        <v>7.160345</v>
+        <v>7.038856</v>
       </c>
       <c r="N83" s="51">
         <v>6</v>
       </c>
       <c r="O83" s="62">
-        <v>6.736121</v>
+        <v>7.309604</v>
       </c>
       <c r="P83" s="62">
         <v>1</v>
       </c>
       <c r="Q83" s="62">
-        <v>1.42701</v>
+        <v>1.548499</v>
       </c>
       <c r="R83" s="69" t="s">
         <v>52</v>
@@ -6022,19 +6022,19 @@
         <v>40</v>
       </c>
       <c r="M84" s="51">
-        <v>7.270637</v>
+        <v>7.147188</v>
       </c>
       <c r="N84" s="51">
         <v>6</v>
       </c>
       <c r="O84" s="62">
-        <v>27.888052</v>
+        <v>28.461953</v>
       </c>
       <c r="P84" s="62">
         <v>1</v>
       </c>
       <c r="Q84" s="62">
-        <v>5.998856</v>
+        <v>6.122305</v>
       </c>
       <c r="R84" s="69" t="s">
         <v>52</v>
@@ -6077,19 +6077,19 @@
         <v>40</v>
       </c>
       <c r="M85" s="53">
-        <v>7.381491</v>
+        <v>7.256071</v>
       </c>
       <c r="N85" s="53">
         <v>6</v>
       </c>
       <c r="O85" s="53">
-        <v>48.393422</v>
+        <v>48.967734</v>
       </c>
       <c r="P85" s="53">
         <v>1</v>
       </c>
       <c r="Q85" s="53">
-        <v>10.568246</v>
+        <v>10.693666</v>
       </c>
       <c r="R85" s="70" t="s">
         <v>52</v>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
@@ -44,7 +44,7 @@
     <t>Integration hardware fraction of battery mass</t>
   </si>
   <si>
-    <t>Dirvert distance
+    <t>Divert distance
 (mi)</t>
   </si>
   <si>
@@ -2206,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="V46" workbookViewId="0">
-      <selection activeCell="AW97" sqref="AW97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/landing_safety_loiter_1500_3000_ft.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Without ABU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="72">
   <si>
     <t>ABUs' assumptions:</t>
   </si>
@@ -296,6 +297,48 @@
   <si>
     <t>Supernal S-A2</t>
   </si>
+  <si>
+    <t>Mission Range</t>
+  </si>
+  <si>
+    <t>baseline_mtow_kg</t>
+  </si>
+  <si>
+    <t>mtow_converged_kg</t>
+  </si>
+  <si>
+    <t>delta_battery_mass_converged_kg</t>
+  </si>
+  <si>
+    <t>baseline_converged_total_mission_kwh</t>
+  </si>
+  <si>
+    <t>total_required_kwh</t>
+  </si>
+  <si>
+    <t>divert_required_kwh</t>
+  </si>
+  <si>
+    <t>P_hover_kw</t>
+  </si>
+  <si>
+    <t>P_cruise_kw</t>
+  </si>
+  <si>
+    <t>E_hover_loiter_kwh</t>
+  </si>
+  <si>
+    <t>E_divert_cruise_kwh</t>
+  </si>
+  <si>
+    <t>30 mi</t>
+  </si>
+  <si>
+    <t>45 mi</t>
+  </si>
+  <si>
+    <t>60 mi</t>
+  </si>
 </sst>
 </file>
 
@@ -319,6 +362,7 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -334,7 +378,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -523,6 +566,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,12 +579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +787,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -781,7 +826,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -799,7 +846,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -830,9 +879,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -845,11 +892,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -870,19 +926,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1155,201 +1198,276 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1358,13 +1476,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1373,7 +1491,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2206,3898 +2324,3898 @@
   <sheetPr/>
   <dimension ref="A1:BI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="7" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="16" width="12.7777777777778" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="18" max="18" width="33.8055555555556" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6666666666667" style="1"/>
-    <col min="20" max="24" width="9.66666666666667" style="1"/>
-    <col min="25" max="25" width="20.6111111111111" style="1" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" style="1"/>
-    <col min="28" max="29" width="9" style="1"/>
-    <col min="30" max="31" width="9.66666666666667" style="1"/>
-    <col min="32" max="34" width="9" style="1"/>
-    <col min="35" max="35" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="36" max="45" width="9" style="1"/>
-    <col min="47" max="47" width="9" style="1"/>
-    <col min="48" max="48" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.9444444444444" style="1" customWidth="1"/>
-    <col min="50" max="55" width="9" style="1"/>
-    <col min="59" max="59" width="9" style="1"/>
-    <col min="60" max="60" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="61" max="61" width="14.9444444444444" style="1" customWidth="1"/>
-    <col min="63" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="12.7777777777778" style="36" customWidth="1"/>
+    <col min="8" max="16" width="12.7777777777778" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.7777777777778" style="36" customWidth="1"/>
+    <col min="18" max="18" width="33.8055555555556" style="36" customWidth="1"/>
+    <col min="19" max="19" width="10.6666666666667" style="36"/>
+    <col min="20" max="24" width="9.66666666666667" style="36"/>
+    <col min="25" max="25" width="20.6111111111111" style="36" customWidth="1"/>
+    <col min="26" max="27" width="9.66666666666667" style="36"/>
+    <col min="28" max="29" width="9" style="36"/>
+    <col min="30" max="31" width="9.66666666666667" style="36"/>
+    <col min="32" max="34" width="9" style="36"/>
+    <col min="35" max="35" width="22.6666666666667" style="36" customWidth="1"/>
+    <col min="36" max="45" width="9" style="36"/>
+    <col min="47" max="47" width="9" style="36"/>
+    <col min="48" max="48" width="18.1759259259259" style="36" customWidth="1"/>
+    <col min="49" max="49" width="14.9444444444444" style="36" customWidth="1"/>
+    <col min="50" max="55" width="9" style="36"/>
+    <col min="59" max="59" width="9" style="36"/>
+    <col min="60" max="60" width="18.1759259259259" style="36" customWidth="1"/>
+    <col min="61" max="61" width="14.9444444444444" style="36" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" ht="94" customHeight="1" spans="1:15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="44">
+        <v>6</v>
+      </c>
+      <c r="D4" s="45">
         <v>0.2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="46">
         <v>0.05</v>
       </c>
-      <c r="F4" s="17">
-        <v>6</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="F4" s="12">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13">
         <v>60</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" customHeight="1" spans="8:16">
-      <c r="H5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" customHeight="1" spans="2:8">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" customHeight="1" spans="2:8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" customHeight="1" spans="2:8">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" customHeight="1" spans="2:8">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" customHeight="1" spans="2:61">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="Y11" s="20" t="s">
+      <c r="H11" s="47"/>
+      <c r="Y11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Z11" s="71" t="s">
+      <c r="Z11" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AI11" s="20" t="s">
+      <c r="AI11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AJ11" s="71" t="s">
+      <c r="AJ11" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AV11" s="20" t="s">
+      <c r="AV11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AW11" s="71" t="s">
+      <c r="AW11" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="BH11" s="20" t="s">
+      <c r="BH11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="BI11" s="71" t="s">
+      <c r="BI11" s="96" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:61">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="Y12" s="20" t="s">
+      <c r="H12" s="47"/>
+      <c r="Y12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AI12" s="20" t="s">
+      <c r="AI12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AJ12" s="20" t="s">
+      <c r="AJ12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AV12" s="20" t="s">
+      <c r="AV12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AW12" s="20" t="s">
+      <c r="AW12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BH12" s="20" t="s">
+      <c r="BH12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="BI12" s="20" t="s">
+      <c r="BI12" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="24:61">
-      <c r="X13" s="64" t="s">
+      <c r="X13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Z13" s="71" t="s">
+      <c r="Z13" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AH13" s="64" t="s">
+      <c r="AH13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" s="20" t="s">
+      <c r="AI13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AJ13" s="71" t="s">
+      <c r="AJ13" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="72"/>
-      <c r="AU13" s="64" t="s">
+      <c r="AP13" s="97"/>
+      <c r="AU13" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="AV13" s="20" t="s">
+      <c r="AV13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AW13" s="71" t="s">
+      <c r="AW13" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="BG13" s="64" t="s">
+      <c r="BG13" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="BH13" s="20" t="s">
+      <c r="BH13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="BI13" s="71" t="s">
+      <c r="BI13" s="96" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:55">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="71"/>
-      <c r="AP14" s="72"/>
-      <c r="BC14" s="73"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="96"/>
+      <c r="AP14" s="97"/>
+      <c r="BC14" s="98"/>
     </row>
     <row r="15" spans="35:61">
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="71"/>
-      <c r="AP15" s="72"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="71"/>
-      <c r="BC15" s="73"/>
-      <c r="BH15" s="20"/>
-      <c r="BI15" s="71"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="96"/>
+      <c r="AP15" s="97"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="96"/>
+      <c r="BC15" s="98"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="96"/>
     </row>
     <row r="16" spans="1:42">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="AP16" s="72"/>
+      <c r="B16" s="16"/>
+      <c r="AP16" s="97"/>
     </row>
     <row r="17" ht="60" customHeight="1" spans="1:42">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="28" t="s">
+      <c r="O17" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="R17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AP17" s="72"/>
+      <c r="AP17" s="97"/>
     </row>
     <row r="18" spans="1:42">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="56">
         <v>5</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="57">
         <v>67.062948</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="58">
         <v>91.88951</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="58">
         <v>921.258639</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="58">
         <v>269.837987</v>
       </c>
-      <c r="G18" s="32">
-        <v>143.905216</v>
-      </c>
-      <c r="H18" s="32">
-        <v>6</v>
-      </c>
-      <c r="I18" s="32">
+      <c r="G18" s="58">
+        <v>143.905216</v>
+      </c>
+      <c r="H18" s="58">
+        <v>6</v>
+      </c>
+      <c r="I18" s="58">
         <v>10.786415</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="58">
         <v>60</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="58">
         <v>15.354311</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="83">
         <v>20</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="58">
         <v>4.168054</v>
       </c>
-      <c r="N18" s="32">
-        <v>6</v>
-      </c>
-      <c r="O18" s="32">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="65">
+      <c r="N18" s="58">
+        <v>6</v>
+      </c>
+      <c r="O18" s="58">
+        <v>0</v>
+      </c>
+      <c r="P18" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="90">
         <v>-31.30878</v>
       </c>
-      <c r="R18" s="66" t="s">
+      <c r="R18" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="AP18" s="72"/>
+      <c r="AP18" s="97"/>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30">
+      <c r="A19" s="55"/>
+      <c r="B19" s="56">
         <v>10</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="59">
         <v>97.546106</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="60">
         <v>129.993458</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="60">
         <v>937.423442</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="60">
         <v>272.196948</v>
       </c>
-      <c r="G19" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H19" s="34">
-        <v>6</v>
-      </c>
-      <c r="I19" s="34">
+      <c r="G19" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H19" s="60">
+        <v>6</v>
+      </c>
+      <c r="I19" s="60">
         <v>10.880711</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="60">
         <v>60</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="60">
         <v>15.623724</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="84">
         <v>20</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="60">
         <v>4.241189</v>
       </c>
-      <c r="N19" s="34">
-        <v>6</v>
-      </c>
-      <c r="O19" s="35">
-        <v>0</v>
-      </c>
-      <c r="P19" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="54">
+      <c r="N19" s="60">
+        <v>6</v>
+      </c>
+      <c r="O19" s="61">
+        <v>0</v>
+      </c>
+      <c r="P19" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="80">
         <v>-26.745624</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP19" s="72"/>
+      <c r="AP19" s="97"/>
     </row>
     <row r="20" spans="1:42">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56">
         <v>15</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="59">
         <v>128.029264</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="60">
         <v>168.097405</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="60">
         <v>953.681701</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="60">
         <v>274.577122</v>
       </c>
-      <c r="G20" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H20" s="34">
-        <v>6</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="G20" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H20" s="60">
+        <v>6</v>
+      </c>
+      <c r="I20" s="60">
         <v>10.975856</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="60">
         <v>60</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="60">
         <v>15.894695</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="84">
         <v>20</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="60">
         <v>4.314746</v>
       </c>
-      <c r="N20" s="34">
-        <v>6</v>
-      </c>
-      <c r="O20" s="35">
-        <v>0</v>
-      </c>
-      <c r="P20" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="54">
+      <c r="N20" s="60">
+        <v>6</v>
+      </c>
+      <c r="O20" s="61">
+        <v>0</v>
+      </c>
+      <c r="P20" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="80">
         <v>-22.185296</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP20" s="72"/>
+      <c r="AP20" s="97"/>
     </row>
     <row r="21" spans="1:42">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56">
         <v>20</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="59">
         <v>158.512422</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="60">
         <v>206.201353</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="60">
         <v>970.032879</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="60">
         <v>276.978509</v>
       </c>
-      <c r="G21" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H21" s="34">
-        <v>6</v>
-      </c>
-      <c r="I21" s="34">
+      <c r="G21" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H21" s="60">
+        <v>6</v>
+      </c>
+      <c r="I21" s="60">
         <v>11.071848</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="60">
         <v>60</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="60">
         <v>16.167215</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="84">
         <v>20</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="60">
         <v>4.388724</v>
       </c>
-      <c r="N21" s="34">
-        <v>6</v>
-      </c>
-      <c r="O21" s="35">
-        <v>0</v>
-      </c>
-      <c r="P21" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="54">
+      <c r="N21" s="60">
+        <v>6</v>
+      </c>
+      <c r="O21" s="61">
+        <v>0</v>
+      </c>
+      <c r="P21" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="80">
         <v>-17.627786</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP21" s="72"/>
+      <c r="AP21" s="97"/>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56">
         <v>25</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="59">
         <v>188.99558</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="60">
         <v>244.305301</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="60">
         <v>986.476452</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="60">
         <v>279.40111</v>
       </c>
-      <c r="G22" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H22" s="34">
-        <v>6</v>
-      </c>
-      <c r="I22" s="34">
+      <c r="G22" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H22" s="60">
+        <v>6</v>
+      </c>
+      <c r="I22" s="60">
         <v>11.168688</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="60">
         <v>60</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="60">
         <v>16.441274</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="84">
         <v>20</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="60">
         <v>4.463119</v>
       </c>
-      <c r="N22" s="34">
-        <v>6</v>
-      </c>
-      <c r="O22" s="35">
-        <v>0</v>
-      </c>
-      <c r="P22" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="54">
+      <c r="N22" s="60">
+        <v>6</v>
+      </c>
+      <c r="O22" s="61">
+        <v>0</v>
+      </c>
+      <c r="P22" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="80">
         <v>-13.073082</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP22" s="72"/>
+      <c r="AP22" s="97"/>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56">
         <v>30</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="59">
         <v>219.478738</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="60">
         <v>282.409248</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="60">
         <v>1003.011905</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="60">
         <v>281.844923</v>
       </c>
-      <c r="G23" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H23" s="34">
-        <v>6</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="G23" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H23" s="60">
+        <v>6</v>
+      </c>
+      <c r="I23" s="60">
         <v>11.266376</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="60">
         <v>60</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="60">
         <v>16.716865</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="84">
         <v>20</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="60">
         <v>4.537931</v>
       </c>
-      <c r="N23" s="34">
-        <v>6</v>
-      </c>
-      <c r="O23" s="35">
-        <v>0</v>
-      </c>
-      <c r="P23" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="54">
+      <c r="N23" s="60">
+        <v>6</v>
+      </c>
+      <c r="O23" s="61">
+        <v>0</v>
+      </c>
+      <c r="P23" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="80">
         <v>-8.521172</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP23" s="72"/>
+      <c r="AP23" s="97"/>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56">
         <v>35</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="59">
         <v>249.961896</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="60">
         <v>320.513196</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="60">
         <v>1019.638728</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="60">
         <v>284.309951</v>
       </c>
-      <c r="G24" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H24" s="34">
-        <v>6</v>
-      </c>
-      <c r="I24" s="34">
+      <c r="G24" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H24" s="60">
+        <v>6</v>
+      </c>
+      <c r="I24" s="60">
         <v>11.364912</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="60">
         <v>60</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="60">
         <v>16.993979</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="84">
         <v>20</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="60">
         <v>4.613155</v>
       </c>
-      <c r="N24" s="34">
-        <v>6</v>
-      </c>
-      <c r="O24" s="35">
-        <v>0</v>
-      </c>
-      <c r="P24" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="54">
+      <c r="N24" s="60">
+        <v>6</v>
+      </c>
+      <c r="O24" s="61">
+        <v>0</v>
+      </c>
+      <c r="P24" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="80">
         <v>-3.972047</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP24" s="72"/>
+      <c r="AP24" s="97"/>
     </row>
     <row r="25" spans="1:42">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56">
         <v>40</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="59">
         <v>280.445054</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="60">
         <v>358.617143</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="60">
         <v>1036.356423</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="60">
         <v>286.796191</v>
       </c>
-      <c r="G25" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H25" s="34">
-        <v>6</v>
-      </c>
-      <c r="I25" s="34">
+      <c r="G25" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H25" s="60">
+        <v>6</v>
+      </c>
+      <c r="I25" s="60">
         <v>11.464297</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="60">
         <v>60</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="60">
         <v>17.272607</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="84">
         <v>20</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="60">
         <v>4.688791</v>
       </c>
-      <c r="N25" s="34">
-        <v>6</v>
-      </c>
-      <c r="O25" s="35">
+      <c r="N25" s="60">
+        <v>6</v>
+      </c>
+      <c r="O25" s="61">
         <v>1.994968</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25" s="61">
         <v>1</v>
       </c>
-      <c r="Q25" s="54">
+      <c r="Q25" s="80">
         <v>0.574305</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP25" s="72"/>
+      <c r="AP25" s="97"/>
     </row>
     <row r="26" spans="1:42">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56">
         <v>45</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="59">
         <v>310.928212</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="60">
         <v>396.721091</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="60">
         <v>1053.164499</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="60">
         <v>289.303645</v>
       </c>
-      <c r="G26" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H26" s="34">
-        <v>6</v>
-      </c>
-      <c r="I26" s="34">
+      <c r="G26" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H26" s="60">
+        <v>6</v>
+      </c>
+      <c r="I26" s="60">
         <v>11.564529</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="60">
         <v>60</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="60">
         <v>17.552742</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="84">
         <v>20</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="60">
         <v>4.764836</v>
       </c>
-      <c r="N26" s="34">
-        <v>6</v>
-      </c>
-      <c r="O26" s="35">
+      <c r="N26" s="60">
+        <v>6</v>
+      </c>
+      <c r="O26" s="61">
         <v>17.494338</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="61">
         <v>1</v>
       </c>
-      <c r="Q26" s="54">
+      <c r="Q26" s="80">
         <v>5.117893</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP26" s="72"/>
+      <c r="AP26" s="97"/>
     </row>
     <row r="27" spans="1:42">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63">
         <v>50</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="64">
         <v>341.41137</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="65">
         <v>434.825038</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="65">
         <v>1070.062472</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="65">
         <v>291.832312</v>
       </c>
-      <c r="G27" s="39">
-        <v>143.905216</v>
-      </c>
-      <c r="H27" s="39">
-        <v>6</v>
-      </c>
-      <c r="I27" s="39">
+      <c r="G27" s="65">
+        <v>143.905216</v>
+      </c>
+      <c r="H27" s="65">
+        <v>6</v>
+      </c>
+      <c r="I27" s="65">
         <v>11.665609</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="65">
         <v>60</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="65">
         <v>17.834375</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="13">
         <v>20</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="65">
         <v>4.841288</v>
       </c>
-      <c r="N27" s="39">
-        <v>6</v>
-      </c>
-      <c r="O27" s="39">
+      <c r="N27" s="65">
+        <v>6</v>
+      </c>
+      <c r="O27" s="65">
         <v>32.494761</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27" s="65">
         <v>1</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="44">
         <v>9.658729</v>
       </c>
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AP27" s="72"/>
+      <c r="AP27" s="97"/>
     </row>
     <row r="28" spans="1:42">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="67">
         <v>5</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="57">
         <v>67.062948</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="58">
         <v>92.065717</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="58">
         <v>921.333175</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="58">
         <v>264.125707</v>
       </c>
-      <c r="G28" s="32">
-        <v>143.905216</v>
-      </c>
-      <c r="H28" s="32">
-        <v>6</v>
-      </c>
-      <c r="I28" s="32">
+      <c r="G28" s="58">
+        <v>143.905216</v>
+      </c>
+      <c r="H28" s="58">
+        <v>6</v>
+      </c>
+      <c r="I28" s="58">
         <v>10.558074</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="58">
         <v>60</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="58">
         <v>15.355553</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="83">
         <v>40</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="58">
         <v>8.503528</v>
       </c>
-      <c r="N28" s="32">
-        <v>6</v>
-      </c>
-      <c r="O28" s="32">
-        <v>0</v>
-      </c>
-      <c r="P28" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="65">
+      <c r="N28" s="58">
+        <v>6</v>
+      </c>
+      <c r="O28" s="58">
+        <v>0</v>
+      </c>
+      <c r="P28" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="90">
         <v>-35.417155</v>
       </c>
-      <c r="R28" s="66" t="s">
+      <c r="R28" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="AP28" s="72"/>
+      <c r="AP28" s="97"/>
     </row>
     <row r="29" spans="1:42">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43">
+      <c r="A29" s="68"/>
+      <c r="B29" s="69">
         <v>10</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="59">
         <v>97.546106</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="60">
         <v>130.169665</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="60">
         <v>937.498412</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="60">
         <v>266.533231</v>
       </c>
-      <c r="G29" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H29" s="34">
-        <v>6</v>
-      </c>
-      <c r="I29" s="34">
+      <c r="G29" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H29" s="60">
+        <v>6</v>
+      </c>
+      <c r="I29" s="60">
         <v>10.654312</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="60">
         <v>60</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="60">
         <v>15.624974</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="84">
         <v>40</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="60">
         <v>8.652727</v>
       </c>
-      <c r="N29" s="34">
-        <v>6</v>
-      </c>
-      <c r="O29" s="35">
-        <v>0</v>
-      </c>
-      <c r="P29" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="54">
+      <c r="N29" s="60">
+        <v>6</v>
+      </c>
+      <c r="O29" s="61">
+        <v>0</v>
+      </c>
+      <c r="P29" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="80">
         <v>-30.932012</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP29" s="72"/>
+      <c r="AP29" s="97"/>
     </row>
     <row r="30" spans="1:42">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69">
         <v>15</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="59">
         <v>128.029264</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="60">
         <v>168.273612</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="60">
         <v>953.757101</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="60">
         <v>268.962817</v>
       </c>
-      <c r="G30" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H30" s="34">
-        <v>6</v>
-      </c>
-      <c r="I30" s="34">
+      <c r="G30" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H30" s="60">
+        <v>6</v>
+      </c>
+      <c r="I30" s="60">
         <v>10.751431</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="60">
         <v>60</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="60">
         <v>15.895952</v>
       </c>
-      <c r="L30" s="59">
+      <c r="L30" s="84">
         <v>40</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="60">
         <v>8.802788</v>
       </c>
-      <c r="N30" s="34">
-        <v>6</v>
-      </c>
-      <c r="O30" s="35">
-        <v>0</v>
-      </c>
-      <c r="P30" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="54">
+      <c r="N30" s="60">
+        <v>6</v>
+      </c>
+      <c r="O30" s="61">
+        <v>0</v>
+      </c>
+      <c r="P30" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="80">
         <v>-26.450171</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP30" s="72"/>
+      <c r="AP30" s="97"/>
     </row>
     <row r="31" spans="1:42">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43">
+      <c r="A31" s="68"/>
+      <c r="B31" s="69">
         <v>20</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="59">
         <v>158.512422</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="60">
         <v>206.37756</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="60">
         <v>970.108708</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="60">
         <v>271.414467</v>
       </c>
-      <c r="G31" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H31" s="34">
-        <v>6</v>
-      </c>
-      <c r="I31" s="34">
+      <c r="G31" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H31" s="60">
+        <v>6</v>
+      </c>
+      <c r="I31" s="60">
         <v>10.849433</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="60">
         <v>60</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="60">
         <v>16.168478</v>
       </c>
-      <c r="L31" s="59">
+      <c r="L31" s="84">
         <v>40</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="60">
         <v>8.953706</v>
       </c>
-      <c r="N31" s="34">
-        <v>6</v>
-      </c>
-      <c r="O31" s="35">
-        <v>0</v>
-      </c>
-      <c r="P31" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="54">
+      <c r="N31" s="60">
+        <v>6</v>
+      </c>
+      <c r="O31" s="61">
+        <v>0</v>
+      </c>
+      <c r="P31" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="80">
         <v>-21.971618</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP31" s="72"/>
+      <c r="AP31" s="97"/>
     </row>
     <row r="32" spans="1:42">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69">
         <v>25</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="59">
         <v>188.99558</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="60">
         <v>244.481508</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="60">
         <v>986.552708</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="60">
         <v>273.888179</v>
       </c>
-      <c r="G32" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H32" s="34">
-        <v>6</v>
-      </c>
-      <c r="I32" s="34">
+      <c r="G32" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H32" s="60">
+        <v>6</v>
+      </c>
+      <c r="I32" s="60">
         <v>10.948316</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="60">
         <v>60</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="60">
         <v>16.442545</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="84">
         <v>40</v>
       </c>
-      <c r="M32" s="34">
+      <c r="M32" s="60">
         <v>9.105478</v>
       </c>
-      <c r="N32" s="34">
-        <v>6</v>
-      </c>
-      <c r="O32" s="35">
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="54">
+      <c r="N32" s="60">
+        <v>6</v>
+      </c>
+      <c r="O32" s="61">
+        <v>0</v>
+      </c>
+      <c r="P32" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="80">
         <v>-17.496339</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP32" s="72"/>
+      <c r="AP32" s="97"/>
     </row>
     <row r="33" spans="1:42">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69">
         <v>30</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="59">
         <v>219.478738</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="60">
         <v>282.585455</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="60">
         <v>1003.088584</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="60">
         <v>276.383954</v>
       </c>
-      <c r="G33" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H33" s="34">
-        <v>6</v>
-      </c>
-      <c r="I33" s="34">
+      <c r="G33" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H33" s="60">
+        <v>6</v>
+      </c>
+      <c r="I33" s="60">
         <v>11.048081</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="60">
         <v>60</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="60">
         <v>16.718143</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="84">
         <v>40</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="60">
         <v>9.258097</v>
       </c>
-      <c r="N33" s="34">
-        <v>6</v>
-      </c>
-      <c r="O33" s="35">
-        <v>0</v>
-      </c>
-      <c r="P33" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="54">
+      <c r="N33" s="60">
+        <v>6</v>
+      </c>
+      <c r="O33" s="61">
+        <v>0</v>
+      </c>
+      <c r="P33" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="80">
         <v>-13.024322</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP33" s="72"/>
+      <c r="AP33" s="97"/>
     </row>
     <row r="34" spans="1:42">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43">
+      <c r="A34" s="68"/>
+      <c r="B34" s="69">
         <v>35</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="59">
         <v>249.961896</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="60">
         <v>320.689403</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="60">
         <v>1019.715828</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="60">
         <v>278.901791</v>
       </c>
-      <c r="G34" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H34" s="34">
-        <v>6</v>
-      </c>
-      <c r="I34" s="34">
+      <c r="G34" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H34" s="60">
+        <v>6</v>
+      </c>
+      <c r="I34" s="60">
         <v>11.148728</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="60">
         <v>60</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="60">
         <v>16.995264</v>
       </c>
-      <c r="L34" s="59">
+      <c r="L34" s="84">
         <v>40</v>
       </c>
-      <c r="M34" s="34">
+      <c r="M34" s="60">
         <v>9.41156</v>
       </c>
-      <c r="N34" s="34">
-        <v>6</v>
-      </c>
-      <c r="O34" s="35">
-        <v>0</v>
-      </c>
-      <c r="P34" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="54">
+      <c r="N34" s="60">
+        <v>6</v>
+      </c>
+      <c r="O34" s="61">
+        <v>0</v>
+      </c>
+      <c r="P34" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="80">
         <v>-8.555552</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP34" s="72"/>
+      <c r="AP34" s="97"/>
     </row>
     <row r="35" spans="1:42">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43">
+      <c r="A35" s="68"/>
+      <c r="B35" s="69">
         <v>40</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="59">
         <v>280.445054</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="60">
         <v>358.79335</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="60">
         <v>1036.433943</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="60">
         <v>281.441692</v>
       </c>
-      <c r="G35" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H35" s="34">
-        <v>6</v>
-      </c>
-      <c r="I35" s="34">
+      <c r="G35" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H35" s="60">
+        <v>6</v>
+      </c>
+      <c r="I35" s="60">
         <v>11.250258</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="60">
         <v>60</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="60">
         <v>17.273899</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="84">
         <v>40</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="60">
         <v>9.565861</v>
       </c>
-      <c r="N35" s="34">
-        <v>6</v>
-      </c>
-      <c r="O35" s="35">
-        <v>0</v>
-      </c>
-      <c r="P35" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="54">
+      <c r="N35" s="60">
+        <v>6</v>
+      </c>
+      <c r="O35" s="61">
+        <v>0</v>
+      </c>
+      <c r="P35" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="80">
         <v>-4.090018</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP35" s="72"/>
+      <c r="AP35" s="97"/>
     </row>
     <row r="36" spans="1:42">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43">
+      <c r="A36" s="68"/>
+      <c r="B36" s="69">
         <v>45</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="59">
         <v>310.928212</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="60">
         <v>396.897298</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="60">
         <v>1053.242435</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="60">
         <v>284.003655</v>
       </c>
-      <c r="G36" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H36" s="34">
-        <v>6</v>
-      </c>
-      <c r="I36" s="34">
+      <c r="G36" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H36" s="60">
+        <v>6</v>
+      </c>
+      <c r="I36" s="60">
         <v>11.352669</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="60">
         <v>60</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="60">
         <v>17.554041</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="84">
         <v>40</v>
       </c>
-      <c r="M36" s="34">
+      <c r="M36" s="60">
         <v>9.720997</v>
       </c>
-      <c r="N36" s="34">
-        <v>6</v>
-      </c>
-      <c r="O36" s="35">
+      <c r="N36" s="60">
+        <v>6</v>
+      </c>
+      <c r="O36" s="61">
         <v>1.272507</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P36" s="61">
         <v>1</v>
       </c>
-      <c r="Q36" s="54">
+      <c r="Q36" s="80">
         <v>0.372294</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP36" s="72"/>
+      <c r="AP36" s="97"/>
     </row>
     <row r="37" spans="1:42">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71">
         <v>50</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="64">
         <v>341.41137</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="65">
         <v>435.001245</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="65">
         <v>1070.140822</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="65">
         <v>286.58768</v>
       </c>
-      <c r="G37" s="39">
-        <v>143.905216</v>
-      </c>
-      <c r="H37" s="39">
-        <v>6</v>
-      </c>
-      <c r="I37" s="39">
+      <c r="G37" s="65">
+        <v>143.905216</v>
+      </c>
+      <c r="H37" s="65">
+        <v>6</v>
+      </c>
+      <c r="I37" s="65">
         <v>11.455962</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="65">
         <v>60</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="65">
         <v>17.83568</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="13">
         <v>40</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="65">
         <v>9.876962</v>
       </c>
-      <c r="N37" s="39">
-        <v>6</v>
-      </c>
-      <c r="O37" s="39">
+      <c r="N37" s="65">
+        <v>6</v>
+      </c>
+      <c r="O37" s="65">
         <v>16.253025</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="65">
         <v>1</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="44">
         <v>4.831396</v>
       </c>
-      <c r="R37" s="67" t="s">
+      <c r="R37" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AP37" s="72"/>
+      <c r="AP37" s="97"/>
     </row>
     <row r="38" spans="3:42">
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="AP38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="AP38" s="97"/>
     </row>
     <row r="39" spans="3:42">
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="AP39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="AP39" s="97"/>
     </row>
     <row r="40" spans="1:42">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="AP40" s="72"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="AP40" s="97"/>
     </row>
     <row r="41" ht="60" customHeight="1" spans="1:42">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K41" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="28" t="s">
+      <c r="M41" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N41" s="28" t="s">
+      <c r="N41" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O41" s="28" t="s">
+      <c r="O41" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="28" t="s">
+      <c r="P41" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Q41" s="28" t="s">
+      <c r="Q41" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R41" s="27" t="s">
+      <c r="R41" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AP41" s="72"/>
+      <c r="AP41" s="97"/>
     </row>
     <row r="42" spans="1:42">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="56">
         <v>5</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="57">
         <v>67.062948</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="58">
         <v>104.76516</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="58">
         <v>584.512304</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="58">
         <v>174.229275</v>
       </c>
-      <c r="G42" s="32">
-        <v>143.905216</v>
-      </c>
-      <c r="H42" s="32">
-        <v>6</v>
-      </c>
-      <c r="I42" s="32">
+      <c r="G42" s="58">
+        <v>143.905216</v>
+      </c>
+      <c r="H42" s="58">
+        <v>6</v>
+      </c>
+      <c r="I42" s="58">
         <v>6.964584</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J42" s="58">
         <v>60</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="58">
         <v>9.741872</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="83">
         <v>20</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="58">
         <v>2.644511</v>
       </c>
-      <c r="N42" s="32">
-        <v>6</v>
-      </c>
-      <c r="O42" s="32">
-        <v>0</v>
-      </c>
-      <c r="P42" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="65">
+      <c r="N42" s="58">
+        <v>6</v>
+      </c>
+      <c r="O42" s="58">
+        <v>0</v>
+      </c>
+      <c r="P42" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="90">
         <v>-20.350967</v>
       </c>
-      <c r="R42" s="66" t="s">
+      <c r="R42" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="AP42" s="72"/>
+      <c r="AP42" s="97"/>
     </row>
     <row r="43" spans="1:42">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30">
+      <c r="A43" s="55"/>
+      <c r="B43" s="56">
         <v>10</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="59">
         <v>97.546106</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="60">
         <v>142.869108</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="60">
         <v>597.879387</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="60">
         <v>177.202673</v>
       </c>
-      <c r="G43" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H43" s="34">
-        <v>6</v>
-      </c>
-      <c r="I43" s="34">
+      <c r="G43" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H43" s="60">
+        <v>6</v>
+      </c>
+      <c r="I43" s="60">
         <v>7.083441</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="60">
         <v>60</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="60">
         <v>9.964656</v>
       </c>
-      <c r="L43" s="59">
+      <c r="L43" s="84">
         <v>20</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="60">
         <v>2.704988</v>
       </c>
-      <c r="N43" s="34">
-        <v>6</v>
-      </c>
-      <c r="O43" s="35">
-        <v>0</v>
-      </c>
-      <c r="P43" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="54">
+      <c r="N43" s="60">
+        <v>6</v>
+      </c>
+      <c r="O43" s="61">
+        <v>0</v>
+      </c>
+      <c r="P43" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="80">
         <v>-15.753086</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP43" s="72"/>
+      <c r="AP43" s="97"/>
     </row>
     <row r="44" spans="1:42">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30">
+      <c r="A44" s="55"/>
+      <c r="B44" s="56">
         <v>15</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="59">
         <v>128.029264</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="60">
         <v>180.973055</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="60">
         <v>611.346842</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="60">
         <v>180.214016</v>
       </c>
-      <c r="G44" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H44" s="34">
-        <v>6</v>
-      </c>
-      <c r="I44" s="34">
+      <c r="G44" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H44" s="60">
+        <v>6</v>
+      </c>
+      <c r="I44" s="60">
         <v>7.203816</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="60">
         <v>60</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="60">
         <v>10.189114</v>
       </c>
-      <c r="L44" s="59">
+      <c r="L44" s="84">
         <v>20</v>
       </c>
-      <c r="M44" s="34">
+      <c r="M44" s="60">
         <v>2.765919</v>
       </c>
-      <c r="N44" s="34">
-        <v>6</v>
-      </c>
-      <c r="O44" s="35">
-        <v>0</v>
-      </c>
-      <c r="P44" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="54">
+      <c r="N44" s="60">
+        <v>6</v>
+      </c>
+      <c r="O44" s="61">
+        <v>0</v>
+      </c>
+      <c r="P44" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="80">
         <v>-11.158849</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP44" s="72"/>
+      <c r="AP44" s="97"/>
     </row>
     <row r="45" spans="1:42">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30">
+      <c r="A45" s="55"/>
+      <c r="B45" s="56">
         <v>20</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="59">
         <v>158.512422</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="60">
         <v>219.077003</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="60">
         <v>624.913925</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="60">
         <v>183.263304</v>
       </c>
-      <c r="G45" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H45" s="34">
-        <v>6</v>
-      </c>
-      <c r="I45" s="34">
+      <c r="G45" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H45" s="60">
+        <v>6</v>
+      </c>
+      <c r="I45" s="60">
         <v>7.325707</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="60">
         <v>60</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="60">
         <v>10.415232</v>
       </c>
-      <c r="L45" s="59">
+      <c r="L45" s="84">
         <v>20</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M45" s="60">
         <v>2.8273</v>
       </c>
-      <c r="N45" s="34">
-        <v>6</v>
-      </c>
-      <c r="O45" s="35">
-        <v>0</v>
-      </c>
-      <c r="P45" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="54">
+      <c r="N45" s="60">
+        <v>6</v>
+      </c>
+      <c r="O45" s="61">
+        <v>0</v>
+      </c>
+      <c r="P45" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="80">
         <v>-6.56824</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP45" s="72"/>
+      <c r="AP45" s="97"/>
     </row>
     <row r="46" spans="1:42">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30">
+      <c r="A46" s="55"/>
+      <c r="B46" s="56">
         <v>25</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="59">
         <v>188.99558</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="60">
         <v>257.18095</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="60">
         <v>638.57991</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="60">
         <v>186.350537</v>
       </c>
-      <c r="G46" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H46" s="34">
-        <v>6</v>
-      </c>
-      <c r="I46" s="34">
+      <c r="G46" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H46" s="60">
+        <v>6</v>
+      </c>
+      <c r="I46" s="60">
         <v>7.449115</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="60">
         <v>60</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="60">
         <v>10.642999</v>
       </c>
-      <c r="L46" s="59">
+      <c r="L46" s="84">
         <v>20</v>
       </c>
-      <c r="M46" s="34">
+      <c r="M46" s="60">
         <v>2.88913</v>
       </c>
-      <c r="N46" s="34">
-        <v>6</v>
-      </c>
-      <c r="O46" s="35">
-        <v>0</v>
-      </c>
-      <c r="P46" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="54">
+      <c r="N46" s="60">
+        <v>6</v>
+      </c>
+      <c r="O46" s="61">
+        <v>0</v>
+      </c>
+      <c r="P46" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="80">
         <v>-1.981243</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP46" s="72"/>
+      <c r="AP46" s="97"/>
     </row>
     <row r="47" spans="1:42">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30">
+      <c r="A47" s="55"/>
+      <c r="B47" s="56">
         <v>30</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="59">
         <v>219.478738</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="60">
         <v>295.284898</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="60">
         <v>652.344086</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="60">
         <v>189.475716</v>
       </c>
-      <c r="G47" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H47" s="34">
-        <v>6</v>
-      </c>
-      <c r="I47" s="34">
+      <c r="G47" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H47" s="60">
+        <v>6</v>
+      </c>
+      <c r="I47" s="60">
         <v>7.57404</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="60">
         <v>60</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="60">
         <v>10.872401</v>
       </c>
-      <c r="L47" s="59">
+      <c r="L47" s="84">
         <v>20</v>
       </c>
-      <c r="M47" s="34">
+      <c r="M47" s="60">
         <v>2.951403</v>
       </c>
-      <c r="N47" s="34">
-        <v>6</v>
-      </c>
-      <c r="O47" s="35">
+      <c r="N47" s="60">
+        <v>6</v>
+      </c>
+      <c r="O47" s="61">
         <v>14.360153</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P47" s="61">
         <v>1</v>
       </c>
-      <c r="Q47" s="54">
+      <c r="Q47" s="80">
         <v>2.602156</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP47" s="72"/>
+      <c r="AP47" s="97"/>
     </row>
     <row r="48" spans="1:42">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30">
+      <c r="A48" s="55"/>
+      <c r="B48" s="56">
         <v>35</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="59">
         <v>249.961896</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="60">
         <v>333.388845</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="60">
         <v>666.205758</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="60">
         <v>192.63884</v>
       </c>
-      <c r="G48" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H48" s="34">
-        <v>6</v>
-      </c>
-      <c r="I48" s="34">
+      <c r="G48" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H48" s="60">
+        <v>6</v>
+      </c>
+      <c r="I48" s="60">
         <v>7.700482</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="60">
         <v>60</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="60">
         <v>11.103429</v>
       </c>
-      <c r="L48" s="59">
+      <c r="L48" s="84">
         <v>20</v>
       </c>
-      <c r="M48" s="34">
+      <c r="M48" s="60">
         <v>3.014117</v>
       </c>
-      <c r="N48" s="34">
-        <v>6</v>
-      </c>
-      <c r="O48" s="35">
+      <c r="N48" s="60">
+        <v>6</v>
+      </c>
+      <c r="O48" s="61">
         <v>38.809479</v>
       </c>
-      <c r="P48" s="35">
+      <c r="P48" s="61">
         <v>1</v>
       </c>
-      <c r="Q48" s="54">
+      <c r="Q48" s="80">
         <v>7.181972</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP48" s="72"/>
+      <c r="AP48" s="97"/>
     </row>
     <row r="49" spans="1:42">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30">
+      <c r="A49" s="55"/>
+      <c r="B49" s="56">
         <v>40</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="59">
         <v>280.445054</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="60">
         <v>371.492793</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="60">
         <v>680.164245</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="60">
         <v>195.839909</v>
       </c>
-      <c r="G49" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H49" s="34">
-        <v>6</v>
-      </c>
-      <c r="I49" s="34">
+      <c r="G49" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H49" s="60">
+        <v>6</v>
+      </c>
+      <c r="I49" s="60">
         <v>7.82844</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="60">
         <v>60</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="60">
         <v>11.336071</v>
       </c>
-      <c r="L49" s="59">
+      <c r="L49" s="84">
         <v>20</v>
       </c>
-      <c r="M49" s="34">
+      <c r="M49" s="60">
         <v>3.07727</v>
       </c>
-      <c r="N49" s="34">
-        <v>6</v>
-      </c>
-      <c r="O49" s="35">
+      <c r="N49" s="60">
+        <v>6</v>
+      </c>
+      <c r="O49" s="61">
         <v>62.234365</v>
       </c>
-      <c r="P49" s="35">
+      <c r="P49" s="61">
         <v>1</v>
       </c>
-      <c r="Q49" s="54">
+      <c r="Q49" s="80">
         <v>11.758219</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP49" s="72"/>
+      <c r="AP49" s="97"/>
     </row>
     <row r="50" spans="1:42">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30">
+      <c r="A50" s="55"/>
+      <c r="B50" s="56">
         <v>45</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="59">
         <v>310.928212</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="60">
         <v>409.596741</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="60">
         <v>694.21888</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="60">
         <v>199.078923</v>
       </c>
-      <c r="G50" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H50" s="34">
-        <v>6</v>
-      </c>
-      <c r="I50" s="34">
+      <c r="G50" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H50" s="60">
+        <v>6</v>
+      </c>
+      <c r="I50" s="60">
         <v>7.957915</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="60">
         <v>60</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="60">
         <v>11.570315</v>
       </c>
-      <c r="L50" s="59">
+      <c r="L50" s="84">
         <v>20</v>
       </c>
-      <c r="M50" s="34">
+      <c r="M50" s="60">
         <v>3.140857</v>
       </c>
-      <c r="N50" s="34">
-        <v>6</v>
-      </c>
-      <c r="O50" s="35">
+      <c r="N50" s="60">
+        <v>6</v>
+      </c>
+      <c r="O50" s="61">
         <v>84.686959</v>
       </c>
-      <c r="P50" s="35">
+      <c r="P50" s="61">
         <v>1</v>
       </c>
-      <c r="Q50" s="54">
+      <c r="Q50" s="80">
         <v>16.330913</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP50" s="72"/>
+      <c r="AP50" s="97"/>
     </row>
     <row r="51" spans="1:42">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37">
+      <c r="A51" s="62"/>
+      <c r="B51" s="63">
         <v>50</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="64">
         <v>341.41137</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="65">
         <v>447.700688</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="65">
         <v>708.36901</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F51" s="65">
         <v>202.355883</v>
       </c>
-      <c r="G51" s="39">
-        <v>143.905216</v>
-      </c>
-      <c r="H51" s="39">
-        <v>6</v>
-      </c>
-      <c r="I51" s="39">
+      <c r="G51" s="65">
+        <v>143.905216</v>
+      </c>
+      <c r="H51" s="65">
+        <v>6</v>
+      </c>
+      <c r="I51" s="65">
         <v>8.088908</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J51" s="65">
         <v>60</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="65">
         <v>11.80615</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="13">
         <v>20</v>
       </c>
-      <c r="M51" s="39">
+      <c r="M51" s="65">
         <v>3.204877</v>
       </c>
-      <c r="N51" s="39">
-        <v>6</v>
-      </c>
-      <c r="O51" s="39">
+      <c r="N51" s="65">
+        <v>6</v>
+      </c>
+      <c r="O51" s="65">
         <v>106.21616</v>
       </c>
-      <c r="P51" s="39">
+      <c r="P51" s="65">
         <v>1</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q51" s="44">
         <v>20.900066</v>
       </c>
-      <c r="R51" s="67" t="s">
+      <c r="R51" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AP51" s="72"/>
+      <c r="AP51" s="97"/>
     </row>
     <row r="52" spans="1:42">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="67">
         <v>5</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="74">
         <v>67.062948</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="75">
         <v>105.22381</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="75">
         <v>584.672601</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="75">
         <v>173.649614</v>
       </c>
-      <c r="G52" s="49">
-        <v>143.905216</v>
-      </c>
-      <c r="H52" s="49">
-        <v>6</v>
-      </c>
-      <c r="I52" s="49">
+      <c r="G52" s="75">
+        <v>143.905216</v>
+      </c>
+      <c r="H52" s="75">
+        <v>6</v>
+      </c>
+      <c r="I52" s="75">
         <v>6.941413</v>
       </c>
-      <c r="J52" s="49">
+      <c r="J52" s="75">
         <v>60</v>
       </c>
-      <c r="K52" s="49">
+      <c r="K52" s="75">
         <v>9.744543</v>
       </c>
-      <c r="L52" s="60">
+      <c r="L52" s="85">
         <v>40</v>
       </c>
-      <c r="M52" s="49">
+      <c r="M52" s="75">
         <v>5.396289</v>
       </c>
-      <c r="N52" s="49">
-        <v>6</v>
-      </c>
-      <c r="O52" s="49">
-        <v>0</v>
-      </c>
-      <c r="P52" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="49">
+      <c r="N52" s="75">
+        <v>6</v>
+      </c>
+      <c r="O52" s="75">
+        <v>0</v>
+      </c>
+      <c r="P52" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="75">
         <v>-23.082245</v>
       </c>
-      <c r="R52" s="68" t="s">
+      <c r="R52" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="AP52" s="72"/>
+      <c r="AP52" s="97"/>
     </row>
     <row r="53" spans="1:42">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43">
+      <c r="A53" s="68"/>
+      <c r="B53" s="69">
         <v>10</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="76">
         <v>97.546106</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="77">
         <v>143.327758</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="77">
         <v>598.040897</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="77">
         <v>176.710611</v>
       </c>
-      <c r="G53" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H53" s="51">
-        <v>6</v>
-      </c>
-      <c r="I53" s="51">
+      <c r="G53" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H53" s="77">
+        <v>6</v>
+      </c>
+      <c r="I53" s="77">
         <v>7.063772</v>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="77">
         <v>60</v>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="77">
         <v>9.967348</v>
       </c>
-      <c r="L53" s="61">
+      <c r="L53" s="86">
         <v>40</v>
       </c>
-      <c r="M53" s="51">
+      <c r="M53" s="77">
         <v>5.519673</v>
       </c>
-      <c r="N53" s="51">
-        <v>6</v>
-      </c>
-      <c r="O53" s="62">
-        <v>0</v>
-      </c>
-      <c r="P53" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="62">
+      <c r="N53" s="77">
+        <v>6</v>
+      </c>
+      <c r="O53" s="87">
+        <v>0</v>
+      </c>
+      <c r="P53" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="87">
         <v>-18.550793</v>
       </c>
-      <c r="R53" s="69" t="s">
+      <c r="R53" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP53" s="72"/>
+      <c r="AP53" s="97"/>
     </row>
     <row r="54" spans="1:42">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43">
+      <c r="A54" s="68"/>
+      <c r="B54" s="69">
         <v>15</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="76">
         <v>128.029264</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="77">
         <v>181.431705</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="77">
         <v>611.509556</v>
       </c>
-      <c r="F54" s="51">
+      <c r="F54" s="77">
         <v>179.811188</v>
       </c>
-      <c r="G54" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H54" s="51">
-        <v>6</v>
-      </c>
-      <c r="I54" s="51">
+      <c r="G54" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H54" s="77">
+        <v>6</v>
+      </c>
+      <c r="I54" s="77">
         <v>7.187713</v>
       </c>
-      <c r="J54" s="51">
+      <c r="J54" s="77">
         <v>60</v>
       </c>
-      <c r="K54" s="51">
+      <c r="K54" s="77">
         <v>10.191826</v>
       </c>
-      <c r="L54" s="61">
+      <c r="L54" s="86">
         <v>40</v>
       </c>
-      <c r="M54" s="51">
+      <c r="M54" s="77">
         <v>5.643983</v>
       </c>
-      <c r="N54" s="51">
-        <v>6</v>
-      </c>
-      <c r="O54" s="62">
-        <v>0</v>
-      </c>
-      <c r="P54" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="62">
+      <c r="N54" s="77">
+        <v>6</v>
+      </c>
+      <c r="O54" s="87">
+        <v>0</v>
+      </c>
+      <c r="P54" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="87">
         <v>-14.023522</v>
       </c>
-      <c r="R54" s="69" t="s">
+      <c r="R54" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP54" s="72"/>
+      <c r="AP54" s="97"/>
     </row>
     <row r="55" spans="1:42">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43">
+      <c r="A55" s="68"/>
+      <c r="B55" s="69">
         <v>20</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="76">
         <v>158.512422</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="77">
         <v>219.535653</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="77">
         <v>625.077833</v>
       </c>
-      <c r="F55" s="51">
+      <c r="F55" s="77">
         <v>182.951346</v>
       </c>
-      <c r="G55" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H55" s="51">
-        <v>6</v>
-      </c>
-      <c r="I55" s="51">
+      <c r="G55" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H55" s="77">
+        <v>6</v>
+      </c>
+      <c r="I55" s="77">
         <v>7.313237</v>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="77">
         <v>60</v>
       </c>
-      <c r="K55" s="51">
+      <c r="K55" s="77">
         <v>10.417964</v>
       </c>
-      <c r="L55" s="61">
+      <c r="L55" s="86">
         <v>40</v>
       </c>
-      <c r="M55" s="51">
+      <c r="M55" s="77">
         <v>5.769213</v>
       </c>
-      <c r="N55" s="51">
-        <v>6</v>
-      </c>
-      <c r="O55" s="62">
-        <v>0</v>
-      </c>
-      <c r="P55" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="62">
+      <c r="N55" s="77">
+        <v>6</v>
+      </c>
+      <c r="O55" s="87">
+        <v>0</v>
+      </c>
+      <c r="P55" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="87">
         <v>-9.500413</v>
       </c>
-      <c r="R55" s="69" t="s">
+      <c r="R55" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP55" s="72"/>
+      <c r="AP55" s="97"/>
     </row>
     <row r="56" spans="1:42">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43">
+      <c r="A56" s="68"/>
+      <c r="B56" s="69">
         <v>25</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="76">
         <v>188.99558</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="77">
         <v>257.6396</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="77">
         <v>638.745004</v>
       </c>
-      <c r="F56" s="51">
+      <c r="F56" s="77">
         <v>186.131084</v>
       </c>
-      <c r="G56" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H56" s="51">
-        <v>6</v>
-      </c>
-      <c r="I56" s="51">
+      <c r="G56" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H56" s="77">
+        <v>6</v>
+      </c>
+      <c r="I56" s="77">
         <v>7.440343</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="77">
         <v>60</v>
       </c>
-      <c r="K56" s="51">
+      <c r="K56" s="77">
         <v>10.64575</v>
       </c>
-      <c r="L56" s="61">
+      <c r="L56" s="86">
         <v>40</v>
       </c>
-      <c r="M56" s="51">
+      <c r="M56" s="77">
         <v>5.895355</v>
       </c>
-      <c r="N56" s="51">
-        <v>6</v>
-      </c>
-      <c r="O56" s="62">
-        <v>0</v>
-      </c>
-      <c r="P56" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="62">
+      <c r="N56" s="77">
+        <v>6</v>
+      </c>
+      <c r="O56" s="87">
+        <v>0</v>
+      </c>
+      <c r="P56" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="87">
         <v>-4.981448</v>
       </c>
-      <c r="R56" s="69" t="s">
+      <c r="R56" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP56" s="72"/>
+      <c r="AP56" s="97"/>
     </row>
     <row r="57" spans="1:42">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43">
+      <c r="A57" s="68"/>
+      <c r="B57" s="69">
         <v>30</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="76">
         <v>219.478738</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="77">
         <v>295.743548</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="77">
         <v>652.510358</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="77">
         <v>189.350403</v>
       </c>
-      <c r="G57" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H57" s="51">
-        <v>6</v>
-      </c>
-      <c r="I57" s="51">
+      <c r="G57" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H57" s="77">
+        <v>6</v>
+      </c>
+      <c r="I57" s="77">
         <v>7.569031</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="77">
         <v>60</v>
       </c>
-      <c r="K57" s="51">
+      <c r="K57" s="77">
         <v>10.875173</v>
       </c>
-      <c r="L57" s="61">
+      <c r="L57" s="86">
         <v>40</v>
       </c>
-      <c r="M57" s="51">
+      <c r="M57" s="77">
         <v>6.022404</v>
       </c>
-      <c r="N57" s="51">
-        <v>6</v>
-      </c>
-      <c r="O57" s="62">
-        <v>0</v>
-      </c>
-      <c r="P57" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="62">
+      <c r="N57" s="77">
+        <v>6</v>
+      </c>
+      <c r="O57" s="87">
+        <v>0</v>
+      </c>
+      <c r="P57" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="87">
         <v>-0.466607</v>
       </c>
-      <c r="R57" s="69" t="s">
+      <c r="R57" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP57" s="72"/>
+      <c r="AP57" s="97"/>
     </row>
     <row r="58" spans="1:42">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43">
+      <c r="A58" s="68"/>
+      <c r="B58" s="69">
         <v>35</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="76">
         <v>249.961896</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="77">
         <v>333.847495</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="77">
         <v>666.3732</v>
       </c>
-      <c r="F58" s="51">
+      <c r="F58" s="77">
         <v>192.609301</v>
       </c>
-      <c r="G58" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H58" s="51">
-        <v>6</v>
-      </c>
-      <c r="I58" s="51">
+      <c r="G58" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H58" s="77">
+        <v>6</v>
+      </c>
+      <c r="I58" s="77">
         <v>7.699301</v>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="77">
         <v>60</v>
       </c>
-      <c r="K58" s="51">
+      <c r="K58" s="77">
         <v>11.10622</v>
       </c>
-      <c r="L58" s="61">
+      <c r="L58" s="86">
         <v>40</v>
       </c>
-      <c r="M58" s="51">
+      <c r="M58" s="77">
         <v>6.150352</v>
       </c>
-      <c r="N58" s="51">
-        <v>6</v>
-      </c>
-      <c r="O58" s="62">
+      <c r="N58" s="77">
+        <v>6</v>
+      </c>
+      <c r="O58" s="87">
         <v>21.847904</v>
       </c>
-      <c r="P58" s="62">
+      <c r="P58" s="87">
         <v>1</v>
       </c>
-      <c r="Q58" s="62">
+      <c r="Q58" s="87">
         <v>4.044127</v>
       </c>
-      <c r="R58" s="69" t="s">
+      <c r="R58" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AP58" s="72"/>
+      <c r="AP58" s="97"/>
     </row>
     <row r="59" spans="1:42">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43">
+      <c r="A59" s="68"/>
+      <c r="B59" s="69">
         <v>40</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="76">
         <v>280.445054</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="77">
         <v>371.951443</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="77">
         <v>680.332848</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="77">
         <v>195.90778</v>
       </c>
-      <c r="G59" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H59" s="51">
-        <v>6</v>
-      </c>
-      <c r="I59" s="51">
+      <c r="G59" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H59" s="77">
+        <v>6</v>
+      </c>
+      <c r="I59" s="77">
         <v>7.831153</v>
       </c>
-      <c r="J59" s="51">
+      <c r="J59" s="77">
         <v>60</v>
       </c>
-      <c r="K59" s="51">
+      <c r="K59" s="77">
         <v>11.338881</v>
       </c>
-      <c r="L59" s="61">
+      <c r="L59" s="86">
         <v>40</v>
       </c>
-      <c r="M59" s="51">
+      <c r="M59" s="77">
         <v>6.279194</v>
       </c>
-      <c r="N59" s="51">
-        <v>6</v>
-      </c>
-      <c r="O59" s="62">
+      <c r="N59" s="77">
+        <v>6</v>
+      </c>
+      <c r="O59" s="87">
         <v>45.246647</v>
       </c>
-      <c r="P59" s="62">
+      <c r="P59" s="87">
         <v>1</v>
       </c>
-      <c r="Q59" s="62">
+      <c r="Q59" s="87">
         <v>8.550772</v>
       </c>
-      <c r="R59" s="69" t="s">
+      <c r="R59" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AP59" s="72"/>
+      <c r="AP59" s="97"/>
     </row>
     <row r="60" spans="1:42">
-      <c r="A60" s="42"/>
-      <c r="B60" s="43">
+      <c r="A60" s="68"/>
+      <c r="B60" s="69">
         <v>45</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="76">
         <v>310.928212</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="77">
         <v>410.055391</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="77">
         <v>694.388636</v>
       </c>
-      <c r="F60" s="51">
+      <c r="F60" s="77">
         <v>199.24584</v>
       </c>
-      <c r="G60" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H60" s="51">
-        <v>6</v>
-      </c>
-      <c r="I60" s="51">
+      <c r="G60" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H60" s="77">
+        <v>6</v>
+      </c>
+      <c r="I60" s="77">
         <v>7.964588</v>
       </c>
-      <c r="J60" s="51">
+      <c r="J60" s="77">
         <v>60</v>
       </c>
-      <c r="K60" s="51">
+      <c r="K60" s="77">
         <v>11.573144</v>
       </c>
-      <c r="L60" s="61">
+      <c r="L60" s="86">
         <v>40</v>
       </c>
-      <c r="M60" s="51">
+      <c r="M60" s="77">
         <v>6.408923</v>
       </c>
-      <c r="N60" s="51">
-        <v>6</v>
-      </c>
-      <c r="O60" s="62">
+      <c r="N60" s="77">
+        <v>6</v>
+      </c>
+      <c r="O60" s="87">
         <v>67.673981</v>
       </c>
-      <c r="P60" s="62">
+      <c r="P60" s="87">
         <v>1</v>
       </c>
-      <c r="Q60" s="62">
+      <c r="Q60" s="87">
         <v>13.053345</v>
       </c>
-      <c r="R60" s="69" t="s">
+      <c r="R60" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AP60" s="72"/>
+      <c r="AP60" s="97"/>
     </row>
     <row r="61" spans="1:42">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45">
+      <c r="A61" s="70"/>
+      <c r="B61" s="71">
         <v>50</v>
       </c>
-      <c r="C61" s="52">
+      <c r="C61" s="78">
         <v>341.41137</v>
       </c>
-      <c r="D61" s="53">
+      <c r="D61" s="79">
         <v>448.159338</v>
       </c>
-      <c r="E61" s="53">
+      <c r="E61" s="79">
         <v>708.539911</v>
       </c>
-      <c r="F61" s="53">
+      <c r="F61" s="79">
         <v>202.623479</v>
       </c>
-      <c r="G61" s="53">
-        <v>143.905216</v>
-      </c>
-      <c r="H61" s="53">
-        <v>6</v>
-      </c>
-      <c r="I61" s="53">
+      <c r="G61" s="79">
+        <v>143.905216</v>
+      </c>
+      <c r="H61" s="79">
+        <v>6</v>
+      </c>
+      <c r="I61" s="79">
         <v>8.099604</v>
       </c>
-      <c r="J61" s="53">
+      <c r="J61" s="79">
         <v>60</v>
       </c>
-      <c r="K61" s="53">
+      <c r="K61" s="79">
         <v>11.808999</v>
       </c>
-      <c r="L61" s="63">
+      <c r="L61" s="88">
         <v>40</v>
       </c>
-      <c r="M61" s="53">
+      <c r="M61" s="79">
         <v>6.539533</v>
       </c>
-      <c r="N61" s="53">
-        <v>6</v>
-      </c>
-      <c r="O61" s="53">
+      <c r="N61" s="79">
+        <v>6</v>
+      </c>
+      <c r="O61" s="79">
         <v>89.178758</v>
       </c>
-      <c r="P61" s="53">
+      <c r="P61" s="79">
         <v>1</v>
       </c>
-      <c r="Q61" s="53">
+      <c r="Q61" s="79">
         <v>17.551864</v>
       </c>
-      <c r="R61" s="70" t="s">
+      <c r="R61" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AP61" s="72"/>
+      <c r="AP61" s="97"/>
     </row>
     <row r="62" spans="3:42">
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="AP62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="AP62" s="97"/>
     </row>
     <row r="63" spans="3:42">
-      <c r="C63" s="46"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="AP63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="AP63" s="97"/>
     </row>
     <row r="64" spans="1:42">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="AP64" s="72"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="AP64" s="97"/>
     </row>
     <row r="65" ht="60" customHeight="1" spans="1:42">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="28" t="s">
+      <c r="G65" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="28" t="s">
+      <c r="I65" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="J65" s="28" t="s">
+      <c r="J65" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K65" s="28" t="s">
+      <c r="K65" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L65" s="28" t="s">
+      <c r="L65" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="28" t="s">
+      <c r="M65" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O65" s="28" t="s">
+      <c r="O65" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="P65" s="28" t="s">
+      <c r="P65" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Q65" s="28" t="s">
+      <c r="Q65" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R65" s="27" t="s">
+      <c r="R65" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AP65" s="72"/>
+      <c r="AP65" s="97"/>
     </row>
     <row r="66" spans="1:42">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="56">
         <v>5</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="57">
         <v>67.062948</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="58">
         <v>105.941923</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="58">
         <v>682.028749</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="58">
         <v>303.088317</v>
       </c>
-      <c r="G66" s="32">
-        <v>143.905216</v>
-      </c>
-      <c r="H66" s="32">
-        <v>6</v>
-      </c>
-      <c r="I66" s="32">
+      <c r="G66" s="58">
+        <v>143.905216</v>
+      </c>
+      <c r="H66" s="58">
+        <v>6</v>
+      </c>
+      <c r="I66" s="58">
         <v>12.115553</v>
       </c>
-      <c r="J66" s="32">
+      <c r="J66" s="58">
         <v>60</v>
       </c>
-      <c r="K66" s="32">
+      <c r="K66" s="58">
         <v>11.367146</v>
       </c>
-      <c r="L66" s="58">
+      <c r="L66" s="83">
         <v>20</v>
       </c>
-      <c r="M66" s="32">
+      <c r="M66" s="58">
         <v>3.085705</v>
       </c>
-      <c r="N66" s="32">
-        <v>6</v>
-      </c>
-      <c r="O66" s="32">
-        <v>0</v>
-      </c>
-      <c r="P66" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="65">
+      <c r="N66" s="58">
+        <v>6</v>
+      </c>
+      <c r="O66" s="58">
+        <v>0</v>
+      </c>
+      <c r="P66" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="90">
         <v>-27.568404</v>
       </c>
-      <c r="R66" s="66" t="s">
+      <c r="R66" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="AP66" s="72"/>
+      <c r="AP66" s="97"/>
     </row>
     <row r="67" spans="1:42">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30">
+      <c r="A67" s="55"/>
+      <c r="B67" s="56">
         <v>10</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="59">
         <v>97.546106</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D67" s="60">
         <v>144.04587</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="60">
         <v>693.339481</v>
       </c>
-      <c r="F67" s="34">
+      <c r="F67" s="60">
         <v>305.948376</v>
       </c>
-      <c r="G67" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H67" s="34">
-        <v>6</v>
-      </c>
-      <c r="I67" s="34">
+      <c r="G67" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H67" s="60">
+        <v>6</v>
+      </c>
+      <c r="I67" s="60">
         <v>12.22988</v>
       </c>
-      <c r="J67" s="34">
+      <c r="J67" s="60">
         <v>60</v>
       </c>
-      <c r="K67" s="34">
+      <c r="K67" s="60">
         <v>11.555658</v>
       </c>
-      <c r="L67" s="59">
+      <c r="L67" s="84">
         <v>20</v>
       </c>
-      <c r="M67" s="34">
+      <c r="M67" s="60">
         <v>3.136878</v>
       </c>
-      <c r="N67" s="34">
-        <v>6</v>
-      </c>
-      <c r="O67" s="35">
-        <v>0</v>
-      </c>
-      <c r="P67" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="54">
+      <c r="N67" s="60">
+        <v>6</v>
+      </c>
+      <c r="O67" s="61">
+        <v>0</v>
+      </c>
+      <c r="P67" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="80">
         <v>-22.922416</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP67" s="72"/>
+      <c r="AP67" s="97"/>
     </row>
     <row r="68" spans="1:42">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30">
+      <c r="A68" s="55"/>
+      <c r="B68" s="56">
         <v>15</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="59">
         <v>128.029264</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="60">
         <v>182.149818</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="60">
         <v>704.712058</v>
       </c>
-      <c r="F68" s="34">
+      <c r="F68" s="60">
         <v>308.830116</v>
       </c>
-      <c r="G68" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H68" s="34">
-        <v>6</v>
-      </c>
-      <c r="I68" s="34">
+      <c r="G68" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H68" s="60">
+        <v>6</v>
+      </c>
+      <c r="I68" s="60">
         <v>12.345074</v>
       </c>
-      <c r="J68" s="34">
+      <c r="J68" s="60">
         <v>60</v>
       </c>
-      <c r="K68" s="34">
+      <c r="K68" s="60">
         <v>11.745201</v>
       </c>
-      <c r="L68" s="59">
+      <c r="L68" s="84">
         <v>20</v>
       </c>
-      <c r="M68" s="34">
+      <c r="M68" s="60">
         <v>3.188331</v>
       </c>
-      <c r="N68" s="34">
-        <v>6</v>
-      </c>
-      <c r="O68" s="35">
-        <v>0</v>
-      </c>
-      <c r="P68" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="54">
+      <c r="N68" s="60">
+        <v>6</v>
+      </c>
+      <c r="O68" s="61">
+        <v>0</v>
+      </c>
+      <c r="P68" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="80">
         <v>-18.278606</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP68" s="72"/>
+      <c r="AP68" s="97"/>
     </row>
     <row r="69" spans="1:42">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30">
+      <c r="A69" s="55"/>
+      <c r="B69" s="56">
         <v>20</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="59">
         <v>158.512422</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D69" s="60">
         <v>220.253766</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="60">
         <v>716.146142</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="60">
         <v>311.733537</v>
       </c>
-      <c r="G69" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H69" s="34">
-        <v>6</v>
-      </c>
-      <c r="I69" s="34">
+      <c r="G69" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H69" s="60">
+        <v>6</v>
+      </c>
+      <c r="I69" s="60">
         <v>12.461134</v>
       </c>
-      <c r="J69" s="34">
+      <c r="J69" s="60">
         <v>60</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="60">
         <v>11.935769</v>
       </c>
-      <c r="L69" s="59">
+      <c r="L69" s="84">
         <v>20</v>
       </c>
-      <c r="M69" s="34">
+      <c r="M69" s="60">
         <v>3.240063</v>
       </c>
-      <c r="N69" s="34">
-        <v>6</v>
-      </c>
-      <c r="O69" s="35">
-        <v>0</v>
-      </c>
-      <c r="P69" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="54">
+      <c r="N69" s="60">
+        <v>6</v>
+      </c>
+      <c r="O69" s="61">
+        <v>0</v>
+      </c>
+      <c r="P69" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="80">
         <v>-13.636966</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP69" s="72"/>
+      <c r="AP69" s="97"/>
     </row>
     <row r="70" spans="1:42">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30">
+      <c r="A70" s="55"/>
+      <c r="B70" s="56">
         <v>25</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="59">
         <v>188.99558</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="60">
         <v>258.357713</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="60">
         <v>727.641407</v>
       </c>
-      <c r="F70" s="34">
+      <c r="F70" s="60">
         <v>314.658639</v>
       </c>
-      <c r="G70" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H70" s="34">
-        <v>6</v>
-      </c>
-      <c r="I70" s="34">
+      <c r="G70" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H70" s="60">
+        <v>6</v>
+      </c>
+      <c r="I70" s="60">
         <v>12.578061</v>
       </c>
-      <c r="J70" s="34">
+      <c r="J70" s="60">
         <v>60</v>
       </c>
-      <c r="K70" s="34">
+      <c r="K70" s="60">
         <v>12.127357</v>
       </c>
-      <c r="L70" s="59">
+      <c r="L70" s="84">
         <v>20</v>
       </c>
-      <c r="M70" s="34">
+      <c r="M70" s="60">
         <v>3.292071</v>
       </c>
-      <c r="N70" s="34">
-        <v>6</v>
-      </c>
-      <c r="O70" s="35">
-        <v>0</v>
-      </c>
-      <c r="P70" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="54">
+      <c r="N70" s="60">
+        <v>6</v>
+      </c>
+      <c r="O70" s="61">
+        <v>0</v>
+      </c>
+      <c r="P70" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="80">
         <v>-8.997489</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP70" s="72"/>
+      <c r="AP70" s="97"/>
     </row>
     <row r="71" spans="1:42">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30">
+      <c r="A71" s="55"/>
+      <c r="B71" s="56">
         <v>30</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="59">
         <v>219.478738</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D71" s="60">
         <v>296.461661</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="60">
         <v>739.197528</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="60">
         <v>317.605422</v>
       </c>
-      <c r="G71" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H71" s="34">
-        <v>6</v>
-      </c>
-      <c r="I71" s="34">
+      <c r="G71" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H71" s="60">
+        <v>6</v>
+      </c>
+      <c r="I71" s="60">
         <v>12.695855</v>
       </c>
-      <c r="J71" s="34">
+      <c r="J71" s="60">
         <v>60</v>
       </c>
-      <c r="K71" s="34">
+      <c r="K71" s="60">
         <v>12.319959</v>
       </c>
-      <c r="L71" s="59">
+      <c r="L71" s="84">
         <v>20</v>
       </c>
-      <c r="M71" s="34">
+      <c r="M71" s="60">
         <v>3.344354</v>
       </c>
-      <c r="N71" s="34">
-        <v>6</v>
-      </c>
-      <c r="O71" s="35">
-        <v>0</v>
-      </c>
-      <c r="P71" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="54">
+      <c r="N71" s="60">
+        <v>6</v>
+      </c>
+      <c r="O71" s="61">
+        <v>0</v>
+      </c>
+      <c r="P71" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="80">
         <v>-4.360168</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AP71" s="72"/>
+      <c r="AP71" s="97"/>
     </row>
     <row r="72" spans="1:42">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30">
+      <c r="A72" s="55"/>
+      <c r="B72" s="56">
         <v>35</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="59">
         <v>249.961896</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D72" s="60">
         <v>334.565608</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="60">
         <v>750.814185</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F72" s="60">
         <v>320.573886</v>
       </c>
-      <c r="G72" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H72" s="34">
-        <v>6</v>
-      </c>
-      <c r="I72" s="34">
+      <c r="G72" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H72" s="60">
+        <v>6</v>
+      </c>
+      <c r="I72" s="60">
         <v>12.814515</v>
       </c>
-      <c r="J72" s="34">
+      <c r="J72" s="60">
         <v>60</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="60">
         <v>12.51357</v>
       </c>
-      <c r="L72" s="59">
+      <c r="L72" s="84">
         <v>20</v>
       </c>
-      <c r="M72" s="34">
+      <c r="M72" s="60">
         <v>3.396912</v>
       </c>
-      <c r="N72" s="34">
-        <v>6</v>
-      </c>
-      <c r="O72" s="35">
+      <c r="N72" s="60">
+        <v>6</v>
+      </c>
+      <c r="O72" s="61">
         <v>1.318586</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="61">
         <v>1</v>
       </c>
-      <c r="Q72" s="54">
+      <c r="Q72" s="80">
         <v>0.275004</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP72" s="72"/>
+      <c r="AP72" s="97"/>
     </row>
     <row r="73" spans="1:42">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30">
+      <c r="A73" s="55"/>
+      <c r="B73" s="56">
         <v>40</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="59">
         <v>280.445054</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="60">
         <v>372.669556</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="60">
         <v>762.491066</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="60">
         <v>323.56403</v>
       </c>
-      <c r="G73" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H73" s="34">
-        <v>6</v>
-      </c>
-      <c r="I73" s="34">
+      <c r="G73" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H73" s="60">
+        <v>6</v>
+      </c>
+      <c r="I73" s="60">
         <v>12.934042</v>
       </c>
-      <c r="J73" s="34">
+      <c r="J73" s="60">
         <v>60</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="60">
         <v>12.708184</v>
       </c>
-      <c r="L73" s="59">
+      <c r="L73" s="84">
         <v>20</v>
       </c>
-      <c r="M73" s="34">
+      <c r="M73" s="60">
         <v>3.449741</v>
       </c>
-      <c r="N73" s="34">
-        <v>6</v>
-      </c>
-      <c r="O73" s="35">
+      <c r="N73" s="60">
+        <v>6</v>
+      </c>
+      <c r="O73" s="61">
         <v>23.17262</v>
       </c>
-      <c r="P73" s="35">
+      <c r="P73" s="61">
         <v>1</v>
       </c>
-      <c r="Q73" s="54">
+      <c r="Q73" s="80">
         <v>4.908032</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="R73" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP73" s="72"/>
+      <c r="AP73" s="97"/>
     </row>
     <row r="74" spans="1:42">
-      <c r="A74" s="29"/>
-      <c r="B74" s="30">
+      <c r="A74" s="55"/>
+      <c r="B74" s="56">
         <v>45</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="59">
         <v>310.928212</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D74" s="60">
         <v>410.773503</v>
       </c>
-      <c r="E74" s="34">
+      <c r="E74" s="60">
         <v>774.227861</v>
       </c>
-      <c r="F74" s="34">
+      <c r="F74" s="60">
         <v>326.575856</v>
       </c>
-      <c r="G74" s="35">
-        <v>143.905216</v>
-      </c>
-      <c r="H74" s="34">
-        <v>6</v>
-      </c>
-      <c r="I74" s="34">
+      <c r="G74" s="61">
+        <v>143.905216</v>
+      </c>
+      <c r="H74" s="60">
+        <v>6</v>
+      </c>
+      <c r="I74" s="60">
         <v>13.054436</v>
       </c>
-      <c r="J74" s="34">
+      <c r="J74" s="60">
         <v>60</v>
       </c>
-      <c r="K74" s="34">
+      <c r="K74" s="60">
         <v>12.903798</v>
       </c>
-      <c r="L74" s="59">
+      <c r="L74" s="84">
         <v>20</v>
       </c>
-      <c r="M74" s="34">
+      <c r="M74" s="60">
         <v>3.502842</v>
       </c>
-      <c r="N74" s="34">
-        <v>6</v>
-      </c>
-      <c r="O74" s="35">
+      <c r="N74" s="60">
+        <v>6</v>
+      </c>
+      <c r="O74" s="61">
         <v>44.354032</v>
       </c>
-      <c r="P74" s="35">
+      <c r="P74" s="61">
         <v>1</v>
       </c>
-      <c r="Q74" s="54">
+      <c r="Q74" s="80">
         <v>9.538924</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AP74" s="72"/>
+      <c r="AP74" s="97"/>
     </row>
     <row r="75" spans="1:42">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37">
+      <c r="A75" s="62"/>
+      <c r="B75" s="63">
         <v>50</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="64">
         <v>341.41137</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D75" s="65">
         <v>448.877451</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="65">
         <v>786.024266</v>
       </c>
-      <c r="F75" s="39">
+      <c r="F75" s="65">
         <v>329.609362</v>
       </c>
-      <c r="G75" s="39">
-        <v>143.905216</v>
-      </c>
-      <c r="H75" s="39">
-        <v>6</v>
-      </c>
-      <c r="I75" s="39">
+      <c r="G75" s="65">
+        <v>143.905216</v>
+      </c>
+      <c r="H75" s="65">
+        <v>6</v>
+      </c>
+      <c r="I75" s="65">
         <v>13.175696</v>
       </c>
-      <c r="J75" s="39">
+      <c r="J75" s="65">
         <v>60</v>
       </c>
-      <c r="K75" s="39">
+      <c r="K75" s="65">
         <v>13.100404</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L75" s="13">
         <v>20</v>
       </c>
-      <c r="M75" s="39">
+      <c r="M75" s="65">
         <v>3.556213</v>
       </c>
-      <c r="N75" s="39">
-        <v>6</v>
-      </c>
-      <c r="O75" s="39">
+      <c r="N75" s="65">
+        <v>6</v>
+      </c>
+      <c r="O75" s="65">
         <v>64.888165</v>
       </c>
-      <c r="P75" s="39">
+      <c r="P75" s="65">
         <v>1</v>
       </c>
-      <c r="Q75" s="14">
+      <c r="Q75" s="44">
         <v>14.167687</v>
       </c>
-      <c r="R75" s="67" t="s">
+      <c r="R75" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="AP75" s="72"/>
+      <c r="AP75" s="97"/>
     </row>
     <row r="76" spans="1:42">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="41">
+      <c r="B76" s="67">
         <v>5</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="74">
         <v>67.062948</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="75">
         <v>106.426838</v>
       </c>
-      <c r="E76" s="49">
+      <c r="E76" s="75">
         <v>682.172301</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="75">
         <v>296.985283</v>
       </c>
-      <c r="G76" s="49">
-        <v>143.905216</v>
-      </c>
-      <c r="H76" s="49">
-        <v>6</v>
-      </c>
-      <c r="I76" s="49">
+      <c r="G76" s="75">
+        <v>143.905216</v>
+      </c>
+      <c r="H76" s="75">
+        <v>6</v>
+      </c>
+      <c r="I76" s="75">
         <v>11.871592</v>
       </c>
-      <c r="J76" s="49">
+      <c r="J76" s="75">
         <v>60</v>
       </c>
-      <c r="K76" s="49">
+      <c r="K76" s="75">
         <v>11.369538</v>
       </c>
-      <c r="L76" s="60">
+      <c r="L76" s="85">
         <v>40</v>
       </c>
-      <c r="M76" s="49">
+      <c r="M76" s="75">
         <v>6.296171</v>
       </c>
-      <c r="N76" s="49">
-        <v>6</v>
-      </c>
-      <c r="O76" s="49">
-        <v>0</v>
-      </c>
-      <c r="P76" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="49">
+      <c r="N76" s="75">
+        <v>6</v>
+      </c>
+      <c r="O76" s="75">
+        <v>0</v>
+      </c>
+      <c r="P76" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="75">
         <v>-30.537302</v>
       </c>
-      <c r="R76" s="68" t="s">
+      <c r="R76" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="AP76" s="72"/>
+      <c r="AP76" s="97"/>
     </row>
     <row r="77" spans="1:42">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43">
+      <c r="A77" s="68"/>
+      <c r="B77" s="69">
         <v>10</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77" s="76">
         <v>97.546106</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="77">
         <v>144.530786</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="77">
         <v>693.483822</v>
       </c>
-      <c r="F77" s="51">
+      <c r="F77" s="77">
         <v>299.885196</v>
       </c>
-      <c r="G77" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H77" s="51">
-        <v>6</v>
-      </c>
-      <c r="I77" s="51">
+      <c r="G77" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H77" s="77">
+        <v>6</v>
+      </c>
+      <c r="I77" s="77">
         <v>11.987512</v>
       </c>
-      <c r="J77" s="51">
+      <c r="J77" s="77">
         <v>60</v>
       </c>
-      <c r="K77" s="51">
+      <c r="K77" s="77">
         <v>11.558064</v>
       </c>
-      <c r="L77" s="61">
+      <c r="L77" s="86">
         <v>40</v>
       </c>
-      <c r="M77" s="51">
+      <c r="M77" s="77">
         <v>6.400572</v>
       </c>
-      <c r="N77" s="51">
-        <v>6</v>
-      </c>
-      <c r="O77" s="62">
-        <v>0</v>
-      </c>
-      <c r="P77" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="62">
+      <c r="N77" s="77">
+        <v>6</v>
+      </c>
+      <c r="O77" s="87">
+        <v>0</v>
+      </c>
+      <c r="P77" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="87">
         <v>-25.946148</v>
       </c>
-      <c r="R77" s="69" t="s">
+      <c r="R77" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP77" s="72"/>
+      <c r="AP77" s="97"/>
     </row>
     <row r="78" spans="1:42">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43">
+      <c r="A78" s="68"/>
+      <c r="B78" s="69">
         <v>15</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="76">
         <v>128.029264</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="77">
         <v>182.634734</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="77">
         <v>704.857183</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="77">
         <v>302.807676</v>
       </c>
-      <c r="G78" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H78" s="51">
-        <v>6</v>
-      </c>
-      <c r="I78" s="51">
+      <c r="G78" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H78" s="77">
+        <v>6</v>
+      </c>
+      <c r="I78" s="77">
         <v>12.104334</v>
       </c>
-      <c r="J78" s="51">
+      <c r="J78" s="77">
         <v>60</v>
       </c>
-      <c r="K78" s="51">
+      <c r="K78" s="77">
         <v>11.74762</v>
       </c>
-      <c r="L78" s="61">
+      <c r="L78" s="86">
         <v>40</v>
       </c>
-      <c r="M78" s="51">
+      <c r="M78" s="77">
         <v>6.505543</v>
       </c>
-      <c r="N78" s="51">
-        <v>6</v>
-      </c>
-      <c r="O78" s="62">
-        <v>0</v>
-      </c>
-      <c r="P78" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="62">
+      <c r="N78" s="77">
+        <v>6</v>
+      </c>
+      <c r="O78" s="87">
+        <v>0</v>
+      </c>
+      <c r="P78" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="87">
         <v>-21.357498</v>
       </c>
-      <c r="R78" s="69" t="s">
+      <c r="R78" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP78" s="72"/>
+      <c r="AP78" s="97"/>
     </row>
     <row r="79" spans="1:42">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43">
+      <c r="A79" s="68"/>
+      <c r="B79" s="69">
         <v>20</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="76">
         <v>158.512422</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="77">
         <v>220.738681</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="77">
         <v>716.292049</v>
       </c>
-      <c r="F79" s="51">
+      <c r="F79" s="77">
         <v>305.752725</v>
       </c>
-      <c r="G79" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H79" s="51">
-        <v>6</v>
-      </c>
-      <c r="I79" s="51">
+      <c r="G79" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H79" s="77">
+        <v>6</v>
+      </c>
+      <c r="I79" s="77">
         <v>12.222059</v>
       </c>
-      <c r="J79" s="51">
+      <c r="J79" s="77">
         <v>60</v>
       </c>
-      <c r="K79" s="51">
+      <c r="K79" s="77">
         <v>11.938201</v>
       </c>
-      <c r="L79" s="61">
+      <c r="L79" s="86">
         <v>40</v>
       </c>
-      <c r="M79" s="51">
+      <c r="M79" s="77">
         <v>6.611083</v>
       </c>
-      <c r="N79" s="51">
-        <v>6</v>
-      </c>
-      <c r="O79" s="62">
-        <v>0</v>
-      </c>
-      <c r="P79" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="62">
+      <c r="N79" s="77">
+        <v>6</v>
+      </c>
+      <c r="O79" s="87">
+        <v>0</v>
+      </c>
+      <c r="P79" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="87">
         <v>-16.771342</v>
       </c>
-      <c r="R79" s="69" t="s">
+      <c r="R79" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP79" s="72"/>
+      <c r="AP79" s="97"/>
     </row>
     <row r="80" spans="1:42">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43">
+      <c r="A80" s="68"/>
+      <c r="B80" s="69">
         <v>25</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80" s="76">
         <v>188.99558</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="77">
         <v>258.842629</v>
       </c>
-      <c r="E80" s="51">
+      <c r="E80" s="77">
         <v>727.78809</v>
       </c>
-      <c r="F80" s="51">
+      <c r="F80" s="77">
         <v>308.720341</v>
       </c>
-      <c r="G80" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H80" s="51">
-        <v>6</v>
-      </c>
-      <c r="I80" s="51">
+      <c r="G80" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H80" s="77">
+        <v>6</v>
+      </c>
+      <c r="I80" s="77">
         <v>12.340685</v>
       </c>
-      <c r="J80" s="51">
+      <c r="J80" s="77">
         <v>60</v>
       </c>
-      <c r="K80" s="51">
+      <c r="K80" s="77">
         <v>12.129802</v>
       </c>
-      <c r="L80" s="61">
+      <c r="L80" s="86">
         <v>40</v>
       </c>
-      <c r="M80" s="51">
+      <c r="M80" s="77">
         <v>6.717186</v>
       </c>
-      <c r="N80" s="51">
-        <v>6</v>
-      </c>
-      <c r="O80" s="62">
-        <v>0</v>
-      </c>
-      <c r="P80" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="62">
+      <c r="N80" s="77">
+        <v>6</v>
+      </c>
+      <c r="O80" s="87">
+        <v>0</v>
+      </c>
+      <c r="P80" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="87">
         <v>-12.187673</v>
       </c>
-      <c r="R80" s="69" t="s">
+      <c r="R80" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP80" s="72"/>
+      <c r="AP80" s="97"/>
     </row>
     <row r="81" spans="1:42">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43">
+      <c r="A81" s="68"/>
+      <c r="B81" s="69">
         <v>30</v>
       </c>
-      <c r="C81" s="50">
+      <c r="C81" s="76">
         <v>219.478738</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="77">
         <v>296.946576</v>
       </c>
-      <c r="E81" s="51">
+      <c r="E81" s="77">
         <v>739.344983</v>
       </c>
-      <c r="F81" s="51">
+      <c r="F81" s="77">
         <v>311.710525</v>
       </c>
-      <c r="G81" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H81" s="51">
-        <v>6</v>
-      </c>
-      <c r="I81" s="51">
+      <c r="G81" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H81" s="77">
+        <v>6</v>
+      </c>
+      <c r="I81" s="77">
         <v>12.460214</v>
       </c>
-      <c r="J81" s="51">
+      <c r="J81" s="77">
         <v>60</v>
       </c>
-      <c r="K81" s="51">
+      <c r="K81" s="77">
         <v>12.322416</v>
       </c>
-      <c r="L81" s="61">
+      <c r="L81" s="86">
         <v>40</v>
       </c>
-      <c r="M81" s="51">
+      <c r="M81" s="77">
         <v>6.823852</v>
       </c>
-      <c r="N81" s="51">
-        <v>6</v>
-      </c>
-      <c r="O81" s="62">
-        <v>0</v>
-      </c>
-      <c r="P81" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="62">
+      <c r="N81" s="77">
+        <v>6</v>
+      </c>
+      <c r="O81" s="87">
+        <v>0</v>
+      </c>
+      <c r="P81" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="87">
         <v>-7.606482</v>
       </c>
-      <c r="R81" s="69" t="s">
+      <c r="R81" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP81" s="72"/>
+      <c r="AP81" s="97"/>
     </row>
     <row r="82" spans="1:42">
-      <c r="A82" s="42"/>
-      <c r="B82" s="43">
+      <c r="A82" s="68"/>
+      <c r="B82" s="69">
         <v>35</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="76">
         <v>249.961896</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="77">
         <v>335.050524</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="77">
         <v>750.962409</v>
       </c>
-      <c r="F82" s="51">
+      <c r="F82" s="77">
         <v>314.723277</v>
       </c>
-      <c r="G82" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H82" s="51">
-        <v>6</v>
-      </c>
-      <c r="I82" s="51">
+      <c r="G82" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H82" s="77">
+        <v>6</v>
+      </c>
+      <c r="I82" s="77">
         <v>12.580645</v>
       </c>
-      <c r="J82" s="51">
+      <c r="J82" s="77">
         <v>60</v>
       </c>
-      <c r="K82" s="51">
+      <c r="K82" s="77">
         <v>12.51604</v>
       </c>
-      <c r="L82" s="61">
+      <c r="L82" s="86">
         <v>40</v>
       </c>
-      <c r="M82" s="51">
+      <c r="M82" s="77">
         <v>6.931076</v>
       </c>
-      <c r="N82" s="51">
-        <v>6</v>
-      </c>
-      <c r="O82" s="62">
-        <v>0</v>
-      </c>
-      <c r="P82" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="62">
+      <c r="N82" s="77">
+        <v>6</v>
+      </c>
+      <c r="O82" s="87">
+        <v>0</v>
+      </c>
+      <c r="P82" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="87">
         <v>-3.027761</v>
       </c>
-      <c r="R82" s="69" t="s">
+      <c r="R82" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AP82" s="72"/>
+      <c r="AP82" s="97"/>
     </row>
     <row r="83" spans="1:42">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43">
+      <c r="A83" s="68"/>
+      <c r="B83" s="69">
         <v>40</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83" s="76">
         <v>280.445054</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D83" s="77">
         <v>373.154471</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="77">
         <v>762.640054</v>
       </c>
-      <c r="F83" s="51">
+      <c r="F83" s="77">
         <v>317.758597</v>
       </c>
-      <c r="G83" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H83" s="51">
-        <v>6</v>
-      </c>
-      <c r="I83" s="51">
+      <c r="G83" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H83" s="77">
+        <v>6</v>
+      </c>
+      <c r="I83" s="77">
         <v>12.701978</v>
       </c>
-      <c r="J83" s="51">
+      <c r="J83" s="77">
         <v>60</v>
       </c>
-      <c r="K83" s="51">
+      <c r="K83" s="77">
         <v>12.710668</v>
       </c>
-      <c r="L83" s="61">
+      <c r="L83" s="86">
         <v>40</v>
       </c>
-      <c r="M83" s="51">
+      <c r="M83" s="77">
         <v>7.038856</v>
       </c>
-      <c r="N83" s="51">
-        <v>6</v>
-      </c>
-      <c r="O83" s="62">
+      <c r="N83" s="77">
+        <v>6</v>
+      </c>
+      <c r="O83" s="87">
         <v>7.309604</v>
       </c>
-      <c r="P83" s="62">
+      <c r="P83" s="87">
         <v>1</v>
       </c>
-      <c r="Q83" s="62">
+      <c r="Q83" s="87">
         <v>1.548499</v>
       </c>
-      <c r="R83" s="69" t="s">
+      <c r="R83" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AP83" s="72"/>
+      <c r="AP83" s="97"/>
     </row>
     <row r="84" spans="1:42">
-      <c r="A84" s="42"/>
-      <c r="B84" s="43">
+      <c r="A84" s="68"/>
+      <c r="B84" s="69">
         <v>45</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="76">
         <v>310.928212</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D84" s="77">
         <v>411.258419</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="77">
         <v>774.37761</v>
       </c>
-      <c r="F84" s="51">
+      <c r="F84" s="77">
         <v>320.816484</v>
       </c>
-      <c r="G84" s="51">
-        <v>143.905216</v>
-      </c>
-      <c r="H84" s="51">
-        <v>6</v>
-      </c>
-      <c r="I84" s="51">
+      <c r="G84" s="77">
+        <v>143.905216</v>
+      </c>
+      <c r="H84" s="77">
+        <v>6</v>
+      </c>
+      <c r="I84" s="77">
         <v>12.824213</v>
       </c>
-      <c r="J84" s="51">
+      <c r="J84" s="77">
         <v>60</v>
       </c>
-      <c r="K84" s="51">
+      <c r="K84" s="77">
         <v>12.906293</v>
       </c>
-      <c r="L84" s="61">
+      <c r="L84" s="86">
         <v>40</v>
       </c>
-      <c r="M84" s="51">
+      <c r="M84" s="77">
         <v>7.147188</v>
       </c>
-      <c r="N84" s="51">
-        <v>6</v>
-      </c>
-      <c r="O84" s="62">
+      <c r="N84" s="77">
+        <v>6</v>
+      </c>
+      <c r="O84" s="87">
         <v>28.461953</v>
       </c>
-      <c r="P84" s="62">
+      <c r="P84" s="87">
         <v>1</v>
       </c>
-      <c r="Q84" s="62">
+      <c r="Q84" s="87">
         <v>6.122305</v>
       </c>
-      <c r="R84" s="69" t="s">
+      <c r="R84" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AP84" s="72"/>
+      <c r="AP84" s="97"/>
     </row>
     <row r="85" spans="1:42">
-      <c r="A85" s="44"/>
-      <c r="B85" s="45">
+      <c r="A85" s="70"/>
+      <c r="B85" s="71">
         <v>50</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="78">
         <v>341.41137</v>
       </c>
-      <c r="D85" s="53">
+      <c r="D85" s="79">
         <v>449.362367</v>
       </c>
-      <c r="E85" s="53">
+      <c r="E85" s="79">
         <v>786.174771</v>
       </c>
-      <c r="F85" s="53">
+      <c r="F85" s="79">
         <v>323.89694</v>
       </c>
-      <c r="G85" s="53">
-        <v>143.905216</v>
-      </c>
-      <c r="H85" s="53">
-        <v>6</v>
-      </c>
-      <c r="I85" s="53">
+      <c r="G85" s="79">
+        <v>143.905216</v>
+      </c>
+      <c r="H85" s="79">
+        <v>6</v>
+      </c>
+      <c r="I85" s="79">
         <v>12.94735</v>
       </c>
-      <c r="J85" s="53">
+      <c r="J85" s="79">
         <v>60</v>
       </c>
-      <c r="K85" s="53">
+      <c r="K85" s="79">
         <v>13.102913</v>
       </c>
-      <c r="L85" s="63">
+      <c r="L85" s="88">
         <v>40</v>
       </c>
-      <c r="M85" s="53">
+      <c r="M85" s="79">
         <v>7.256071</v>
       </c>
-      <c r="N85" s="53">
-        <v>6</v>
-      </c>
-      <c r="O85" s="53">
+      <c r="N85" s="79">
+        <v>6</v>
+      </c>
+      <c r="O85" s="79">
         <v>48.967734</v>
       </c>
-      <c r="P85" s="53">
+      <c r="P85" s="79">
         <v>1</v>
       </c>
-      <c r="Q85" s="53">
+      <c r="Q85" s="79">
         <v>10.693666</v>
       </c>
-      <c r="R85" s="70" t="s">
+      <c r="R85" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AP85" s="72"/>
+      <c r="AP85" s="97"/>
     </row>
     <row r="86" spans="42:42">
-      <c r="AP86" s="72"/>
+      <c r="AP86" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6115,4 +6233,1015 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="14" width="18.7777777777778" style="2" customWidth="1"/>
+    <col min="15" max="18" width="12.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="57.6" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>60</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="45" customHeight="1" spans="1:14">
+      <c r="A7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="23">
+        <v>3175</v>
+      </c>
+      <c r="D8" s="24">
+        <v>3366.801433</v>
+      </c>
+      <c r="E8" s="24">
+        <v>191.801433</v>
+      </c>
+      <c r="F8" s="24">
+        <v>69.586185</v>
+      </c>
+      <c r="G8" s="25">
+        <v>101.046415</v>
+      </c>
+      <c r="H8" s="24">
+        <v>31.46023</v>
+      </c>
+      <c r="I8" s="24">
+        <v>963.842557</v>
+      </c>
+      <c r="J8" s="24">
+        <v>276.068484</v>
+      </c>
+      <c r="K8" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L8" s="24">
+        <v>16.064043</v>
+      </c>
+      <c r="M8" s="24">
+        <v>11.035471</v>
+      </c>
+      <c r="N8" s="34">
+        <v>4.360717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="23">
+        <v>3175</v>
+      </c>
+      <c r="D9" s="24">
+        <v>3366.801433</v>
+      </c>
+      <c r="E9" s="24">
+        <v>191.801433</v>
+      </c>
+      <c r="F9" s="24">
+        <v>97.193034</v>
+      </c>
+      <c r="G9" s="25">
+        <v>128.653264</v>
+      </c>
+      <c r="H9" s="24">
+        <v>31.46023</v>
+      </c>
+      <c r="I9" s="24">
+        <v>963.842557</v>
+      </c>
+      <c r="J9" s="24">
+        <v>276.068484</v>
+      </c>
+      <c r="K9" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L9" s="24">
+        <v>16.064043</v>
+      </c>
+      <c r="M9" s="24">
+        <v>11.035471</v>
+      </c>
+      <c r="N9" s="34">
+        <v>4.360717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3175</v>
+      </c>
+      <c r="D10" s="24">
+        <v>3366.801433</v>
+      </c>
+      <c r="E10" s="24">
+        <v>191.801433</v>
+      </c>
+      <c r="F10" s="24">
+        <v>124.799882</v>
+      </c>
+      <c r="G10" s="25">
+        <v>156.260112</v>
+      </c>
+      <c r="H10" s="24">
+        <v>31.46023</v>
+      </c>
+      <c r="I10" s="24">
+        <v>963.842557</v>
+      </c>
+      <c r="J10" s="24">
+        <v>276.068484</v>
+      </c>
+      <c r="K10" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L10" s="24">
+        <v>16.064043</v>
+      </c>
+      <c r="M10" s="24">
+        <v>11.035471</v>
+      </c>
+      <c r="N10" s="34">
+        <v>4.360717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3175</v>
+      </c>
+      <c r="D11" s="24">
+        <v>3395.487952</v>
+      </c>
+      <c r="E11" s="24">
+        <v>220.487952</v>
+      </c>
+      <c r="F11" s="24">
+        <v>68.981255</v>
+      </c>
+      <c r="G11" s="25">
+        <v>105.146792</v>
+      </c>
+      <c r="H11" s="24">
+        <v>36.165536</v>
+      </c>
+      <c r="I11" s="24">
+        <v>976.187038</v>
+      </c>
+      <c r="J11" s="24">
+        <v>272.327889</v>
+      </c>
+      <c r="K11" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L11" s="24">
+        <v>16.269784</v>
+      </c>
+      <c r="M11" s="24">
+        <v>10.885945</v>
+      </c>
+      <c r="N11" s="34">
+        <v>9.009807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3175</v>
+      </c>
+      <c r="D12" s="24">
+        <v>3395.487952</v>
+      </c>
+      <c r="E12" s="24">
+        <v>220.487952</v>
+      </c>
+      <c r="F12" s="24">
+        <v>96.214044</v>
+      </c>
+      <c r="G12" s="25">
+        <v>132.379581</v>
+      </c>
+      <c r="H12" s="24">
+        <v>36.165536</v>
+      </c>
+      <c r="I12" s="24">
+        <v>976.187038</v>
+      </c>
+      <c r="J12" s="24">
+        <v>272.327889</v>
+      </c>
+      <c r="K12" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L12" s="24">
+        <v>16.269784</v>
+      </c>
+      <c r="M12" s="24">
+        <v>10.885945</v>
+      </c>
+      <c r="N12" s="34">
+        <v>9.009807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="30">
+        <v>3175</v>
+      </c>
+      <c r="D13" s="31">
+        <v>3395.487952</v>
+      </c>
+      <c r="E13" s="31">
+        <v>220.487952</v>
+      </c>
+      <c r="F13" s="31">
+        <v>123.446833</v>
+      </c>
+      <c r="G13" s="32">
+        <v>159.61237</v>
+      </c>
+      <c r="H13" s="31">
+        <v>36.165536</v>
+      </c>
+      <c r="I13" s="31">
+        <v>976.187038</v>
+      </c>
+      <c r="J13" s="31">
+        <v>272.327889</v>
+      </c>
+      <c r="K13" s="31">
+        <v>143.905216</v>
+      </c>
+      <c r="L13" s="31">
+        <v>16.269784</v>
+      </c>
+      <c r="M13" s="31">
+        <v>10.885945</v>
+      </c>
+      <c r="N13" s="35">
+        <v>9.009807</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:14">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" customHeight="1" spans="1:14">
+      <c r="A17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:14">
+      <c r="A18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2404</v>
+      </c>
+      <c r="D18" s="24">
+        <v>2522.881332</v>
+      </c>
+      <c r="E18" s="24">
+        <v>118.881332</v>
+      </c>
+      <c r="F18" s="24">
+        <v>46.854292</v>
+      </c>
+      <c r="G18" s="25">
+        <v>66.353803</v>
+      </c>
+      <c r="H18" s="24">
+        <v>19.499511</v>
+      </c>
+      <c r="I18" s="24">
+        <v>589.452544</v>
+      </c>
+      <c r="J18" s="24">
+        <v>175.32638</v>
+      </c>
+      <c r="K18" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L18" s="24">
+        <v>9.824209</v>
+      </c>
+      <c r="M18" s="24">
+        <v>7.008439</v>
+      </c>
+      <c r="N18" s="34">
+        <v>2.666862</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:14">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2404</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2522.881332</v>
+      </c>
+      <c r="E19" s="24">
+        <v>118.881332</v>
+      </c>
+      <c r="F19" s="24">
+        <v>64.38693</v>
+      </c>
+      <c r="G19" s="25">
+        <v>83.886441</v>
+      </c>
+      <c r="H19" s="24">
+        <v>19.499511</v>
+      </c>
+      <c r="I19" s="24">
+        <v>589.452544</v>
+      </c>
+      <c r="J19" s="24">
+        <v>175.32638</v>
+      </c>
+      <c r="K19" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L19" s="24">
+        <v>9.824209</v>
+      </c>
+      <c r="M19" s="24">
+        <v>7.008439</v>
+      </c>
+      <c r="N19" s="34">
+        <v>2.666862</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:14">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="23">
+        <v>2404</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2522.881332</v>
+      </c>
+      <c r="E20" s="24">
+        <v>118.881332</v>
+      </c>
+      <c r="F20" s="24">
+        <v>81.919568</v>
+      </c>
+      <c r="G20" s="25">
+        <v>101.419079</v>
+      </c>
+      <c r="H20" s="24">
+        <v>19.499511</v>
+      </c>
+      <c r="I20" s="24">
+        <v>589.452544</v>
+      </c>
+      <c r="J20" s="24">
+        <v>175.32638</v>
+      </c>
+      <c r="K20" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L20" s="24">
+        <v>9.824209</v>
+      </c>
+      <c r="M20" s="24">
+        <v>7.008439</v>
+      </c>
+      <c r="N20" s="34">
+        <v>2.666862</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:14">
+      <c r="A21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2404</v>
+      </c>
+      <c r="D21" s="24">
+        <v>2541.008335</v>
+      </c>
+      <c r="E21" s="24">
+        <v>137.008335</v>
+      </c>
+      <c r="F21" s="24">
+        <v>49.803436</v>
+      </c>
+      <c r="G21" s="25">
+        <v>72.276228</v>
+      </c>
+      <c r="H21" s="24">
+        <v>22.472792</v>
+      </c>
+      <c r="I21" s="24">
+        <v>595.816739</v>
+      </c>
+      <c r="J21" s="24">
+        <v>176.200192</v>
+      </c>
+      <c r="K21" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L21" s="24">
+        <v>9.930279</v>
+      </c>
+      <c r="M21" s="24">
+        <v>7.043369</v>
+      </c>
+      <c r="N21" s="34">
+        <v>5.499145</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:14">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2404</v>
+      </c>
+      <c r="D22" s="24">
+        <v>2541.008335</v>
+      </c>
+      <c r="E22" s="24">
+        <v>137.008335</v>
+      </c>
+      <c r="F22" s="24">
+        <v>67.423455</v>
+      </c>
+      <c r="G22" s="25">
+        <v>89.896247</v>
+      </c>
+      <c r="H22" s="24">
+        <v>22.472792</v>
+      </c>
+      <c r="I22" s="24">
+        <v>595.816739</v>
+      </c>
+      <c r="J22" s="24">
+        <v>176.200192</v>
+      </c>
+      <c r="K22" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L22" s="24">
+        <v>9.930279</v>
+      </c>
+      <c r="M22" s="24">
+        <v>7.043369</v>
+      </c>
+      <c r="N22" s="34">
+        <v>5.499145</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:14">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="30">
+        <v>2404</v>
+      </c>
+      <c r="D23" s="31">
+        <v>2541.008335</v>
+      </c>
+      <c r="E23" s="31">
+        <v>137.008335</v>
+      </c>
+      <c r="F23" s="31">
+        <v>85.043474</v>
+      </c>
+      <c r="G23" s="32">
+        <v>107.516266</v>
+      </c>
+      <c r="H23" s="31">
+        <v>22.472792</v>
+      </c>
+      <c r="I23" s="31">
+        <v>595.816739</v>
+      </c>
+      <c r="J23" s="31">
+        <v>176.200192</v>
+      </c>
+      <c r="K23" s="31">
+        <v>143.905216</v>
+      </c>
+      <c r="L23" s="31">
+        <v>9.930279</v>
+      </c>
+      <c r="M23" s="31">
+        <v>7.043369</v>
+      </c>
+      <c r="N23" s="35">
+        <v>5.499145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="45" customHeight="1" spans="1:14">
+      <c r="A27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:14">
+      <c r="A28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="23">
+        <v>3350</v>
+      </c>
+      <c r="D28" s="24">
+        <v>3515.348458</v>
+      </c>
+      <c r="E28" s="24">
+        <v>165.348458</v>
+      </c>
+      <c r="F28" s="24">
+        <v>75.439915</v>
+      </c>
+      <c r="G28" s="25">
+        <v>102.561196</v>
+      </c>
+      <c r="H28" s="24">
+        <v>27.121281</v>
+      </c>
+      <c r="I28" s="24">
+        <v>699.689863</v>
+      </c>
+      <c r="J28" s="24">
+        <v>307.556777</v>
+      </c>
+      <c r="K28" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L28" s="24">
+        <v>11.661498</v>
+      </c>
+      <c r="M28" s="24">
+        <v>12.294173</v>
+      </c>
+      <c r="N28" s="34">
+        <v>3.16561</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:14">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="23">
+        <v>3350</v>
+      </c>
+      <c r="D29" s="24">
+        <v>3515.348458</v>
+      </c>
+      <c r="E29" s="24">
+        <v>165.348458</v>
+      </c>
+      <c r="F29" s="24">
+        <v>106.195593</v>
+      </c>
+      <c r="G29" s="25">
+        <v>133.316873</v>
+      </c>
+      <c r="H29" s="24">
+        <v>27.121281</v>
+      </c>
+      <c r="I29" s="24">
+        <v>699.689863</v>
+      </c>
+      <c r="J29" s="24">
+        <v>307.556777</v>
+      </c>
+      <c r="K29" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L29" s="24">
+        <v>11.661498</v>
+      </c>
+      <c r="M29" s="24">
+        <v>12.294173</v>
+      </c>
+      <c r="N29" s="34">
+        <v>3.16561</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:14">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="23">
+        <v>3350</v>
+      </c>
+      <c r="D30" s="24">
+        <v>3515.348458</v>
+      </c>
+      <c r="E30" s="24">
+        <v>165.348458</v>
+      </c>
+      <c r="F30" s="24">
+        <v>136.95127</v>
+      </c>
+      <c r="G30" s="25">
+        <v>164.072551</v>
+      </c>
+      <c r="H30" s="24">
+        <v>27.121281</v>
+      </c>
+      <c r="I30" s="24">
+        <v>699.689863</v>
+      </c>
+      <c r="J30" s="24">
+        <v>307.556777</v>
+      </c>
+      <c r="K30" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L30" s="24">
+        <v>11.661498</v>
+      </c>
+      <c r="M30" s="24">
+        <v>12.294173</v>
+      </c>
+      <c r="N30" s="34">
+        <v>3.16561</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:14">
+      <c r="A31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="23">
+        <v>3350</v>
+      </c>
+      <c r="D31" s="24">
+        <v>3535.251231</v>
+      </c>
+      <c r="E31" s="24">
+        <v>185.251231</v>
+      </c>
+      <c r="F31" s="24">
+        <v>73.056599</v>
+      </c>
+      <c r="G31" s="25">
+        <v>103.442432</v>
+      </c>
+      <c r="H31" s="24">
+        <v>30.385833</v>
+      </c>
+      <c r="I31" s="24">
+        <v>705.640359</v>
+      </c>
+      <c r="J31" s="24">
+        <v>303.009167</v>
+      </c>
+      <c r="K31" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L31" s="24">
+        <v>11.760673</v>
+      </c>
+      <c r="M31" s="24">
+        <v>12.112389</v>
+      </c>
+      <c r="N31" s="34">
+        <v>6.512772</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:14">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="23">
+        <v>3350</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3535.251231</v>
+      </c>
+      <c r="E32" s="24">
+        <v>185.251231</v>
+      </c>
+      <c r="F32" s="24">
+        <v>103.357515</v>
+      </c>
+      <c r="G32" s="25">
+        <v>133.743349</v>
+      </c>
+      <c r="H32" s="24">
+        <v>30.385833</v>
+      </c>
+      <c r="I32" s="24">
+        <v>705.640359</v>
+      </c>
+      <c r="J32" s="24">
+        <v>303.009167</v>
+      </c>
+      <c r="K32" s="24">
+        <v>143.905216</v>
+      </c>
+      <c r="L32" s="24">
+        <v>11.760673</v>
+      </c>
+      <c r="M32" s="24">
+        <v>12.112389</v>
+      </c>
+      <c r="N32" s="34">
+        <v>6.512772</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:14">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="30">
+        <v>3350</v>
+      </c>
+      <c r="D33" s="31">
+        <v>3535.251231</v>
+      </c>
+      <c r="E33" s="31">
+        <v>185.251231</v>
+      </c>
+      <c r="F33" s="31">
+        <v>133.658432</v>
+      </c>
+      <c r="G33" s="32">
+        <v>164.044265</v>
+      </c>
+      <c r="H33" s="31">
+        <v>30.385833</v>
+      </c>
+      <c r="I33" s="31">
+        <v>705.640359</v>
+      </c>
+      <c r="J33" s="31">
+        <v>303.009167</v>
+      </c>
+      <c r="K33" s="31">
+        <v>143.905216</v>
+      </c>
+      <c r="L33" s="31">
+        <v>11.760673</v>
+      </c>
+      <c r="M33" s="31">
+        <v>12.112389</v>
+      </c>
+      <c r="N33" s="35">
+        <v>6.512772</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>